--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB276"/>
+  <dimension ref="A1:AB280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21422,6 +21422,326 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>385.9281818181818</v>
+      </c>
+      <c r="C277" t="n">
+        <v>385.43</v>
+      </c>
+      <c r="D277" t="n">
+        <v>385.4566666666667</v>
+      </c>
+      <c r="E277" t="n">
+        <v>372.7566666666667</v>
+      </c>
+      <c r="F277" t="n">
+        <v>382.3066666666667</v>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="n">
+        <v>416.8</v>
+      </c>
+      <c r="I277" t="n">
+        <v>436.2466666666666</v>
+      </c>
+      <c r="J277" t="n">
+        <v>422.78</v>
+      </c>
+      <c r="K277" t="n">
+        <v>419.43</v>
+      </c>
+      <c r="L277" t="n">
+        <v>419.4</v>
+      </c>
+      <c r="M277" t="n">
+        <v>413.04</v>
+      </c>
+      <c r="N277" t="n">
+        <v>407.2633333333333</v>
+      </c>
+      <c r="O277" t="n">
+        <v>404.62</v>
+      </c>
+      <c r="P277" t="n">
+        <v>420.5566666666667</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>405.83</v>
+      </c>
+      <c r="R277" t="n">
+        <v>393.7877777777778</v>
+      </c>
+      <c r="S277" t="n">
+        <v>386.1877777777778</v>
+      </c>
+      <c r="T277" t="n">
+        <v>388.96</v>
+      </c>
+      <c r="U277" t="n">
+        <v>385.55</v>
+      </c>
+      <c r="V277" t="n">
+        <v>378.7569230769231</v>
+      </c>
+      <c r="W277" t="n">
+        <v>377.14</v>
+      </c>
+      <c r="X277" t="n">
+        <v>375.3533333333333</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>377.9577777777778</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>369.17</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>369.8169230769231</v>
+      </c>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>398.3945454545454</v>
+      </c>
+      <c r="C278" t="n">
+        <v>367.53</v>
+      </c>
+      <c r="D278" t="n">
+        <v>347.3366666666667</v>
+      </c>
+      <c r="E278" t="n">
+        <v>331.8866666666667</v>
+      </c>
+      <c r="F278" t="n">
+        <v>344.3966666666667</v>
+      </c>
+      <c r="G278" t="n">
+        <v>462.7533333333333</v>
+      </c>
+      <c r="H278" t="n">
+        <v>465.82</v>
+      </c>
+      <c r="I278" t="n">
+        <v>464.9966666666666</v>
+      </c>
+      <c r="J278" t="n">
+        <v>499.77</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>427.14</v>
+      </c>
+      <c r="N278" t="n">
+        <v>438.3933333333333</v>
+      </c>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="n">
+        <v>408.6866666666667</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>429.5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>422.3477777777778</v>
+      </c>
+      <c r="S278" t="n">
+        <v>397.0577777777777</v>
+      </c>
+      <c r="T278" t="n">
+        <v>388.02</v>
+      </c>
+      <c r="U278" t="n">
+        <v>408.89</v>
+      </c>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="n">
+        <v>416.2233333333333</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>385.0877777777778</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>394.05</v>
+      </c>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="n">
+        <v>327.2933333333333</v>
+      </c>
+      <c r="G279" t="n">
+        <v>382.0666666666667</v>
+      </c>
+      <c r="H279" t="n">
+        <v>426.21</v>
+      </c>
+      <c r="I279" t="n">
+        <v>417.1033333333333</v>
+      </c>
+      <c r="J279" t="n">
+        <v>463.5728571428572</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>466.47</v>
+      </c>
+      <c r="N279" t="n">
+        <v>439.6766666666667</v>
+      </c>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="n">
+        <v>447.0633333333333</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>442.49</v>
+      </c>
+      <c r="R279" t="n">
+        <v>433.9888888888889</v>
+      </c>
+      <c r="S279" t="n">
+        <v>393.6388888888889</v>
+      </c>
+      <c r="T279" t="n">
+        <v>384.61</v>
+      </c>
+      <c r="U279" t="n">
+        <v>411.63</v>
+      </c>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="n">
+        <v>392.5166666666667</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>378.1288888888889</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>379.59</v>
+      </c>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>388.2981818181818</v>
+      </c>
+      <c r="C280" t="n">
+        <v>377.8542857142857</v>
+      </c>
+      <c r="D280" t="n">
+        <v>369.46</v>
+      </c>
+      <c r="E280" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>372.08</v>
+      </c>
+      <c r="H280" t="n">
+        <v>415.5700000000001</v>
+      </c>
+      <c r="I280" t="n">
+        <v>440.19</v>
+      </c>
+      <c r="J280" t="n">
+        <v>426.7742857142857</v>
+      </c>
+      <c r="K280" t="n">
+        <v>427.54</v>
+      </c>
+      <c r="L280" t="n">
+        <v>425.12</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="n">
+        <v>393.3471428571429</v>
+      </c>
+      <c r="P280" t="n">
+        <v>426.91</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>403.79</v>
+      </c>
+      <c r="R280" t="n">
+        <v>402.98</v>
+      </c>
+      <c r="S280" t="n">
+        <v>395.64</v>
+      </c>
+      <c r="T280" t="n">
+        <v>409.07</v>
+      </c>
+      <c r="U280" t="n">
+        <v>383.12</v>
+      </c>
+      <c r="V280" t="n">
+        <v>383.2984615384616</v>
+      </c>
+      <c r="W280" t="n">
+        <v>376.755</v>
+      </c>
+      <c r="X280" t="n">
+        <v>378.13</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>384</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>378.37</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>371.6784615384615</v>
+      </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21433,7 +21753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24301,6 +24621,46 @@
       </c>
       <c r="B286" t="n">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -24469,28 +24829,28 @@
         <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7653703633335436</v>
+        <v>0.4258452915149494</v>
       </c>
       <c r="J2" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K2" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008456530837813059</v>
+        <v>0.002634629627997431</v>
       </c>
       <c r="M2" t="n">
-        <v>50.07739231532258</v>
+        <v>51.45830993876449</v>
       </c>
       <c r="N2" t="n">
-        <v>4034.883309581912</v>
+        <v>4119.892299509181</v>
       </c>
       <c r="O2" t="n">
-        <v>63.52073133695733</v>
+        <v>64.18638718224589</v>
       </c>
       <c r="P2" t="n">
-        <v>465.5429116620465</v>
+        <v>468.5382663323749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24546,28 +24906,28 @@
         <v>0.0446</v>
       </c>
       <c r="I3" t="n">
-        <v>1.010509154014156</v>
+        <v>0.6044457645792017</v>
       </c>
       <c r="J3" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K3" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01349250538530189</v>
+        <v>0.004778269129479318</v>
       </c>
       <c r="M3" t="n">
-        <v>49.85673830888243</v>
+        <v>51.81373980135225</v>
       </c>
       <c r="N3" t="n">
-        <v>4116.89715556877</v>
+        <v>4278.664759206914</v>
       </c>
       <c r="O3" t="n">
-        <v>64.16305132682493</v>
+        <v>65.41150326362263</v>
       </c>
       <c r="P3" t="n">
-        <v>467.5655289445036</v>
+        <v>471.378548993751</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24623,28 +24983,28 @@
         <v>0.0366</v>
       </c>
       <c r="I4" t="n">
-        <v>1.112037124082241</v>
+        <v>0.698759852412972</v>
       </c>
       <c r="J4" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01708197877676976</v>
+        <v>0.006605597472289393</v>
       </c>
       <c r="M4" t="n">
-        <v>50.23064406232063</v>
+        <v>51.90096834572118</v>
       </c>
       <c r="N4" t="n">
-        <v>4014.533495387938</v>
+        <v>4218.071506530148</v>
       </c>
       <c r="O4" t="n">
-        <v>63.36034639573823</v>
+        <v>64.94668202864676</v>
       </c>
       <c r="P4" t="n">
-        <v>466.6581758831979</v>
+        <v>470.4755501255457</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24700,28 +25060,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>1.527198762184192</v>
+        <v>1.07267025656486</v>
       </c>
       <c r="J5" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K5" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03522022483137277</v>
+        <v>0.01676190954784296</v>
       </c>
       <c r="M5" t="n">
-        <v>48.26077376807152</v>
+        <v>49.90766643917217</v>
       </c>
       <c r="N5" t="n">
-        <v>3653.583346397995</v>
+        <v>3928.111420316164</v>
       </c>
       <c r="O5" t="n">
-        <v>60.44487857873482</v>
+        <v>62.67464734895733</v>
       </c>
       <c r="P5" t="n">
-        <v>456.3400226902356</v>
+        <v>460.5098337804998</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24777,28 +25137,28 @@
         <v>0.0446</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1867122664529</v>
+        <v>1.721150850855133</v>
       </c>
       <c r="J6" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K6" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07852622013356392</v>
+        <v>0.04648437848185771</v>
       </c>
       <c r="M6" t="n">
-        <v>42.12529182054803</v>
+        <v>44.07817535776561</v>
       </c>
       <c r="N6" t="n">
-        <v>2998.651872468423</v>
+        <v>3304.011204047865</v>
       </c>
       <c r="O6" t="n">
-        <v>54.75994770330248</v>
+        <v>57.48052891238793</v>
       </c>
       <c r="P6" t="n">
-        <v>446.0712309154993</v>
+        <v>450.5427567459609</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24854,28 +25214,28 @@
         <v>0.1501</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42930430891496</v>
+        <v>2.169722180076631</v>
       </c>
       <c r="J7" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K7" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" t="n">
-        <v>0.115076349548642</v>
+        <v>0.09206940480600811</v>
       </c>
       <c r="M7" t="n">
-        <v>38.4082201940573</v>
+        <v>38.88535547107133</v>
       </c>
       <c r="N7" t="n">
-        <v>2475.852599584187</v>
+        <v>2573.867021061548</v>
       </c>
       <c r="O7" t="n">
-        <v>49.75794006572405</v>
+        <v>50.73329302402465</v>
       </c>
       <c r="P7" t="n">
-        <v>428.3313530979427</v>
+        <v>430.8261618251656</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24931,28 +25291,28 @@
         <v>0.0819</v>
       </c>
       <c r="I8" t="n">
-        <v>1.590878890331863</v>
+        <v>1.411406087992364</v>
       </c>
       <c r="J8" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K8" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07080771760693083</v>
+        <v>0.05742593611858737</v>
       </c>
       <c r="M8" t="n">
-        <v>33.56120230710081</v>
+        <v>33.63115675430929</v>
       </c>
       <c r="N8" t="n">
-        <v>1778.127174064802</v>
+        <v>1790.22570602578</v>
       </c>
       <c r="O8" t="n">
-        <v>42.16784526229437</v>
+        <v>42.31105890929438</v>
       </c>
       <c r="P8" t="n">
-        <v>436.4634142370758</v>
+        <v>438.1793321129769</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25008,28 +25368,28 @@
         <v>0.032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7946262934207381</v>
+        <v>0.7475819037177098</v>
       </c>
       <c r="J9" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K9" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03133327114237872</v>
+        <v>0.02870202951016831</v>
       </c>
       <c r="M9" t="n">
-        <v>26.35336094460836</v>
+        <v>26.20145419065206</v>
       </c>
       <c r="N9" t="n">
-        <v>1028.239402636353</v>
+        <v>1016.228053402015</v>
       </c>
       <c r="O9" t="n">
-        <v>32.066172247968</v>
+        <v>31.87833203607139</v>
       </c>
       <c r="P9" t="n">
-        <v>431.8622500757012</v>
+        <v>432.325359131194</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25085,28 +25445,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.504168934268884</v>
+        <v>0.5880519536411037</v>
       </c>
       <c r="J10" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K10" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01831198997261752</v>
+        <v>0.02472548556539511</v>
       </c>
       <c r="M10" t="n">
-        <v>21.75544811537802</v>
+        <v>21.88021667127128</v>
       </c>
       <c r="N10" t="n">
-        <v>709.1392783512614</v>
+        <v>723.7116900339554</v>
       </c>
       <c r="O10" t="n">
-        <v>26.62966913709709</v>
+        <v>26.90189008292829</v>
       </c>
       <c r="P10" t="n">
-        <v>417.8171528976232</v>
+        <v>416.9859356381964</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25162,28 +25522,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6254528767407753</v>
+        <v>0.6274698651971989</v>
       </c>
       <c r="J11" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02942037949059917</v>
+        <v>0.03019881838308469</v>
       </c>
       <c r="M11" t="n">
-        <v>19.64335385427922</v>
+        <v>19.49700244940757</v>
       </c>
       <c r="N11" t="n">
-        <v>620.4878316599491</v>
+        <v>614.8496025676355</v>
       </c>
       <c r="O11" t="n">
-        <v>24.90959316528371</v>
+        <v>24.79616104496088</v>
       </c>
       <c r="P11" t="n">
-        <v>406.6730007969815</v>
+        <v>406.6521417624933</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25239,28 +25599,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4235584706552831</v>
+        <v>0.453452658298423</v>
       </c>
       <c r="J12" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K12" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01634895322542385</v>
+        <v>0.01899057489392486</v>
       </c>
       <c r="M12" t="n">
-        <v>18.19614834090559</v>
+        <v>18.18332107730197</v>
       </c>
       <c r="N12" t="n">
-        <v>527.5204219644164</v>
+        <v>524.8591323755746</v>
       </c>
       <c r="O12" t="n">
-        <v>22.96781273792558</v>
+        <v>22.9098042849688</v>
       </c>
       <c r="P12" t="n">
-        <v>396.0942713197558</v>
+        <v>395.7900620731835</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25316,28 +25676,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1741483314769683</v>
+        <v>0.2934960504212331</v>
       </c>
       <c r="J13" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K13" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003108029306174487</v>
+        <v>0.008519073976859803</v>
       </c>
       <c r="M13" t="n">
-        <v>17.48067876863098</v>
+        <v>17.86266507799333</v>
       </c>
       <c r="N13" t="n">
-        <v>467.228987306339</v>
+        <v>489.8803773366838</v>
       </c>
       <c r="O13" t="n">
-        <v>21.61548027008281</v>
+        <v>22.13324145570828</v>
       </c>
       <c r="P13" t="n">
-        <v>390.1177534423142</v>
+        <v>388.9014454992223</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25393,28 +25753,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.05675146346236832</v>
+        <v>0.07288255205652212</v>
       </c>
       <c r="J14" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K14" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003018827277512237</v>
+        <v>0.0004863804374621861</v>
       </c>
       <c r="M14" t="n">
-        <v>17.45718901489732</v>
+        <v>17.86190673354826</v>
       </c>
       <c r="N14" t="n">
-        <v>507.455724154376</v>
+        <v>528.5463105474913</v>
       </c>
       <c r="O14" t="n">
-        <v>22.52677793547883</v>
+        <v>22.99013507023156</v>
       </c>
       <c r="P14" t="n">
-        <v>386.8696176711602</v>
+        <v>385.536100991677</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25470,28 +25830,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1710367256650547</v>
+        <v>-0.1345437945372428</v>
       </c>
       <c r="J15" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K15" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003190193858231938</v>
+        <v>0.002001738172404677</v>
       </c>
       <c r="M15" t="n">
-        <v>15.87214510253271</v>
+        <v>15.914045773571</v>
       </c>
       <c r="N15" t="n">
-        <v>421.4968362700382</v>
+        <v>420.8670698105386</v>
       </c>
       <c r="O15" t="n">
-        <v>20.53038811786173</v>
+        <v>20.51504496243034</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0892230385244</v>
+        <v>384.7032580636615</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25547,28 +25907,28 @@
         <v>0.0344</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7367758055528401</v>
+        <v>-0.584095497509368</v>
       </c>
       <c r="J16" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K16" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05424184683965372</v>
+        <v>0.03371309391798294</v>
       </c>
       <c r="M16" t="n">
-        <v>17.63521552431554</v>
+        <v>18.02240001639565</v>
       </c>
       <c r="N16" t="n">
-        <v>488.0153819515493</v>
+        <v>514.4058394409963</v>
       </c>
       <c r="O16" t="n">
-        <v>22.09107018574585</v>
+        <v>22.68051673663976</v>
       </c>
       <c r="P16" t="n">
-        <v>401.0556488398815</v>
+        <v>399.5570248307161</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25624,28 +25984,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9556013647523757</v>
+        <v>-0.798708118971144</v>
       </c>
       <c r="J17" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K17" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1156468372397923</v>
+        <v>0.07873496006989478</v>
       </c>
       <c r="M17" t="n">
-        <v>15.19830581042642</v>
+        <v>15.73114989005086</v>
       </c>
       <c r="N17" t="n">
-        <v>368.4956676587446</v>
+        <v>401.5122883817328</v>
       </c>
       <c r="O17" t="n">
-        <v>19.19624097730451</v>
+        <v>20.03777154230811</v>
       </c>
       <c r="P17" t="n">
-        <v>399.2238202442397</v>
+        <v>397.6995376050843</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25701,28 +26061,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.172290376943064</v>
+        <v>-1.042782630836667</v>
       </c>
       <c r="J18" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K18" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1242080153408981</v>
+        <v>0.09954710789160615</v>
       </c>
       <c r="M18" t="n">
-        <v>17.64078265976347</v>
+        <v>17.96786059366756</v>
       </c>
       <c r="N18" t="n">
-        <v>500.7605758001749</v>
+        <v>518.8774355821035</v>
       </c>
       <c r="O18" t="n">
-        <v>22.37768030427137</v>
+        <v>22.77888135054273</v>
       </c>
       <c r="P18" t="n">
-        <v>406.18406171143</v>
+        <v>404.9213084529365</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25778,28 +26138,28 @@
         <v>0.0512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9244652090872053</v>
+        <v>-0.8701008555689125</v>
       </c>
       <c r="J19" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K19" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1004969836610912</v>
+        <v>0.09225258389091062</v>
       </c>
       <c r="M19" t="n">
-        <v>15.75332557388921</v>
+        <v>15.69725166739683</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8177963090191</v>
+        <v>389.1528701205939</v>
       </c>
       <c r="O19" t="n">
-        <v>19.79438800036564</v>
+        <v>19.72695795404334</v>
       </c>
       <c r="P19" t="n">
-        <v>401.077928885388</v>
+        <v>400.5395769501831</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25855,28 +26215,28 @@
         <v>0.0267</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7629208101622346</v>
+        <v>-0.7194728407073209</v>
       </c>
       <c r="J20" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K20" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05302393704007402</v>
+        <v>0.04893506006897796</v>
       </c>
       <c r="M20" t="n">
-        <v>18.20568646625788</v>
+        <v>18.05286807138206</v>
       </c>
       <c r="N20" t="n">
-        <v>524.4919286314495</v>
+        <v>518.8758069498987</v>
       </c>
       <c r="O20" t="n">
-        <v>22.9017887648858</v>
+        <v>22.77884560178366</v>
       </c>
       <c r="P20" t="n">
-        <v>400.3316242623508</v>
+        <v>399.9014873734212</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25932,28 +26292,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4458322470432554</v>
+        <v>-0.363361774562263</v>
       </c>
       <c r="J21" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K21" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02478764355326391</v>
+        <v>0.01678870459856763</v>
       </c>
       <c r="M21" t="n">
-        <v>16.05497217635429</v>
+        <v>16.19838502758533</v>
       </c>
       <c r="N21" t="n">
-        <v>408.5887000728403</v>
+        <v>412.8596689524135</v>
       </c>
       <c r="O21" t="n">
-        <v>20.21357712214343</v>
+        <v>20.31894851985243</v>
       </c>
       <c r="P21" t="n">
-        <v>386.3186347506271</v>
+        <v>385.5211757898231</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -26009,28 +26369,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4174122599653595</v>
+        <v>-0.3908756719916271</v>
       </c>
       <c r="J22" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K22" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01872162072048489</v>
+        <v>0.01673428647308672</v>
       </c>
       <c r="M22" t="n">
-        <v>17.30409415820245</v>
+        <v>17.28718029790599</v>
       </c>
       <c r="N22" t="n">
-        <v>472.2769909128619</v>
+        <v>469.6093014854372</v>
       </c>
       <c r="O22" t="n">
-        <v>21.73193481751825</v>
+        <v>21.67047072597726</v>
       </c>
       <c r="P22" t="n">
-        <v>377.7955777353274</v>
+        <v>377.5379842813647</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -26086,28 +26446,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4781081047048387</v>
+        <v>-0.451012031004552</v>
       </c>
       <c r="J23" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K23" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0228263551924579</v>
+        <v>0.02073199784048929</v>
       </c>
       <c r="M23" t="n">
-        <v>17.3173435789996</v>
+        <v>17.27375356618638</v>
       </c>
       <c r="N23" t="n">
-        <v>488.2422472581496</v>
+        <v>485.1860065317463</v>
       </c>
       <c r="O23" t="n">
-        <v>22.09620436315137</v>
+        <v>22.02693820147835</v>
       </c>
       <c r="P23" t="n">
-        <v>375.653876735383</v>
+        <v>375.3843472781845</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -26163,28 +26523,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01125563442323175</v>
+        <v>0.06661938090517694</v>
       </c>
       <c r="J24" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K24" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L24" t="n">
-        <v>1.409852923361932e-05</v>
+        <v>0.0005002395928197512</v>
       </c>
       <c r="M24" t="n">
-        <v>17.0596291217563</v>
+        <v>17.13144518976726</v>
       </c>
       <c r="N24" t="n">
-        <v>467.7560155089877</v>
+        <v>471.8140752640435</v>
       </c>
       <c r="O24" t="n">
-        <v>21.6276678240856</v>
+        <v>21.72128162112088</v>
       </c>
       <c r="P24" t="n">
-        <v>369.561932482361</v>
+        <v>368.8108237557153</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -26240,28 +26600,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4005008725629862</v>
+        <v>0.4099368851719067</v>
       </c>
       <c r="J25" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K25" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01813844612276727</v>
+        <v>0.01973384862726257</v>
       </c>
       <c r="M25" t="n">
-        <v>17.37606205018569</v>
+        <v>17.11758265016228</v>
       </c>
       <c r="N25" t="n">
-        <v>451.6861708220415</v>
+        <v>443.7470879932807</v>
       </c>
       <c r="O25" t="n">
-        <v>21.25290970248642</v>
+        <v>21.06530531450424</v>
       </c>
       <c r="P25" t="n">
-        <v>368.5803480528033</v>
+        <v>368.489098049595</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -26317,28 +26677,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4197722145315773</v>
+        <v>0.4397027807845497</v>
       </c>
       <c r="J26" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K26" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01772553039260505</v>
+        <v>0.02019404829862526</v>
       </c>
       <c r="M26" t="n">
-        <v>17.66255398237939</v>
+        <v>17.47516038825282</v>
       </c>
       <c r="N26" t="n">
-        <v>499.8866199538907</v>
+        <v>492.2980604400694</v>
       </c>
       <c r="O26" t="n">
-        <v>22.35814437635402</v>
+        <v>22.18779079674381</v>
       </c>
       <c r="P26" t="n">
-        <v>364.6162629475622</v>
+        <v>364.4243211413112</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -26394,28 +26754,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1971980709629734</v>
+        <v>0.205403098238528</v>
       </c>
       <c r="J27" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K27" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004867251314370158</v>
+        <v>0.005402419798412939</v>
       </c>
       <c r="M27" t="n">
-        <v>16.50530572230788</v>
+        <v>16.37300959265431</v>
       </c>
       <c r="N27" t="n">
-        <v>417.39886074814</v>
+        <v>413.2535664803778</v>
       </c>
       <c r="O27" t="n">
-        <v>20.43034166988257</v>
+        <v>20.32863907103419</v>
       </c>
       <c r="P27" t="n">
-        <v>361.895966780808</v>
+        <v>361.8181997218185</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -26452,7 +26812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB276"/>
+  <dimension ref="A1:AB280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57840,6 +58200,494 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>-37.79794276449261,174.84128157332026</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>-37.79739336376125,174.8407125978386</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>-37.79684702117578,174.84013908082062</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>-37.79622642273492,174.83967568693527</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>-37.79573452196847,174.8390185717155</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>-37.79482418439347,174.83758825637946</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>-37.794312461149026,174.83679202725764</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>-37.79351246243476,174.836487409002</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>-37.79278504929328,174.83624951647516</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>-37.792082632101994,174.83598454793767</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>-37.79132428705719,174.8358568429191</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>-37.79057922193147,174.83585132980716</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>-37.789866778692485,174.8358154096968</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>-37.78916321631838,174.83557910724997</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>-37.78844256881509,174.83570103362888</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>-37.78773152310991,174.83579337854806</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>-37.78702904454261,174.8358095302705</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>-37.786334742830036,174.83566386736112</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>-37.785626237699724,174.8355864941688</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>-37.78491247792327,174.83554790543874</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>-37.78420465703231,174.83546003457468</t>
+        </is>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>-37.78349754160239,174.8353742582765</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>-37.78280141800516,174.83524034406233</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>-37.78209382575294,174.83517499678476</t>
+        </is>
+      </c>
+      <c r="AA277" t="inlineStr">
+        <is>
+          <t>-37.78139713513661,174.83500253573828</t>
+        </is>
+      </c>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>-37.7980154985282,174.84117370119534</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-37.79728892791285,174.84086748657654</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>-37.79662461446778,174.840468931554</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>-37.79598797223934,174.84002933124728</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-37.7955150776844,174.83934844838478</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>-37.795641897016566,174.83774842263313</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>-37.79510474882293,174.83715836971558</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>-37.79445153061008,174.83651661412495</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>-37.7937647580402,174.83567309422747</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>-37.79134354485843,174.8356985999434</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>-37.790603255370385,174.8354991798494</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>-37.78915590390286,174.83571356118318</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>-37.78845589251779,174.83543281729968</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>-37.787751426929056,174.8354700923418</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>-37.787040486414874,174.83568696331724</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>-37.78633354571316,174.83567443236387</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>-37.7856558517628,174.83532415006079</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>-37.78354558904808,174.83491423109106</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>-37.78281190222523,174.83516048373943</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>-37.782137774407396,174.83489802269023</t>
+        </is>
+      </c>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>-37.79541607373627,174.83949727366198</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>-37.79517932091702,174.83845522015457</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>-37.79487804234889,174.83750573453005</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>-37.794219860698846,174.83697541190728</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>-37.7936461409815,174.8360559481469</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>-37.79139726071863,174.83525720256765</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>-37.79060424612571,174.83548466247194</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>-37.78917954497985,174.8352788606622</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>-37.78846320425318,174.83528562121438</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>-37.78775953951081,174.83533832020007</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>-37.7870368876714,174.83572551371697</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>-37.78632920297282,174.83571275859407</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>-37.78565932826862,174.83529335215107</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>-37.78351771931702,174.8351810702022</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>-37.78280166961399,174.8352384275144</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>-37.782112231979916,174.83505899722715</t>
+        </is>
+      </c>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>-37.79795659208178,174.8412610655973</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>-37.7973491640001,174.84077815056392</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>-37.79675369059117,174.84027749953697</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>-37.79613035031378,174.8398181717468</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>-37.79512206714489,174.8385427005492</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>-37.79481714450787,174.8375990429672</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>-37.7943315358724,174.83675425181409</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>-37.79352555181187,174.83644516202182</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>-37.79280683059371,174.83616161871487</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>-37.792095927336625,174.83592179993326</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>-37.78985865509352,174.83594299036145</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>-37.78916713017416,174.8355071417221</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>-37.78844142048269,174.83572414985943</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>-37.787737929380256,174.83568932679754</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>-37.78703899405479,174.83570294976886</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>-37.78636035326474,174.83543784364753</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>-37.785623154454235,174.8356138076165</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>-37.784918018146,174.83549681953102</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>-37.78420420440888,174.83546436812009</t>
+        </is>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>-37.78350080595391,174.83534300451367</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>-37.78281030271934,174.83517266751167</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>-37.78211007693806,174.83507257875246</t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>-37.781400428576156,174.83498181385244</t>
+        </is>
+      </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -24674,7 +24674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24765,35 +24765,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24852,27 +24857,28 @@
       <c r="P2" t="n">
         <v>468.5382663323749</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.84462092567435 -37.79569104975102, 174.8366958815125 -37.8010345108738)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8446209256743</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.79569104975102</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8366958815125</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.8010345108738</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8406584035934</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.79836278031241</v>
       </c>
     </row>
@@ -24929,27 +24935,28 @@
       <c r="P3" t="n">
         <v>471.378548993751</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.8440476274632 -37.795144566152054, 174.83612259190386 -37.80048801559319)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8440476274632</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.79514456615205</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8361225919039</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.80048801559319</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8400851096835</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.79781629087262</v>
       </c>
     </row>
@@ -25006,27 +25013,28 @@
       <c r="P4" t="n">
         <v>470.4755501255457</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.84347432925182 -37.794598078510305, 174.83554930229565 -37.79994151626996)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8434743292518</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.7945980785103</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8355493022956</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.79994151626996</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8395118157737</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.79726979739013</v>
       </c>
     </row>
@@ -25083,27 +25091,28 @@
       <c r="P5" t="n">
         <v>460.5098337804998</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.84290103104004 -37.794051586825695, 174.83497601268812 -37.799395012904235)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.84290103104</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.7940515868257</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8349760126881</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.79939501290423</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8389385218641</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.79672329986496</v>
       </c>
     </row>
@@ -25160,27 +25169,28 @@
       <c r="P6" t="n">
         <v>450.5427567459609</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.84234515148566 -37.79352147678825, 174.834375479554 -37.79882302007837)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8423451514857</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.79352147678825</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.834375479554</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.79882302007837</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8383603155198</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.79617224843331</v>
       </c>
     </row>
@@ -25237,27 +25247,28 @@
       <c r="P7" t="n">
         <v>430.8261618251656</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.84180191992593 -37.79298888041158, 174.83377890019005 -37.79823963783917)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8418019199259</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.79298888041158</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8337789001901</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.79823963783917</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.837790410058</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.79561425912537</v>
       </c>
     </row>
@@ -25314,27 +25325,28 @@
       <c r="P8" t="n">
         <v>438.1793321129769</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.8412433007899 -37.79243858219609, 174.8332112593231 -37.79768065040847)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8412433007899</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.79243858219609</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8332112593231</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.79768065040847</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8372272800565</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.79505961630228</v>
       </c>
     </row>
@@ -25391,27 +25403,28 @@
       <c r="P9" t="n">
         <v>432.325359131194</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.84097096153 -37.7922021732326, 174.83219560633796 -37.79663326663277)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.84097096153</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.7922021732326</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.832195606338</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.79663326663277</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.836583283934</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.79441771993268</v>
       </c>
     </row>
@@ -25468,27 +25481,28 @@
       <c r="P10" t="n">
         <v>416.9859356381964</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.84095900433996 -37.79212691781781, 174.83126788708083 -37.79512947806754)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.84095900434</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.79212691781781</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8312678870808</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.79512947806754</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8361134457104</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.79362819794267</v>
       </c>
     </row>
@@ -25545,27 +25559,28 @@
       <c r="P11" t="n">
         <v>406.6521417624933</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.84079530680677 -37.79165848428027, 174.83086409266005 -37.79411942818319)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8407953068068</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.79165848428027</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8308640926601</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.79411942818319</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8358296997334</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.79288895623173</v>
       </c>
     </row>
@@ -25622,27 +25637,28 @@
       <c r="P12" t="n">
         <v>395.7900620731835</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.84058527212235 -37.791107713594336, 174.8305329985966 -37.793237581187554)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8405852721224</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.79110771359434</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8305329985966</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.79323758118755</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8355591353595</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.79217264739094</v>
       </c>
     </row>
@@ -25699,27 +25715,28 @@
       <c r="P13" t="n">
         <v>388.9014454992223</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.84049231176417 -37.790760062964985, 174.83020756976592 -37.79201165314828)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8404923117642</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.79076006296498</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.8302075697659</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.79201165314828</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.835349940765</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.79138585805663</v>
       </c>
     </row>
@@ -25776,27 +25793,28 @@
       <c r="P14" t="n">
         <v>385.536100991677</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.84045836440455 -37.79026470404277, 174.83009150863583 -37.79097218285524)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8404583644046</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.79026470404277</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8300915086358</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.79097218285524</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8352749365202</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.79061844344901</v>
       </c>
     </row>
@@ -25853,27 +25871,28 @@
       <c r="P15" t="n">
         <v>384.7032580636615</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.84039467921497 -37.789575109832995, 174.83002293985925 -37.79023546255879)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.840394679215</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.789575109833</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.8300229398592</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.79023546255879</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.8352088095371</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.78990528619589</v>
       </c>
     </row>
@@ -25930,27 +25949,28 @@
       <c r="P16" t="n">
         <v>399.5570248307161</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.84034281914865 -37.78890404262733, 174.82996214065102 -37.78946856266005)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8403428191486</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.78890404262733</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.829962140651</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.78946856266005</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8351524798998</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.78918630264369</v>
       </c>
     </row>
@@ -26007,27 +26027,28 @@
       <c r="P17" t="n">
         <v>397.6995376050843</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.84029967263743 -37.78821403486216, 174.82991502597824 -37.788729853606895)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8402996726374</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.78821403486216</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.8299150259782</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.7887298536069</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.8351073493078</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.78847194423453</v>
       </c>
     </row>
@@ -26084,27 +26105,28 @@
       <c r="P18" t="n">
         <v>404.9213084529365</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.8402508556213 -37.787456997474635, 174.8298771447366 -37.78809562707682)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.8402508556213</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.78745699747464</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.8298771447366</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.78809562707682</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.8350640001789</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.78777631227572</v>
       </c>
     </row>
@@ -26161,27 +26183,28 @@
       <c r="P19" t="n">
         <v>400.5395769501831</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.8401640432279 -37.78662245721143, 174.8298305688213 -37.78758704040966)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.8401640432279</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.78662245721143</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.8298305688213</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.78758704040966</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.8349973060246</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.78710474881055</v>
       </c>
     </row>
@@ -26238,27 +26261,28 @@
       <c r="P20" t="n">
         <v>399.9014873734212</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.84003549821904 -37.785839310937575, 174.8297353818322 -37.78700634257964)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.840035498219</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.78583931093758</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.8297353818322</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.78700634257964</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.8348854400256</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.78642282675861</v>
       </c>
     </row>
@@ -26315,27 +26339,28 @@
       <c r="P21" t="n">
         <v>385.5211757898231</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.83992008385647 -37.785136963578644, 174.8296192544466 -37.78629968498691)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.8399200838565</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.78513696357864</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.8296192544466</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.78629968498691</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.8347696691515</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.78571832428278</v>
       </c>
     </row>
@@ -26392,27 +26417,28 @@
       <c r="P22" t="n">
         <v>377.5379842813647</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.83980835705063 -37.78445035503813, 174.8294996927697 -37.78556824228188)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.8398083570506</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.78445035503813</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.8294996927697</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.78556824228188</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.8346540249102</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.78500929866001</v>
       </c>
     </row>
@@ -26469,27 +26495,28 @@
       <c r="P23" t="n">
         <v>375.3843472781845</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.8397050796778 -37.783761198379715, 174.8293896070361 -37.78483853027641)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.8397050796778</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.78376119837971</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.8293896070361</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.78483853027641</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.8345473433569</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.78429986432806</v>
       </c>
     </row>
@@ -26546,27 +26573,28 @@
       <c r="P24" t="n">
         <v>368.8108237557153</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.83959915327833 -37.78305618669875, 174.8292837431691 -37.7841335141665)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.8395991532783</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-37.78305618669875</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.8292837431691</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-37.7841335141665</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.8344414482237</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-37.78359485043262</v>
       </c>
     </row>
@@ -26623,27 +26651,28 @@
       <c r="P25" t="n">
         <v>368.489098049595</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.83947366489102 -37.78224557796368, 174.8292089880893 -37.78359306630715)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.839473664891</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-37.78224557796368</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.8292089880893</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-37.78359306630715</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.8343413264902</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-37.78291932213541</v>
       </c>
     </row>
@@ -26700,27 +26729,28 @@
       <c r="P26" t="n">
         <v>364.4243211413112</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.8392847030292 -37.78144163904713, 174.82908266335411 -37.78306036063355)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.8392847030292</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-37.78144163904713</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.8290826633541</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-37.78306036063355</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.8341836831917</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-37.78225099984034</v>
       </c>
     </row>
@@ -26777,27 +26807,28 @@
       <c r="P27" t="n">
         <v>361.8181997218185</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.83911914731914 -37.780742782498876, 174.82891781081912 -37.78236404459647)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.8391191473191</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-37.78074278249888</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.8289178108191</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-37.78236404459647</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.8340184790691</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-37.78155341354767</v>
       </c>
     </row>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB280"/>
+  <dimension ref="A1:AB284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21676,7 +21676,9 @@
       <c r="E280" t="n">
         <v>356.29</v>
       </c>
-      <c r="F280" t="inlineStr"/>
+      <c r="F280" t="n">
+        <v>369.27</v>
+      </c>
       <c r="G280" t="n">
         <v>372.08</v>
       </c>
@@ -21695,8 +21697,12 @@
       <c r="L280" t="n">
         <v>425.12</v>
       </c>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>410.6</v>
+      </c>
+      <c r="N280" t="n">
+        <v>393.31</v>
+      </c>
       <c r="O280" t="n">
         <v>393.3471428571429</v>
       </c>
@@ -21739,6 +21745,362 @@
       <c r="AB280" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>378.2081818181818</v>
+      </c>
+      <c r="C281" t="n">
+        <v>341.9414285714286</v>
+      </c>
+      <c r="D281" t="n">
+        <v>316.74</v>
+      </c>
+      <c r="E281" t="n">
+        <v>314.95</v>
+      </c>
+      <c r="F281" t="n">
+        <v>351.47</v>
+      </c>
+      <c r="G281" t="n">
+        <v>382.74</v>
+      </c>
+      <c r="H281" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="I281" t="n">
+        <v>437.54</v>
+      </c>
+      <c r="J281" t="n">
+        <v>478.8514285714285</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>453.66</v>
+      </c>
+      <c r="M281" t="n">
+        <v>430.67</v>
+      </c>
+      <c r="N281" t="n">
+        <v>422.01</v>
+      </c>
+      <c r="O281" t="n">
+        <v>420.6057142857143</v>
+      </c>
+      <c r="P281" t="n">
+        <v>430.06</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>427.24</v>
+      </c>
+      <c r="R281" t="n">
+        <v>424.6033333333333</v>
+      </c>
+      <c r="S281" t="n">
+        <v>418.1133333333333</v>
+      </c>
+      <c r="T281" t="n">
+        <v>412.63</v>
+      </c>
+      <c r="U281" t="n">
+        <v>418.54</v>
+      </c>
+      <c r="V281" t="n">
+        <v>415.7438461538461</v>
+      </c>
+      <c r="W281" t="n">
+        <v>404.59</v>
+      </c>
+      <c r="X281" t="n">
+        <v>392.13</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>392.7433333333333</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>401.22</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>407.4738461538461</v>
+      </c>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>371.5672727272727</v>
+      </c>
+      <c r="C282" t="n">
+        <v>329.1857142857143</v>
+      </c>
+      <c r="D282" t="n">
+        <v>329.79</v>
+      </c>
+      <c r="E282" t="n">
+        <v>340.35</v>
+      </c>
+      <c r="F282" t="n">
+        <v>337.91</v>
+      </c>
+      <c r="G282" t="n">
+        <v>356.59</v>
+      </c>
+      <c r="H282" t="n">
+        <v>384.71</v>
+      </c>
+      <c r="I282" t="n">
+        <v>440.17</v>
+      </c>
+      <c r="J282" t="n">
+        <v>463.2557142857143</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>452.09</v>
+      </c>
+      <c r="M282" t="n">
+        <v>420.79</v>
+      </c>
+      <c r="N282" t="n">
+        <v>405.18</v>
+      </c>
+      <c r="O282" t="n">
+        <v>411.9628571428572</v>
+      </c>
+      <c r="P282" t="n">
+        <v>425.52</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>423.91</v>
+      </c>
+      <c r="R282" t="n">
+        <v>424.2933333333333</v>
+      </c>
+      <c r="S282" t="n">
+        <v>407.6233333333333</v>
+      </c>
+      <c r="T282" t="n">
+        <v>393.75</v>
+      </c>
+      <c r="U282" t="n">
+        <v>393.69</v>
+      </c>
+      <c r="V282" t="n">
+        <v>393.1876923076923</v>
+      </c>
+      <c r="W282" t="n">
+        <v>387.625</v>
+      </c>
+      <c r="X282" t="n">
+        <v>383.14</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>379.4733333333333</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>383.73</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>389.4176923076923</v>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>369.17</v>
+      </c>
+      <c r="C283" t="n">
+        <v>343.6185714285714</v>
+      </c>
+      <c r="D283" t="n">
+        <v>340.0266666666667</v>
+      </c>
+      <c r="E283" t="n">
+        <v>342.2666666666667</v>
+      </c>
+      <c r="F283" t="n">
+        <v>355.0966666666667</v>
+      </c>
+      <c r="G283" t="n">
+        <v>360.6233333333333</v>
+      </c>
+      <c r="H283" t="n">
+        <v>392.64</v>
+      </c>
+      <c r="I283" t="n">
+        <v>426.0966666666667</v>
+      </c>
+      <c r="J283" t="n">
+        <v>436.2385714285714</v>
+      </c>
+      <c r="K283" t="n">
+        <v>427.99</v>
+      </c>
+      <c r="L283" t="n">
+        <v>422.6</v>
+      </c>
+      <c r="M283" t="n">
+        <v>414.44</v>
+      </c>
+      <c r="N283" t="n">
+        <v>403.8033333333333</v>
+      </c>
+      <c r="O283" t="n">
+        <v>402.1042857142857</v>
+      </c>
+      <c r="P283" t="n">
+        <v>425.2666666666667</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>409.89</v>
+      </c>
+      <c r="R283" t="n">
+        <v>406.1244444444445</v>
+      </c>
+      <c r="S283" t="n">
+        <v>400.1444444444445</v>
+      </c>
+      <c r="T283" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="U283" t="n">
+        <v>389.1</v>
+      </c>
+      <c r="V283" t="n">
+        <v>384.0430769230769</v>
+      </c>
+      <c r="W283" t="n">
+        <v>386.57</v>
+      </c>
+      <c r="X283" t="n">
+        <v>382.0033333333333</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>388.5644444444445</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>384.01</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>382.7230769230769</v>
+      </c>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>365.88</v>
+      </c>
+      <c r="C284" t="n">
+        <v>356.0442857142857</v>
+      </c>
+      <c r="D284" t="n">
+        <v>336.99</v>
+      </c>
+      <c r="E284" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="F284" t="n">
+        <v>353.69</v>
+      </c>
+      <c r="G284" t="n">
+        <v>352.92</v>
+      </c>
+      <c r="H284" t="n">
+        <v>402</v>
+      </c>
+      <c r="I284" t="n">
+        <v>448.62</v>
+      </c>
+      <c r="J284" t="n">
+        <v>457.4442857142857</v>
+      </c>
+      <c r="K284" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="L284" t="n">
+        <v>454.61</v>
+      </c>
+      <c r="M284" t="n">
+        <v>434.48</v>
+      </c>
+      <c r="N284" t="n">
+        <v>405.44</v>
+      </c>
+      <c r="O284" t="n">
+        <v>406.8471428571429</v>
+      </c>
+      <c r="P284" t="n">
+        <v>440.54</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="R284" t="n">
+        <v>425.1233333333333</v>
+      </c>
+      <c r="S284" t="n">
+        <v>421.2533333333333</v>
+      </c>
+      <c r="T284" t="n">
+        <v>430.89</v>
+      </c>
+      <c r="U284" t="n">
+        <v>407.08</v>
+      </c>
+      <c r="V284" t="n">
+        <v>390.0476923076923</v>
+      </c>
+      <c r="W284" t="n">
+        <v>380.44</v>
+      </c>
+      <c r="X284" t="n">
+        <v>394.46</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>412.1233333333333</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>397.41</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>394.3376923076923</v>
+      </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21753,7 +22115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24661,6 +25023,46 @@
       </c>
       <c r="B290" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -24834,28 +25236,28 @@
         <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4258452915149494</v>
+        <v>-0.06434494598224838</v>
       </c>
       <c r="J2" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K2" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002634629627997431</v>
+        <v>5.940612626398334e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>51.45830993876449</v>
+        <v>53.78621729730079</v>
       </c>
       <c r="N2" t="n">
-        <v>4119.892299509181</v>
+        <v>4292.322299925451</v>
       </c>
       <c r="O2" t="n">
-        <v>64.18638718224589</v>
+        <v>65.51581717360665</v>
       </c>
       <c r="P2" t="n">
-        <v>468.5382663323749</v>
+        <v>472.908354279014</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24912,28 +25314,28 @@
         <v>0.0446</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6044457645792017</v>
+        <v>-0.030748036509752</v>
       </c>
       <c r="J3" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K3" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004778269129479318</v>
+        <v>1.172213127931254e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>51.81373980135225</v>
+        <v>55.21347203058414</v>
       </c>
       <c r="N3" t="n">
-        <v>4278.664759206914</v>
+        <v>4644.860110049323</v>
       </c>
       <c r="O3" t="n">
-        <v>65.41150326362263</v>
+        <v>68.15321056303455</v>
       </c>
       <c r="P3" t="n">
-        <v>471.378548993751</v>
+        <v>477.4017767986045</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24990,28 +25392,28 @@
         <v>0.0366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.698759852412972</v>
+        <v>0.05184023581521114</v>
       </c>
       <c r="J4" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K4" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006605597472289393</v>
+        <v>3.393373408655531e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>51.90096834572118</v>
+        <v>55.03235387571873</v>
       </c>
       <c r="N4" t="n">
-        <v>4218.071506530148</v>
+        <v>4652.076717959456</v>
       </c>
       <c r="O4" t="n">
-        <v>64.94668202864676</v>
+        <v>68.20613402003852</v>
       </c>
       <c r="P4" t="n">
-        <v>470.4755501255457</v>
+        <v>476.5107827391466</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25068,28 +25470,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>1.07267025656486</v>
+        <v>0.4433268380614802</v>
       </c>
       <c r="J5" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01676190954784296</v>
+        <v>0.00267870603043241</v>
       </c>
       <c r="M5" t="n">
-        <v>49.90766643917217</v>
+        <v>52.66630849106009</v>
       </c>
       <c r="N5" t="n">
-        <v>3928.111420316164</v>
+        <v>4352.373211978565</v>
       </c>
       <c r="O5" t="n">
-        <v>62.67464734895733</v>
+        <v>65.97251861175656</v>
       </c>
       <c r="P5" t="n">
-        <v>460.5098337804998</v>
+        <v>466.3424430015015</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25146,28 +25548,28 @@
         <v>0.0446</v>
       </c>
       <c r="I6" t="n">
-        <v>1.721150850855133</v>
+        <v>1.037522733201328</v>
       </c>
       <c r="J6" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K6" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04648437848185771</v>
+        <v>0.01598469914890954</v>
       </c>
       <c r="M6" t="n">
-        <v>44.07817535776561</v>
+        <v>47.13593607065275</v>
       </c>
       <c r="N6" t="n">
-        <v>3304.011204047865</v>
+        <v>3699.619130178393</v>
       </c>
       <c r="O6" t="n">
-        <v>57.48052891238793</v>
+        <v>60.82449449176206</v>
       </c>
       <c r="P6" t="n">
-        <v>450.5427567459609</v>
+        <v>457.1645223807557</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25224,28 +25626,28 @@
         <v>0.1501</v>
       </c>
       <c r="I7" t="n">
-        <v>2.169722180076631</v>
+        <v>1.68836556882806</v>
       </c>
       <c r="J7" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K7" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09206940480600811</v>
+        <v>0.05395314141212026</v>
       </c>
       <c r="M7" t="n">
-        <v>38.88535547107133</v>
+        <v>40.20480512931876</v>
       </c>
       <c r="N7" t="n">
-        <v>2573.867021061548</v>
+        <v>2827.280578664139</v>
       </c>
       <c r="O7" t="n">
-        <v>50.73329302402465</v>
+        <v>53.17217861498754</v>
       </c>
       <c r="P7" t="n">
-        <v>430.8261618251656</v>
+        <v>435.4913245762981</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25302,28 +25704,28 @@
         <v>0.0819</v>
       </c>
       <c r="I8" t="n">
-        <v>1.411406087992364</v>
+        <v>1.111516599269105</v>
       </c>
       <c r="J8" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K8" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05742593611858737</v>
+        <v>0.03552493099252474</v>
       </c>
       <c r="M8" t="n">
-        <v>33.63115675430929</v>
+        <v>34.3219908086844</v>
       </c>
       <c r="N8" t="n">
-        <v>1790.22570602578</v>
+        <v>1875.018731038959</v>
       </c>
       <c r="O8" t="n">
-        <v>42.31105890929438</v>
+        <v>43.30148647608947</v>
       </c>
       <c r="P8" t="n">
-        <v>438.1793321129769</v>
+        <v>441.0721208972921</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25380,28 +25782,28 @@
         <v>0.032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7475819037177098</v>
+        <v>0.6991136464137313</v>
       </c>
       <c r="J9" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K9" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02870202951016831</v>
+        <v>0.02603947295430076</v>
       </c>
       <c r="M9" t="n">
-        <v>26.20145419065206</v>
+        <v>25.93800992394385</v>
       </c>
       <c r="N9" t="n">
-        <v>1016.228053402015</v>
+        <v>1000.664032440839</v>
       </c>
       <c r="O9" t="n">
-        <v>31.87833203607139</v>
+        <v>31.63327413406395</v>
       </c>
       <c r="P9" t="n">
-        <v>432.325359131194</v>
+        <v>432.8063020472417</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25458,28 +25860,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5880519536411037</v>
+        <v>0.6840367652172493</v>
       </c>
       <c r="J10" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K10" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02472548556539511</v>
+        <v>0.03358385043541978</v>
       </c>
       <c r="M10" t="n">
-        <v>21.88021667127128</v>
+        <v>21.95803320161901</v>
       </c>
       <c r="N10" t="n">
-        <v>723.7116900339554</v>
+        <v>727.4938927719461</v>
       </c>
       <c r="O10" t="n">
-        <v>26.90189008292829</v>
+        <v>26.97209470493432</v>
       </c>
       <c r="P10" t="n">
-        <v>416.9859356381964</v>
+        <v>416.0265310542528</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25536,28 +25938,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6274698651971989</v>
+        <v>0.6758321391112098</v>
       </c>
       <c r="J11" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K11" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03019881838308469</v>
+        <v>0.03507694302980158</v>
       </c>
       <c r="M11" t="n">
-        <v>19.49700244940757</v>
+        <v>19.53555556513776</v>
       </c>
       <c r="N11" t="n">
-        <v>614.8496025676355</v>
+        <v>618.0594053923106</v>
       </c>
       <c r="O11" t="n">
-        <v>24.79616104496088</v>
+        <v>24.86080057826599</v>
       </c>
       <c r="P11" t="n">
-        <v>406.6521417624933</v>
+        <v>406.1506956882218</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25614,28 +26016,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.453452658298423</v>
+        <v>0.5959099836244289</v>
       </c>
       <c r="J12" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01899057489392486</v>
+        <v>0.03190728914248431</v>
       </c>
       <c r="M12" t="n">
-        <v>18.18332107730197</v>
+        <v>18.60789264746147</v>
       </c>
       <c r="N12" t="n">
-        <v>524.8591323755746</v>
+        <v>543.8853465679306</v>
       </c>
       <c r="O12" t="n">
-        <v>22.9098042849688</v>
+        <v>23.32134958719007</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7900620731835</v>
+        <v>394.3293611883817</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25692,28 +26094,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2934960504212331</v>
+        <v>0.4118802269042803</v>
       </c>
       <c r="J13" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K13" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008519073976859803</v>
+        <v>0.01692211009566758</v>
       </c>
       <c r="M13" t="n">
-        <v>17.86266507799333</v>
+        <v>18.06938972878037</v>
       </c>
       <c r="N13" t="n">
-        <v>489.8803773366838</v>
+        <v>494.6713412346604</v>
       </c>
       <c r="O13" t="n">
-        <v>22.13324145570828</v>
+        <v>22.24120817839401</v>
       </c>
       <c r="P13" t="n">
-        <v>388.9014454992223</v>
+        <v>387.686167447792</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25770,28 +26172,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07288255205652212</v>
+        <v>0.160862025873662</v>
       </c>
       <c r="J14" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004863804374621861</v>
+        <v>0.002443321490976147</v>
       </c>
       <c r="M14" t="n">
-        <v>17.86190673354826</v>
+        <v>17.90257842235066</v>
       </c>
       <c r="N14" t="n">
-        <v>528.5463105474913</v>
+        <v>525.6736924717975</v>
       </c>
       <c r="O14" t="n">
-        <v>22.99013507023156</v>
+        <v>22.92757493656487</v>
       </c>
       <c r="P14" t="n">
-        <v>385.536100991677</v>
+        <v>384.6244488799192</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25848,28 +26250,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1345437945372428</v>
+        <v>-0.02257056508511161</v>
       </c>
       <c r="J15" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K15" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002001738172404677</v>
+        <v>5.664207782540842e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>15.914045773571</v>
+        <v>16.19874089422089</v>
       </c>
       <c r="N15" t="n">
-        <v>420.8670698105386</v>
+        <v>428.6259154802603</v>
       </c>
       <c r="O15" t="n">
-        <v>20.51504496243034</v>
+        <v>20.70328272231871</v>
       </c>
       <c r="P15" t="n">
-        <v>384.7032580636615</v>
+        <v>383.5096074421778</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25926,28 +26328,28 @@
         <v>0.0344</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.584095497509368</v>
+        <v>-0.4292467411991763</v>
       </c>
       <c r="J16" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K16" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03371309391798294</v>
+        <v>0.01794508598621147</v>
       </c>
       <c r="M16" t="n">
-        <v>18.02240001639565</v>
+        <v>18.42956936628478</v>
       </c>
       <c r="N16" t="n">
-        <v>514.4058394409963</v>
+        <v>540.5847434211375</v>
       </c>
       <c r="O16" t="n">
-        <v>22.68051673663976</v>
+        <v>23.25047834822195</v>
       </c>
       <c r="P16" t="n">
-        <v>399.5570248307161</v>
+        <v>398.0240084483503</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26004,28 +26406,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.798708118971144</v>
+        <v>-0.6512281487096803</v>
       </c>
       <c r="J17" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K17" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07873496006989478</v>
+        <v>0.05149102600036537</v>
       </c>
       <c r="M17" t="n">
-        <v>15.73114989005086</v>
+        <v>16.25227978167704</v>
       </c>
       <c r="N17" t="n">
-        <v>401.5122883817328</v>
+        <v>427.8964289329689</v>
       </c>
       <c r="O17" t="n">
-        <v>20.03777154230811</v>
+        <v>20.68565756588291</v>
       </c>
       <c r="P17" t="n">
-        <v>397.6995376050843</v>
+        <v>396.2538690870812</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26082,28 +26484,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.042782630836667</v>
+        <v>-0.9013445471312829</v>
       </c>
       <c r="J18" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K18" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09954710789160615</v>
+        <v>0.07492070527795203</v>
       </c>
       <c r="M18" t="n">
-        <v>17.96786059366756</v>
+        <v>18.35042148364147</v>
       </c>
       <c r="N18" t="n">
-        <v>518.8774355821035</v>
+        <v>539.5578048953374</v>
       </c>
       <c r="O18" t="n">
-        <v>22.77888135054273</v>
+        <v>23.2283836048774</v>
       </c>
       <c r="P18" t="n">
-        <v>404.9213084529365</v>
+        <v>403.5306365727612</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26160,28 +26562,28 @@
         <v>0.0512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8701008555689125</v>
+        <v>-0.756663487793803</v>
       </c>
       <c r="J19" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K19" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09225258389091062</v>
+        <v>0.0704391342572025</v>
       </c>
       <c r="M19" t="n">
-        <v>15.69725166739683</v>
+        <v>15.88919890653371</v>
       </c>
       <c r="N19" t="n">
-        <v>389.1528701205939</v>
+        <v>402.1003053766479</v>
       </c>
       <c r="O19" t="n">
-        <v>19.72695795404334</v>
+        <v>20.05243888849055</v>
       </c>
       <c r="P19" t="n">
-        <v>400.5395769501831</v>
+        <v>399.4066695359953</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26238,28 +26640,28 @@
         <v>0.0267</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7194728407073209</v>
+        <v>-0.6154996139704659</v>
       </c>
       <c r="J20" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K20" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04893506006897796</v>
+        <v>0.03645841268965555</v>
       </c>
       <c r="M20" t="n">
-        <v>18.05286807138206</v>
+        <v>18.15591756396577</v>
       </c>
       <c r="N20" t="n">
-        <v>518.8758069498987</v>
+        <v>527.1365967617148</v>
       </c>
       <c r="O20" t="n">
-        <v>22.77884560178366</v>
+        <v>22.95945549793624</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9014873734212</v>
+        <v>398.8638064418918</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26316,28 +26718,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.363361774562263</v>
+        <v>-0.2714927109305799</v>
       </c>
       <c r="J21" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K21" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01678870459856763</v>
+        <v>0.00948727240689462</v>
       </c>
       <c r="M21" t="n">
-        <v>16.19838502758533</v>
+        <v>16.40941521555632</v>
       </c>
       <c r="N21" t="n">
-        <v>412.8596689524135</v>
+        <v>419.3234080152579</v>
       </c>
       <c r="O21" t="n">
-        <v>20.31894851985243</v>
+        <v>20.47738772439634</v>
       </c>
       <c r="P21" t="n">
-        <v>385.5211757898231</v>
+        <v>384.6254233564502</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26394,28 +26796,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3908756719916271</v>
+        <v>-0.2871835510932469</v>
       </c>
       <c r="J22" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K22" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01673428647308672</v>
+        <v>0.009154512975176221</v>
       </c>
       <c r="M22" t="n">
-        <v>17.28718029790599</v>
+        <v>17.54080140823889</v>
       </c>
       <c r="N22" t="n">
-        <v>469.6093014854372</v>
+        <v>477.4180005995252</v>
       </c>
       <c r="O22" t="n">
-        <v>21.67047072597726</v>
+        <v>21.84989703864815</v>
       </c>
       <c r="P22" t="n">
-        <v>377.5379842813647</v>
+        <v>376.5241573020614</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26472,28 +26874,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.451012031004552</v>
+        <v>-0.3508109939763485</v>
       </c>
       <c r="J23" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02073199784048929</v>
+        <v>0.01282725133799978</v>
       </c>
       <c r="M23" t="n">
-        <v>17.27375356618638</v>
+        <v>17.41271908027028</v>
       </c>
       <c r="N23" t="n">
-        <v>485.1860065317463</v>
+        <v>489.4863585070257</v>
       </c>
       <c r="O23" t="n">
-        <v>22.02693820147835</v>
+        <v>22.1243386004424</v>
       </c>
       <c r="P23" t="n">
-        <v>375.3843472781845</v>
+        <v>374.3802547099385</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26550,28 +26952,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06661938090517694</v>
+        <v>0.1279236954708314</v>
       </c>
       <c r="J24" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K24" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005002395928197512</v>
+        <v>0.00189138427310942</v>
       </c>
       <c r="M24" t="n">
-        <v>17.13144518976726</v>
+        <v>17.13115432311775</v>
       </c>
       <c r="N24" t="n">
-        <v>471.8140752640435</v>
+        <v>469.0151464589173</v>
       </c>
       <c r="O24" t="n">
-        <v>21.72128162112088</v>
+        <v>21.65675752412898</v>
       </c>
       <c r="P24" t="n">
-        <v>368.8108237557153</v>
+        <v>368.2142546357526</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26628,28 +27030,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4099368851719067</v>
+        <v>0.4600589742158911</v>
       </c>
       <c r="J25" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K25" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01973384862726257</v>
+        <v>0.02533088483677248</v>
       </c>
       <c r="M25" t="n">
-        <v>17.11758265016228</v>
+        <v>17.05377496500329</v>
       </c>
       <c r="N25" t="n">
-        <v>443.7470879932807</v>
+        <v>441.79784678632</v>
       </c>
       <c r="O25" t="n">
-        <v>21.06530531450424</v>
+        <v>21.01898776788073</v>
       </c>
       <c r="P25" t="n">
-        <v>368.489098049595</v>
+        <v>367.9999356802328</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26706,28 +27108,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4397027807845497</v>
+        <v>0.4997296276948692</v>
       </c>
       <c r="J26" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K26" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02019404829862526</v>
+        <v>0.02671083786725725</v>
       </c>
       <c r="M26" t="n">
-        <v>17.47516038825282</v>
+        <v>17.42885275743003</v>
       </c>
       <c r="N26" t="n">
-        <v>492.2980604400694</v>
+        <v>488.7178604056289</v>
       </c>
       <c r="O26" t="n">
-        <v>22.18779079674381</v>
+        <v>22.10696407030212</v>
       </c>
       <c r="P26" t="n">
-        <v>364.4243211413112</v>
+        <v>363.8417082024989</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26784,28 +27186,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.205403098238528</v>
+        <v>0.3119323715765615</v>
       </c>
       <c r="J27" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K27" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005402419798412939</v>
+        <v>0.01249216921053331</v>
       </c>
       <c r="M27" t="n">
-        <v>16.37300959265431</v>
+        <v>16.53741622200878</v>
       </c>
       <c r="N27" t="n">
-        <v>413.2535664803778</v>
+        <v>419.7868861504863</v>
       </c>
       <c r="O27" t="n">
-        <v>20.32863907103419</v>
+        <v>20.48870142665187</v>
       </c>
       <c r="P27" t="n">
-        <v>361.8181997218185</v>
+        <v>360.8011025519161</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26843,7 +27245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB280"/>
+  <dimension ref="A1:AB284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58615,7 +59017,11 @@
           <t>-37.79613035031378,174.8398181717468</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>-37.795659058549454,174.83913201145646</t>
+        </is>
+      </c>
       <c r="G280" t="inlineStr">
         <is>
           <t>-37.79512206714489,174.8385427005492</t>
@@ -58646,8 +59052,16 @@
           <t>-37.792095927336625,174.83592179993326</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>-37.79132095448015,174.83588422680072</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>-37.7905684491346,174.8360091731416</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr">
         <is>
           <t>-37.78985865509352,174.83594299036145</t>
@@ -58716,6 +59130,566 @@
       <c r="AB280" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>-37.79789772270176,174.8413483747949</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>-37.7971396334882,174.8410889037775</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>-37.796446101136446,174.8407336817656</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-37.795889157248325,174.84017588197977</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-37.79555602216089,174.8392868994006</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>-37.7951831811491,174.8384493219388</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>-37.79471944453469,174.83774873954556</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>-37.794318717272596,174.83677963768068</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>-37.79369620859531,174.8358943482279</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>-37.79216226355781,174.83560871775163</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>-37.79134836610477,174.83565898307072</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>-37.790590606999785,174.83568451204326</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>-37.78987829829859,174.83563449117034</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>-37.78916907065827,174.83547146101353</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>-37.788454620403456,174.8354584264686</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>-37.78775299881615,174.83544456047017</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>-37.78706264934606,174.83544954688452</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>-37.78636488694183,174.83539783147526</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>-37.785668095625624,174.83521568295572</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>-37.78495759763131,174.83513185442823</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>-37.784236928087346,174.83515105826098</t>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>-37.78351726474388,174.8351854224693</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>-37.78282315918227,174.83507473684813</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>-37.782150439555366,174.83481820332153</t>
+        </is>
+      </c>
+      <c r="AA281" t="inlineStr">
+        <is>
+          <t>-37.78146375718013,174.8345833538647</t>
+        </is>
+      </c>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>-37.79785897676117,174.84140583878664</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>-37.79706521116953,174.84119927828556</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>-37.79652224018525,174.84062076144318</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-37.796037350497805,174.8399560989982</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-37.79547752914128,174.83940489239782</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>-37.79503326252317,174.8386783883289</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>-37.79464051747588,174.8378696716408</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>-37.79433143912827,174.83675444340557</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>-37.793645101707554,174.83605930253273</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>-37.79215861438962,174.835625940578</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>-37.791334872044935,174.83576986540822</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>-37.79057761348852,174.83587489695924</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>-37.78987207012766,174.8357323068253</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>-37.7891662738936,174.83552288654195</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>-37.78845274599479,174.8354961603305</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>-37.787752782778796,174.83544806953043</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>-37.787051607704484,174.83556782914962</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>-37.78634084301732,174.83561003079865</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>-37.78563656589205,174.8354949997206</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>-37.78493008194253,174.83538557959133</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>-37.78421698361215,174.83534201578883</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>-37.78350669587349,174.83528661266251</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>-37.78280364653951,174.8352233689233</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>-37.782119544979274,174.83501290909393</t>
+        </is>
+      </c>
+      <c r="AA282" t="inlineStr">
+        <is>
+          <t>-37.781431812696994,174.8347843478811</t>
+        </is>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>-37.797844990026974,174.84142658244684</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>-37.79714941865302,174.84107439153416</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>-37.79658196502205,174.8405321844447</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-37.79604853304342,174.83993951428855</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-37.79557701535844,174.83925534174222</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-37.79505638575516,174.83864305756344</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>-37.794685904841806,174.83780012914053</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-37.79426336343458,174.8368892598174</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>-37.793556566460694,174.836345059584</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>-37.79280803917199,174.83615674152563</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>-37.79209006999954,174.8359494441619</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>-37.791326199188724,174.83584113085465</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>-37.79057655062688,174.83589047013265</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>-37.7898649657963,174.83584388131936</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>-37.78916611783266,174.83552575610142</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>-37.78844485420825,174.83565502779481</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>-37.78774012079466,174.83565373311987</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>-37.78704373544844,174.83565215895533</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>-37.78635504273255,174.83548471183116</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>-37.78563074201832,174.83554659180237</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>-37.78491892650021,174.83548844365646</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>-37.784215743317816,174.83535389083318</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>-37.7835053595734,174.83529940682257</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>-37.78281701442716,174.8351215429559</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>-37.78212003957762,174.83500979202176</t>
+        </is>
+      </c>
+      <c r="AA283" t="inlineStr">
+        <is>
+          <t>-37.781419968669525,174.83485886966406</t>
+        </is>
+      </c>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>-37.79782579472701,174.84145505088543</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>-37.79722191550245,174.8409668722555</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>-37.796564247892135,174.84055846047582</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-37.796012612754204,174.83999278724235</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>-37.795568872777274,174.83926758193905</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-37.795012222284285,174.8387105363863</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>-37.794739476764256,174.83771804607915</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-37.79437231349632,174.8366734959603</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>-37.79362605769828,174.83612076936927</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>-37.79291173445136,174.83573827806626</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>-37.79216447165199,174.83559829629533</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>-37.79135356975811,174.83561622377687</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>-37.79057781422247,174.8358719557787</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>-37.78986838363006,174.835790203983</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>-37.789175526540696,174.83535275184593</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>-37.78845350026278,174.8354809761341</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>-37.78775336120117,174.83543867430447</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>-37.78706595444749,174.83541414112722</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>-37.786388140927876,174.83519260041626</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>-37.78565355523449,174.83534449466364</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>-37.78492625149197,174.83542090018017</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>-37.784208536655214,174.83542288989716</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>-37.78352000393649,174.83515919630716</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>-37.78285165583569,174.83485766890084</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>-37.78214370954615,174.83486061780144</t>
+        </is>
+      </c>
+      <c r="AA284" t="inlineStr">
+        <is>
+          <t>-37.78144051706808,174.83472958039104</t>
+        </is>
+      </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB284"/>
+  <dimension ref="A1:AB285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22104,6 +22104,96 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>370.699090909091</v>
+      </c>
+      <c r="C285" t="n">
+        <v>351.5214285714285</v>
+      </c>
+      <c r="D285" t="n">
+        <v>337.1966666666667</v>
+      </c>
+      <c r="E285" t="n">
+        <v>337.9366666666667</v>
+      </c>
+      <c r="F285" t="n">
+        <v>350.3166666666667</v>
+      </c>
+      <c r="G285" t="n">
+        <v>351.3433333333333</v>
+      </c>
+      <c r="H285" t="n">
+        <v>398.76</v>
+      </c>
+      <c r="I285" t="n">
+        <v>439.8966666666667</v>
+      </c>
+      <c r="J285" t="n">
+        <v>431.1014285714285</v>
+      </c>
+      <c r="K285" t="n">
+        <v>433.31</v>
+      </c>
+      <c r="L285" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="M285" t="n">
+        <v>415.92</v>
+      </c>
+      <c r="N285" t="n">
+        <v>399.3233333333333</v>
+      </c>
+      <c r="O285" t="n">
+        <v>397.1157142857143</v>
+      </c>
+      <c r="P285" t="n">
+        <v>440.6466666666667</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>408.58</v>
+      </c>
+      <c r="R285" t="n">
+        <v>408.8177777777778</v>
+      </c>
+      <c r="S285" t="n">
+        <v>399.7377777777778</v>
+      </c>
+      <c r="T285" t="n">
+        <v>409.74</v>
+      </c>
+      <c r="U285" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="V285" t="n">
+        <v>380.1538461538461</v>
+      </c>
+      <c r="W285" t="n">
+        <v>374.36</v>
+      </c>
+      <c r="X285" t="n">
+        <v>386.5033333333333</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>394.9377777777778</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>383.48</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>379.2138461538461</v>
+      </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22115,7 +22205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25063,6 +25153,16 @@
       </c>
       <c r="B294" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -25236,28 +25336,28 @@
         <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06434494598224838</v>
+        <v>-0.1772004120637465</v>
       </c>
       <c r="J2" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" t="n">
-        <v>5.940612626398334e-05</v>
+        <v>0.0004493250682517935</v>
       </c>
       <c r="M2" t="n">
-        <v>53.78621729730079</v>
+        <v>54.28647462547927</v>
       </c>
       <c r="N2" t="n">
-        <v>4292.322299925451</v>
+        <v>4328.198687358878</v>
       </c>
       <c r="O2" t="n">
-        <v>65.51581717360665</v>
+        <v>65.78904686464821</v>
       </c>
       <c r="P2" t="n">
-        <v>472.908354279014</v>
+        <v>473.9204017958093</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25314,28 +25414,28 @@
         <v>0.0446</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.030748036509752</v>
+        <v>-0.1675828123965101</v>
       </c>
       <c r="J3" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L3" t="n">
-        <v>1.172213127931254e-05</v>
+        <v>0.0003452353070384495</v>
       </c>
       <c r="M3" t="n">
-        <v>55.21347203058414</v>
+        <v>55.89836773593596</v>
       </c>
       <c r="N3" t="n">
-        <v>4644.860110049323</v>
+        <v>4709.495525394773</v>
       </c>
       <c r="O3" t="n">
-        <v>68.15321056303455</v>
+        <v>68.62576429734516</v>
       </c>
       <c r="P3" t="n">
-        <v>477.4017767986045</v>
+        <v>478.7068280070896</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25392,28 +25492,28 @@
         <v>0.0366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05184023581521114</v>
+        <v>-0.09173470406464021</v>
       </c>
       <c r="J4" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K4" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L4" t="n">
-        <v>3.393373408655531e-05</v>
+        <v>0.0001049146316124405</v>
       </c>
       <c r="M4" t="n">
-        <v>55.03235387571873</v>
+        <v>55.70658372911469</v>
       </c>
       <c r="N4" t="n">
-        <v>4652.076717959456</v>
+        <v>4736.171459794613</v>
       </c>
       <c r="O4" t="n">
-        <v>68.20613402003852</v>
+        <v>68.81984786233267</v>
       </c>
       <c r="P4" t="n">
-        <v>476.5107827391466</v>
+        <v>477.8581847094438</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25470,28 +25570,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4433268380614802</v>
+        <v>0.3018549077074439</v>
       </c>
       <c r="J5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00267870603043241</v>
+        <v>0.001226135718794596</v>
       </c>
       <c r="M5" t="n">
-        <v>52.66630849106009</v>
+        <v>53.34502057865575</v>
       </c>
       <c r="N5" t="n">
-        <v>4352.373211978565</v>
+        <v>4437.248698649982</v>
       </c>
       <c r="O5" t="n">
-        <v>65.97251861175656</v>
+        <v>66.61267671134362</v>
       </c>
       <c r="P5" t="n">
-        <v>466.3424430015015</v>
+        <v>467.6615551451976</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25548,28 +25648,28 @@
         <v>0.0446</v>
       </c>
       <c r="I6" t="n">
-        <v>1.037522733201328</v>
+        <v>0.9084321723122787</v>
       </c>
       <c r="J6" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01598469914890954</v>
+        <v>0.01212797963629741</v>
       </c>
       <c r="M6" t="n">
-        <v>47.13593607065275</v>
+        <v>47.67579267346164</v>
       </c>
       <c r="N6" t="n">
-        <v>3699.619130178393</v>
+        <v>3771.572873001733</v>
       </c>
       <c r="O6" t="n">
-        <v>60.82449449176206</v>
+        <v>61.4131327404956</v>
       </c>
       <c r="P6" t="n">
-        <v>457.1645223807557</v>
+        <v>458.4234658817376</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25626,28 +25726,28 @@
         <v>0.1501</v>
       </c>
       <c r="I7" t="n">
-        <v>1.68836556882806</v>
+        <v>1.564379584011086</v>
       </c>
       <c r="J7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K7" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05395314141212026</v>
+        <v>0.0457978746271468</v>
       </c>
       <c r="M7" t="n">
-        <v>40.20480512931876</v>
+        <v>40.59648841061936</v>
       </c>
       <c r="N7" t="n">
-        <v>2827.280578664139</v>
+        <v>2897.868163412513</v>
       </c>
       <c r="O7" t="n">
-        <v>53.17217861498754</v>
+        <v>53.8318508265554</v>
       </c>
       <c r="P7" t="n">
-        <v>435.4913245762981</v>
+        <v>436.6995616012876</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25704,28 +25804,28 @@
         <v>0.0819</v>
       </c>
       <c r="I8" t="n">
-        <v>1.111516599269105</v>
+        <v>1.045277699431914</v>
       </c>
       <c r="J8" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03552493099252474</v>
+        <v>0.03145005287085179</v>
       </c>
       <c r="M8" t="n">
-        <v>34.3219908086844</v>
+        <v>34.47358718237344</v>
       </c>
       <c r="N8" t="n">
-        <v>1875.018731038959</v>
+        <v>1890.280910986678</v>
       </c>
       <c r="O8" t="n">
-        <v>43.30148647608947</v>
+        <v>43.47736090181508</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0721208972921</v>
+        <v>441.7145705788383</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25782,28 +25882,28 @@
         <v>0.032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6991136464137313</v>
+        <v>0.6892873026860662</v>
       </c>
       <c r="J9" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K9" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02603947295430076</v>
+        <v>0.02554915772284716</v>
       </c>
       <c r="M9" t="n">
-        <v>25.93800992394385</v>
+        <v>25.86119388099695</v>
       </c>
       <c r="N9" t="n">
-        <v>1000.664032440839</v>
+        <v>996.2989141527449</v>
       </c>
       <c r="O9" t="n">
-        <v>31.63327413406395</v>
+        <v>31.56420304954245</v>
       </c>
       <c r="P9" t="n">
-        <v>432.8063020472417</v>
+        <v>432.9043935429899</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25860,28 +25960,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6840367652172493</v>
+        <v>0.6818986693629578</v>
       </c>
       <c r="J10" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K10" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03358385043541978</v>
+        <v>0.03367489860250361</v>
       </c>
       <c r="M10" t="n">
-        <v>21.95803320161901</v>
+        <v>21.86548698497246</v>
       </c>
       <c r="N10" t="n">
-        <v>727.4938927719461</v>
+        <v>724.0731905032817</v>
       </c>
       <c r="O10" t="n">
-        <v>26.97209470493432</v>
+        <v>26.90860811159287</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0265310542528</v>
+        <v>416.0480386830214</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25938,28 +26038,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6758321391112098</v>
+        <v>0.6854321283919697</v>
       </c>
       <c r="J11" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03507694302980158</v>
+        <v>0.03637600860419243</v>
       </c>
       <c r="M11" t="n">
-        <v>19.53555556513776</v>
+        <v>19.49101281034587</v>
       </c>
       <c r="N11" t="n">
-        <v>618.0594053923106</v>
+        <v>615.6548307023385</v>
       </c>
       <c r="O11" t="n">
-        <v>24.86080057826599</v>
+        <v>24.81239268394603</v>
       </c>
       <c r="P11" t="n">
-        <v>406.1506956882218</v>
+        <v>406.0509477939144</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26016,28 +26116,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5959099836244289</v>
+        <v>0.603030821706706</v>
       </c>
       <c r="J12" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K12" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03190728914248431</v>
+        <v>0.03294016741239303</v>
       </c>
       <c r="M12" t="n">
-        <v>18.60789264746147</v>
+        <v>18.56218614648591</v>
       </c>
       <c r="N12" t="n">
-        <v>543.8853465679306</v>
+        <v>541.6894340613027</v>
       </c>
       <c r="O12" t="n">
-        <v>23.32134958719007</v>
+        <v>23.27422252324023</v>
       </c>
       <c r="P12" t="n">
-        <v>394.3293611883817</v>
+        <v>394.2559881394296</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26094,28 +26194,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4118802269042803</v>
+        <v>0.4280682094671847</v>
       </c>
       <c r="J13" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K13" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01692211009566758</v>
+        <v>0.01837574873093772</v>
       </c>
       <c r="M13" t="n">
-        <v>18.06938972878037</v>
+        <v>18.0713944145402</v>
       </c>
       <c r="N13" t="n">
-        <v>494.6713412346604</v>
+        <v>493.8467230021437</v>
       </c>
       <c r="O13" t="n">
-        <v>22.24120817839401</v>
+        <v>22.22266237430033</v>
       </c>
       <c r="P13" t="n">
-        <v>387.686167447792</v>
+        <v>387.519088589411</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26172,28 +26272,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.160862025873662</v>
+        <v>0.1708780158676768</v>
       </c>
       <c r="J14" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K14" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002443321490976147</v>
+        <v>0.002780582259056974</v>
       </c>
       <c r="M14" t="n">
-        <v>17.90257842235066</v>
+        <v>17.87108123685462</v>
       </c>
       <c r="N14" t="n">
-        <v>525.6736924717975</v>
+        <v>523.7603693774557</v>
       </c>
       <c r="O14" t="n">
-        <v>22.92757493656487</v>
+        <v>22.88581152979845</v>
       </c>
       <c r="P14" t="n">
-        <v>384.6244488799192</v>
+        <v>384.5200658377028</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26250,28 +26350,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02257056508511161</v>
+        <v>-0.008970163823575978</v>
       </c>
       <c r="J15" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K15" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L15" t="n">
-        <v>5.664207782540842e-05</v>
+        <v>9.015886512586668e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>16.19874089422089</v>
+        <v>16.19536352661547</v>
       </c>
       <c r="N15" t="n">
-        <v>428.6259154802603</v>
+        <v>427.578952960073</v>
       </c>
       <c r="O15" t="n">
-        <v>20.70328272231871</v>
+        <v>20.6779823232363</v>
       </c>
       <c r="P15" t="n">
-        <v>383.5096074421778</v>
+        <v>383.3639044672953</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26328,28 +26428,28 @@
         <v>0.0344</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4292467411991763</v>
+        <v>-0.3839709676320497</v>
       </c>
       <c r="J16" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01794508598621147</v>
+        <v>0.01421723537945974</v>
       </c>
       <c r="M16" t="n">
-        <v>18.42956936628478</v>
+        <v>18.56439310657501</v>
       </c>
       <c r="N16" t="n">
-        <v>540.5847434211375</v>
+        <v>550.5582207520392</v>
       </c>
       <c r="O16" t="n">
-        <v>23.25047834822195</v>
+        <v>23.46397708727229</v>
       </c>
       <c r="P16" t="n">
-        <v>398.0240084483503</v>
+        <v>397.5735367602086</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26406,28 +26506,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6512281487096803</v>
+        <v>-0.6271351599961761</v>
       </c>
       <c r="J17" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K17" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05149102600036537</v>
+        <v>0.04794255775212974</v>
       </c>
       <c r="M17" t="n">
-        <v>16.25227978167704</v>
+        <v>16.314162301558</v>
       </c>
       <c r="N17" t="n">
-        <v>427.8964289329689</v>
+        <v>429.6530617410702</v>
       </c>
       <c r="O17" t="n">
-        <v>20.68565756588291</v>
+        <v>20.72807424101598</v>
       </c>
       <c r="P17" t="n">
-        <v>396.2538690870812</v>
+        <v>396.016408421882</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26484,28 +26584,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.9013445471312829</v>
+        <v>-0.8773829171907352</v>
       </c>
       <c r="J18" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K18" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07492070527795203</v>
+        <v>0.07144611831982262</v>
       </c>
       <c r="M18" t="n">
-        <v>18.35042148364147</v>
+        <v>18.38995646205087</v>
       </c>
       <c r="N18" t="n">
-        <v>539.5578048953374</v>
+        <v>540.6494293259196</v>
       </c>
       <c r="O18" t="n">
-        <v>23.2283836048774</v>
+        <v>23.25186937271753</v>
       </c>
       <c r="P18" t="n">
-        <v>403.5306365727612</v>
+        <v>403.2938146682772</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26562,28 +26662,28 @@
         <v>0.0512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.756663487793803</v>
+        <v>-0.740009934251457</v>
       </c>
       <c r="J19" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K19" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0704391342572025</v>
+        <v>0.06787625258219709</v>
       </c>
       <c r="M19" t="n">
-        <v>15.88919890653371</v>
+        <v>15.88865665190437</v>
       </c>
       <c r="N19" t="n">
-        <v>402.1003053766479</v>
+        <v>402.0120819384774</v>
       </c>
       <c r="O19" t="n">
-        <v>20.05243888849055</v>
+        <v>20.05023894966036</v>
       </c>
       <c r="P19" t="n">
-        <v>399.4066695359953</v>
+        <v>399.2394870729293</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26640,28 +26740,28 @@
         <v>0.0267</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6154996139704659</v>
+        <v>-0.5917315861135932</v>
       </c>
       <c r="J20" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03645841268965555</v>
+        <v>0.03390426413625913</v>
       </c>
       <c r="M20" t="n">
-        <v>18.15591756396577</v>
+        <v>18.17370232897736</v>
       </c>
       <c r="N20" t="n">
-        <v>527.1365967617148</v>
+        <v>527.907147834106</v>
       </c>
       <c r="O20" t="n">
-        <v>22.95945549793624</v>
+        <v>22.97623006139402</v>
       </c>
       <c r="P20" t="n">
-        <v>398.8638064418918</v>
+        <v>398.6255187190405</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26718,28 +26818,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2714927109305799</v>
+        <v>-0.2669604865762736</v>
       </c>
       <c r="J21" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K21" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00948727240689462</v>
+        <v>0.009259877933658678</v>
       </c>
       <c r="M21" t="n">
-        <v>16.40941521555632</v>
+        <v>16.35994830662539</v>
       </c>
       <c r="N21" t="n">
-        <v>419.3234080152579</v>
+        <v>417.5182030065019</v>
       </c>
       <c r="O21" t="n">
-        <v>20.47738772439634</v>
+        <v>20.43326217241148</v>
       </c>
       <c r="P21" t="n">
-        <v>384.6254233564502</v>
+        <v>384.5809806410573</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26796,28 +26896,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2871835510932469</v>
+        <v>-0.2771197399176283</v>
       </c>
       <c r="J22" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K22" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="n">
-        <v>0.009154512975176221</v>
+        <v>0.00860395878229181</v>
       </c>
       <c r="M22" t="n">
-        <v>17.54080140823889</v>
+        <v>17.51501810777015</v>
       </c>
       <c r="N22" t="n">
-        <v>477.4180005995252</v>
+        <v>475.7645096821886</v>
       </c>
       <c r="O22" t="n">
-        <v>21.84989703864815</v>
+        <v>21.81202672110477</v>
       </c>
       <c r="P22" t="n">
-        <v>376.5241573020614</v>
+        <v>376.4251896282931</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26874,28 +26974,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3508109939763485</v>
+        <v>-0.3421905247122789</v>
       </c>
       <c r="J23" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K23" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01282725133799978</v>
+        <v>0.01232750294189056</v>
       </c>
       <c r="M23" t="n">
-        <v>17.41271908027028</v>
+        <v>17.37119774102076</v>
       </c>
       <c r="N23" t="n">
-        <v>489.4863585070257</v>
+        <v>487.5402089620381</v>
       </c>
       <c r="O23" t="n">
-        <v>22.1243386004424</v>
+        <v>22.08031270073044</v>
       </c>
       <c r="P23" t="n">
-        <v>374.3802547099385</v>
+        <v>374.2933910647255</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26952,28 +27052,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1279236954708314</v>
+        <v>0.1410774748940901</v>
       </c>
       <c r="J24" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K24" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00189138427310942</v>
+        <v>0.002316184554579159</v>
       </c>
       <c r="M24" t="n">
-        <v>17.13115432311775</v>
+        <v>17.12062551065592</v>
       </c>
       <c r="N24" t="n">
-        <v>469.0151464589173</v>
+        <v>467.909523368043</v>
       </c>
       <c r="O24" t="n">
-        <v>21.65675752412898</v>
+        <v>21.63121640981022</v>
       </c>
       <c r="P24" t="n">
-        <v>368.2142546357526</v>
+        <v>368.085599019884</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27030,28 +27130,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4600589742158911</v>
+        <v>0.473278852156607</v>
       </c>
       <c r="J25" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K25" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02533088483677248</v>
+        <v>0.02695217926094717</v>
       </c>
       <c r="M25" t="n">
-        <v>17.05377496500329</v>
+        <v>17.04239450869653</v>
       </c>
       <c r="N25" t="n">
-        <v>441.79784678632</v>
+        <v>440.839925040665</v>
       </c>
       <c r="O25" t="n">
-        <v>21.01898776788073</v>
+        <v>20.99618834552274</v>
       </c>
       <c r="P25" t="n">
-        <v>367.9999356802328</v>
+        <v>367.8703877352298</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27108,28 +27208,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4997296276948692</v>
+        <v>0.5061485987465935</v>
       </c>
       <c r="J26" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K26" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02671083786725725</v>
+        <v>0.02764360485755624</v>
       </c>
       <c r="M26" t="n">
-        <v>17.42885275743003</v>
+        <v>17.37759038612058</v>
       </c>
       <c r="N26" t="n">
-        <v>488.7178604056289</v>
+        <v>486.6510977683116</v>
       </c>
       <c r="O26" t="n">
-        <v>22.10696407030212</v>
+        <v>22.06016993969701</v>
       </c>
       <c r="P26" t="n">
-        <v>363.8417082024989</v>
+        <v>363.7790796342986</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27186,28 +27286,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3119323715765615</v>
+        <v>0.3223881775545102</v>
       </c>
       <c r="J27" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K27" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01249216921053331</v>
+        <v>0.01346168049061258</v>
       </c>
       <c r="M27" t="n">
-        <v>16.53741622200878</v>
+        <v>16.50361656385035</v>
       </c>
       <c r="N27" t="n">
-        <v>419.7868861504863</v>
+        <v>418.2163113043908</v>
       </c>
       <c r="O27" t="n">
-        <v>20.48870142665187</v>
+        <v>20.45033768191594</v>
       </c>
       <c r="P27" t="n">
-        <v>360.8011025519161</v>
+        <v>360.700729336519</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27245,7 +27345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB284"/>
+  <dimension ref="A1:AB285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59693,6 +59793,148 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>-37.79785391141035,174.8414133511863</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>-37.7971955272602,174.8410060084074</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>-37.796565453668435,174.84055667220628</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>-37.79602327021112,174.83997698130372</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>-37.79554934601366,174.83929693519627</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>-37.79500318319635,174.83872434748977</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>-37.79472093264343,174.83774645946005</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>-37.79433011695847,174.8367570618224</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>-37.793539731953686,174.8363993944425</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>-37.792822327238085,174.83609908229764</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>-37.79207768124574,174.8360079138843</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>-37.79132822058264,174.83582452095695</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>-37.790573091808646,174.8359411489306</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>-37.78986137086779,174.8359003395233</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>-37.78917559224881,174.83535154361002</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>-37.78844411680501,174.83566987204216</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>-37.78774199781389,174.83562324581231</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>-37.7870433073906,174.8356567444114</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>-37.78636120651398,174.8354303132672</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>-37.78562274842967,174.83561740444893</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>-37.784914182032054,174.8355321920236</t>
+        </is>
+      </c>
+      <c r="W285" t="inlineStr">
+        <is>
+          <t>-37.78420138873492,174.83549132614806</t>
+        </is>
+      </c>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>-37.78351064990295,174.83524875545277</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>-37.782826385947395,174.83505015772673</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>-37.78211910337353,174.83501569219405</t>
+        </is>
+      </c>
+      <c r="AA285" t="inlineStr">
+        <is>
+          <t>-37.78141376016493,174.83489793300828</t>
+        </is>
+      </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB285"/>
+  <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22194,6 +22194,84 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="n">
+        <v>321.6528571428571</v>
+      </c>
+      <c r="D286" t="n">
+        <v>346.1566666666667</v>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="n">
+        <v>427.11</v>
+      </c>
+      <c r="I286" t="n">
+        <v>454.0966666666667</v>
+      </c>
+      <c r="J286" t="n">
+        <v>447.6528571428571</v>
+      </c>
+      <c r="K286" t="n">
+        <v>442.38</v>
+      </c>
+      <c r="L286" t="n">
+        <v>441.06</v>
+      </c>
+      <c r="M286" t="n">
+        <v>439.38</v>
+      </c>
+      <c r="N286" t="n">
+        <v>432.2533333333333</v>
+      </c>
+      <c r="O286" t="n">
+        <v>422.0414285714286</v>
+      </c>
+      <c r="P286" t="n">
+        <v>453.6666666666667</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>434.55</v>
+      </c>
+      <c r="R286" t="n">
+        <v>414.7544444444445</v>
+      </c>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="n">
+        <v>383.11</v>
+      </c>
+      <c r="V286" t="n">
+        <v>377.6469230769231</v>
+      </c>
+      <c r="W286" t="n">
+        <v>378.065</v>
+      </c>
+      <c r="X286" t="n">
+        <v>378.1133333333333</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>396.6844444444445</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>396.55</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>386.9769230769231</v>
+      </c>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22205,7 +22283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25163,6 +25241,16 @@
       </c>
       <c r="B295" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -25339,7 +25427,7 @@
         <v>-0.1772004120637465</v>
       </c>
       <c r="J2" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" t="n">
         <v>157</v>
@@ -25414,28 +25502,28 @@
         <v>0.0446</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1675828123965101</v>
+        <v>-0.335442971381377</v>
       </c>
       <c r="J3" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K3" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003452353070384495</v>
+        <v>0.001358540765840743</v>
       </c>
       <c r="M3" t="n">
-        <v>55.89836773593596</v>
+        <v>56.81604442501474</v>
       </c>
       <c r="N3" t="n">
-        <v>4709.495525394773</v>
+        <v>4818.496589407876</v>
       </c>
       <c r="O3" t="n">
-        <v>68.62576429734516</v>
+        <v>69.41539158866624</v>
       </c>
       <c r="P3" t="n">
-        <v>478.7068280070896</v>
+        <v>480.3284870549398</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25492,28 +25580,28 @@
         <v>0.0366</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09173470406464021</v>
+        <v>-0.2245086288054531</v>
       </c>
       <c r="J4" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001049146316124405</v>
+        <v>0.0006228578813950447</v>
       </c>
       <c r="M4" t="n">
-        <v>55.70658372911469</v>
+        <v>56.28934953260963</v>
       </c>
       <c r="N4" t="n">
-        <v>4736.171459794613</v>
+        <v>4802.338020591773</v>
       </c>
       <c r="O4" t="n">
-        <v>68.81984786233267</v>
+        <v>69.29890345879777</v>
       </c>
       <c r="P4" t="n">
-        <v>477.8581847094438</v>
+        <v>479.1206303191573</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25573,7 +25661,7 @@
         <v>0.3018549077074439</v>
       </c>
       <c r="J5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K5" t="n">
         <v>175</v>
@@ -25651,7 +25739,7 @@
         <v>0.9084321723122787</v>
       </c>
       <c r="J6" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K6" t="n">
         <v>192</v>
@@ -25729,7 +25817,7 @@
         <v>1.564379584011086</v>
       </c>
       <c r="J7" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K7" t="n">
         <v>186</v>
@@ -25804,28 +25892,28 @@
         <v>0.0819</v>
       </c>
       <c r="I8" t="n">
-        <v>1.045277699431914</v>
+        <v>1.00604860605991</v>
       </c>
       <c r="J8" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03145005287085179</v>
+        <v>0.02936383620826277</v>
       </c>
       <c r="M8" t="n">
-        <v>34.47358718237344</v>
+        <v>34.49204777944328</v>
       </c>
       <c r="N8" t="n">
-        <v>1890.280910986678</v>
+        <v>1889.345961653232</v>
       </c>
       <c r="O8" t="n">
-        <v>43.47736090181508</v>
+        <v>43.46660743206481</v>
       </c>
       <c r="P8" t="n">
-        <v>441.7145705788383</v>
+        <v>442.0997402489477</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25882,28 +25970,28 @@
         <v>0.032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6892873026860662</v>
+        <v>0.6924213088666352</v>
       </c>
       <c r="J9" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K9" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02554915772284716</v>
+        <v>0.02601738611466542</v>
       </c>
       <c r="M9" t="n">
-        <v>25.86119388099695</v>
+        <v>25.75155294560619</v>
       </c>
       <c r="N9" t="n">
-        <v>996.2989141527449</v>
+        <v>991.471195400791</v>
       </c>
       <c r="O9" t="n">
-        <v>31.56420304954245</v>
+        <v>31.48763559559198</v>
       </c>
       <c r="P9" t="n">
-        <v>432.9043935429899</v>
+        <v>432.8727165476825</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25960,28 +26048,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6818986693629578</v>
+        <v>0.6944481957443404</v>
       </c>
       <c r="J10" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K10" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03367489860250361</v>
+        <v>0.0351556825191438</v>
       </c>
       <c r="M10" t="n">
-        <v>21.86548698497246</v>
+        <v>21.82688554920545</v>
       </c>
       <c r="N10" t="n">
-        <v>724.0731905032817</v>
+        <v>721.570753239571</v>
       </c>
       <c r="O10" t="n">
-        <v>26.90860811159287</v>
+        <v>26.86206904241687</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0480386830214</v>
+        <v>415.9202473939255</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26038,28 +26126,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6854321283919697</v>
+        <v>0.7036800638651579</v>
       </c>
       <c r="J11" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03637600860419243</v>
+        <v>0.03855661009414524</v>
       </c>
       <c r="M11" t="n">
-        <v>19.49101281034587</v>
+        <v>19.48574307927253</v>
       </c>
       <c r="N11" t="n">
-        <v>615.6548307023385</v>
+        <v>614.4013101767654</v>
       </c>
       <c r="O11" t="n">
-        <v>24.81239268394603</v>
+        <v>24.78711984432168</v>
       </c>
       <c r="P11" t="n">
-        <v>406.0509477939144</v>
+        <v>405.8593883089301</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26116,28 +26204,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.603030821706706</v>
+        <v>0.6321404779919564</v>
       </c>
       <c r="J12" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K12" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03294016741239303</v>
+        <v>0.03614636823510675</v>
       </c>
       <c r="M12" t="n">
-        <v>18.56218614648591</v>
+        <v>18.63231093831802</v>
       </c>
       <c r="N12" t="n">
-        <v>541.6894340613027</v>
+        <v>543.5838517369327</v>
       </c>
       <c r="O12" t="n">
-        <v>23.27422252324023</v>
+        <v>23.31488476782445</v>
       </c>
       <c r="P12" t="n">
-        <v>394.2559881394296</v>
+        <v>393.9528011287726</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26194,28 +26282,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4280682094671847</v>
+        <v>0.4657101714387969</v>
       </c>
       <c r="J13" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K13" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01837574873093772</v>
+        <v>0.02157422429631806</v>
       </c>
       <c r="M13" t="n">
-        <v>18.0713944145402</v>
+        <v>18.1823320282635</v>
       </c>
       <c r="N13" t="n">
-        <v>493.8467230021437</v>
+        <v>498.9285520024847</v>
       </c>
       <c r="O13" t="n">
-        <v>22.22266237430033</v>
+        <v>22.33670862062011</v>
       </c>
       <c r="P13" t="n">
-        <v>387.519088589411</v>
+        <v>387.1264280094146</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26272,28 +26360,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1708780158676768</v>
+        <v>0.2122156915647323</v>
       </c>
       <c r="J14" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K14" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002780582259056974</v>
+        <v>0.004256384681162628</v>
       </c>
       <c r="M14" t="n">
-        <v>17.87108123685462</v>
+        <v>17.99473059887517</v>
       </c>
       <c r="N14" t="n">
-        <v>523.7603693774557</v>
+        <v>529.8424581077451</v>
       </c>
       <c r="O14" t="n">
-        <v>22.88581152979845</v>
+        <v>23.01830702088547</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5200658377028</v>
+        <v>384.0846429708695</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26350,28 +26438,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.008970163823575978</v>
+        <v>0.02867626288018268</v>
       </c>
       <c r="J15" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K15" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L15" t="n">
-        <v>9.015886512586668e-06</v>
+        <v>9.161214188213584e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>16.19536352661547</v>
+        <v>16.31577729461885</v>
       </c>
       <c r="N15" t="n">
-        <v>427.578952960073</v>
+        <v>432.3951940862112</v>
       </c>
       <c r="O15" t="n">
-        <v>20.6779823232363</v>
+        <v>20.79411440976055</v>
       </c>
       <c r="P15" t="n">
-        <v>383.3639044672953</v>
+        <v>382.9564383428944</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26428,28 +26516,28 @@
         <v>0.0344</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3839709676320497</v>
+        <v>-0.3276966419860211</v>
       </c>
       <c r="J16" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01421723537945974</v>
+        <v>0.01014935537439576</v>
       </c>
       <c r="M16" t="n">
-        <v>18.56439310657501</v>
+        <v>18.7531223714792</v>
       </c>
       <c r="N16" t="n">
-        <v>550.5582207520392</v>
+        <v>566.7790728996534</v>
       </c>
       <c r="O16" t="n">
-        <v>23.46397708727229</v>
+        <v>23.80712231454389</v>
       </c>
       <c r="P16" t="n">
-        <v>397.5735367602086</v>
+        <v>397.007116669157</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26506,28 +26594,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6271351599961761</v>
+        <v>-0.5812020454857009</v>
       </c>
       <c r="J17" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04794255775212974</v>
+        <v>0.04064215327584986</v>
       </c>
       <c r="M17" t="n">
-        <v>16.314162301558</v>
+        <v>16.49170572116028</v>
       </c>
       <c r="N17" t="n">
-        <v>429.6530617410702</v>
+        <v>440.6760387807566</v>
       </c>
       <c r="O17" t="n">
-        <v>20.72807424101598</v>
+        <v>20.99228522054606</v>
       </c>
       <c r="P17" t="n">
-        <v>396.016408421882</v>
+        <v>395.558221795496</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26584,28 +26672,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8773829171907352</v>
+        <v>-0.8482781356832129</v>
       </c>
       <c r="J18" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K18" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07144611831982262</v>
+        <v>0.06710491961583842</v>
       </c>
       <c r="M18" t="n">
-        <v>18.38995646205087</v>
+        <v>18.45384153215471</v>
       </c>
       <c r="N18" t="n">
-        <v>540.6494293259196</v>
+        <v>543.2630897694489</v>
       </c>
       <c r="O18" t="n">
-        <v>23.25186937271753</v>
+        <v>23.30800484317457</v>
       </c>
       <c r="P18" t="n">
-        <v>403.2938146682772</v>
+        <v>403.0028385405623</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26665,7 +26753,7 @@
         <v>-0.740009934251457</v>
       </c>
       <c r="J19" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K19" t="n">
         <v>229</v>
@@ -26743,7 +26831,7 @@
         <v>-0.5917315861135932</v>
       </c>
       <c r="J20" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K20" t="n">
         <v>222</v>
@@ -26818,28 +26906,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2669604865762736</v>
+        <v>-0.2621201461627728</v>
       </c>
       <c r="J21" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K21" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009259877933658678</v>
+        <v>0.009013657902793737</v>
       </c>
       <c r="M21" t="n">
-        <v>16.35994830662539</v>
+        <v>16.3121241357086</v>
       </c>
       <c r="N21" t="n">
-        <v>417.5182030065019</v>
+        <v>415.7438163532379</v>
       </c>
       <c r="O21" t="n">
-        <v>20.43326217241148</v>
+        <v>20.38979686885668</v>
       </c>
       <c r="P21" t="n">
-        <v>384.5809806410573</v>
+        <v>384.5329586518288</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26896,28 +26984,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2771197399176283</v>
+        <v>-0.2693818646266463</v>
       </c>
       <c r="J22" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K22" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00860395878229181</v>
+        <v>0.0082110218511523</v>
       </c>
       <c r="M22" t="n">
-        <v>17.51501810777015</v>
+        <v>17.47591168502921</v>
       </c>
       <c r="N22" t="n">
-        <v>475.7645096821886</v>
+        <v>473.898894918957</v>
       </c>
       <c r="O22" t="n">
-        <v>21.81202672110477</v>
+        <v>21.76921897815714</v>
       </c>
       <c r="P22" t="n">
-        <v>376.4251896282931</v>
+        <v>376.3482395307705</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26974,28 +27062,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3421905247122789</v>
+        <v>-0.3299606631915009</v>
       </c>
       <c r="J23" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01232750294189056</v>
+        <v>0.01157480806468969</v>
       </c>
       <c r="M23" t="n">
-        <v>17.37119774102076</v>
+        <v>17.34641407017534</v>
       </c>
       <c r="N23" t="n">
-        <v>487.5402089620381</v>
+        <v>485.9780840372071</v>
       </c>
       <c r="O23" t="n">
-        <v>22.08031270073044</v>
+        <v>22.04491061531453</v>
       </c>
       <c r="P23" t="n">
-        <v>374.2933910647255</v>
+        <v>374.1688164296947</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27052,28 +27140,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1410774748940901</v>
+        <v>0.146717889532501</v>
       </c>
       <c r="J24" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K24" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002316184554579159</v>
+        <v>0.002527928164413606</v>
       </c>
       <c r="M24" t="n">
-        <v>17.12062551065592</v>
+        <v>17.07203406161268</v>
       </c>
       <c r="N24" t="n">
-        <v>467.909523368043</v>
+        <v>466.0002391994022</v>
       </c>
       <c r="O24" t="n">
-        <v>21.63121640981022</v>
+        <v>21.58703868527136</v>
       </c>
       <c r="P24" t="n">
-        <v>368.085599019884</v>
+        <v>368.0297924206349</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27130,28 +27218,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.473278852156607</v>
+        <v>0.4878604492925771</v>
       </c>
       <c r="J25" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K25" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02695217926094717</v>
+        <v>0.02878117442119044</v>
       </c>
       <c r="M25" t="n">
-        <v>17.04239450869653</v>
+        <v>17.03606298524578</v>
       </c>
       <c r="N25" t="n">
-        <v>440.839925040665</v>
+        <v>440.088657731243</v>
       </c>
       <c r="O25" t="n">
-        <v>20.99618834552274</v>
+        <v>20.97829015270889</v>
       </c>
       <c r="P25" t="n">
-        <v>367.8703877352298</v>
+        <v>367.7258400021085</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27208,28 +27296,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5061485987465935</v>
+        <v>0.5247078857766998</v>
       </c>
       <c r="J26" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K26" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02764360485755624</v>
+        <v>0.02984271517610115</v>
       </c>
       <c r="M26" t="n">
-        <v>17.37759038612058</v>
+        <v>17.38155112740662</v>
       </c>
       <c r="N26" t="n">
-        <v>486.6510977683116</v>
+        <v>486.1676712586921</v>
       </c>
       <c r="O26" t="n">
-        <v>22.06016993969701</v>
+        <v>22.0492102184793</v>
       </c>
       <c r="P26" t="n">
-        <v>363.7790796342986</v>
+        <v>363.5959776974989</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27286,28 +27374,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3223881775545102</v>
+        <v>0.3404722641783857</v>
       </c>
       <c r="J27" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K27" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01346168049061258</v>
+        <v>0.01510248255359115</v>
       </c>
       <c r="M27" t="n">
-        <v>16.50361656385035</v>
+        <v>16.5048088651636</v>
       </c>
       <c r="N27" t="n">
-        <v>418.2163113043908</v>
+        <v>417.7115627736063</v>
       </c>
       <c r="O27" t="n">
-        <v>20.45033768191594</v>
+        <v>20.43799312001074</v>
       </c>
       <c r="P27" t="n">
-        <v>360.700729336519</v>
+        <v>360.5251719133497</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27345,7 +27433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB285"/>
+  <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59935,6 +60023,124 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-37.797021261197564,174.8412644595877</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>-37.796617729880914,174.8404791420119</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>-37.79488319347883,174.83749784189203</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-37.794398805217874,174.83662103174916</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>-37.793593971187036,174.8362243321512</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>-37.792846686715464,174.83600077976317</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>-37.79213297717004,174.83574693911015</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>-37.791360262098074,174.83556123149938</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>-37.79059851516049,174.83556863701</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>-37.78987933288774,174.8356182424522</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>-37.789183612652806,174.8352040632914</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>-37.78845873505408,174.8353755932678</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>-37.787746135126824,174.83555604544094</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>-37.78562314176597,174.83561392001752</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>-37.78491112383093,174.83556039137324</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>-37.78420574450355,174.83544962280942</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>-37.78350078635999,174.83534319211128</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>-37.782828954285414,174.8350305939889</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>-37.782142190434364,174.8348701916724</t>
+        </is>
+      </c>
+      <c r="AA286" t="inlineStr">
+        <is>
+          <t>-37.78142749452485,174.8348115175517</t>
+        </is>
+      </c>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB286"/>
+  <dimension ref="A1:AB288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22272,6 +22272,124 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="n">
+        <v>386.4233333333333</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>391.5311111111111</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>389.93</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>372.4484615384616</v>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>412.4171428571429</v>
+      </c>
+      <c r="K288" t="n">
+        <v>409.92</v>
+      </c>
+      <c r="L288" t="n">
+        <v>407.65</v>
+      </c>
+      <c r="M288" t="n">
+        <v>403.16</v>
+      </c>
+      <c r="N288" t="n">
+        <v>422.37</v>
+      </c>
+      <c r="O288" t="n">
+        <v>420.3985714285715</v>
+      </c>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="n">
+        <v>426.26</v>
+      </c>
+      <c r="R288" t="n">
+        <v>441.2066666666667</v>
+      </c>
+      <c r="S288" t="n">
+        <v>433.7666666666667</v>
+      </c>
+      <c r="T288" t="n">
+        <v>398.66</v>
+      </c>
+      <c r="U288" t="n">
+        <v>395.17</v>
+      </c>
+      <c r="V288" t="n">
+        <v>394.4092307692308</v>
+      </c>
+      <c r="W288" t="n">
+        <v>379.44</v>
+      </c>
+      <c r="X288" t="n">
+        <v>371.89</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>378.8966666666667</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>382.66</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>360.7992307692308</v>
+      </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22283,7 +22401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25251,6 +25369,26 @@
       </c>
       <c r="B296" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -25427,7 +25565,7 @@
         <v>-0.1772004120637465</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K2" t="n">
         <v>157</v>
@@ -25505,7 +25643,7 @@
         <v>-0.335442971381377</v>
       </c>
       <c r="J3" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K3" t="n">
         <v>167</v>
@@ -25583,7 +25721,7 @@
         <v>-0.2245086288054531</v>
       </c>
       <c r="J4" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K4" t="n">
         <v>177</v>
@@ -25661,7 +25799,7 @@
         <v>0.3018549077074439</v>
       </c>
       <c r="J5" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K5" t="n">
         <v>175</v>
@@ -25739,7 +25877,7 @@
         <v>0.9084321723122787</v>
       </c>
       <c r="J6" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K6" t="n">
         <v>192</v>
@@ -25817,7 +25955,7 @@
         <v>1.564379584011086</v>
       </c>
       <c r="J7" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K7" t="n">
         <v>186</v>
@@ -25895,7 +26033,7 @@
         <v>1.00604860605991</v>
       </c>
       <c r="J8" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K8" t="n">
         <v>201</v>
@@ -25973,7 +26111,7 @@
         <v>0.6924213088666352</v>
       </c>
       <c r="J9" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K9" t="n">
         <v>204</v>
@@ -26048,28 +26186,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6944481957443404</v>
+        <v>0.6753676783707301</v>
       </c>
       <c r="J10" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K10" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0351556825191438</v>
+        <v>0.03351852057212312</v>
       </c>
       <c r="M10" t="n">
-        <v>21.82688554920545</v>
+        <v>21.8261508687491</v>
       </c>
       <c r="N10" t="n">
-        <v>721.570753239571</v>
+        <v>720.316439804198</v>
       </c>
       <c r="O10" t="n">
-        <v>26.86206904241687</v>
+        <v>26.83871158986955</v>
       </c>
       <c r="P10" t="n">
-        <v>415.9202473939255</v>
+        <v>416.1151772454947</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26126,28 +26264,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7036800638651579</v>
+        <v>0.6899603695411534</v>
       </c>
       <c r="J11" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K11" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03855661009414524</v>
+        <v>0.03744424592672857</v>
       </c>
       <c r="M11" t="n">
-        <v>19.48574307927253</v>
+        <v>19.46140809236612</v>
       </c>
       <c r="N11" t="n">
-        <v>614.4013101767654</v>
+        <v>612.495410735803</v>
       </c>
       <c r="O11" t="n">
-        <v>24.78711984432168</v>
+        <v>24.74864462421736</v>
       </c>
       <c r="P11" t="n">
-        <v>405.8593883089301</v>
+        <v>406.0038076350804</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26204,28 +26342,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6321404779919564</v>
+        <v>0.6296874345806724</v>
       </c>
       <c r="J12" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K12" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03614636823510675</v>
+        <v>0.03621701567705804</v>
       </c>
       <c r="M12" t="n">
-        <v>18.63231093831802</v>
+        <v>18.55923995192703</v>
       </c>
       <c r="N12" t="n">
-        <v>543.5838517369327</v>
+        <v>541.1774040789583</v>
       </c>
       <c r="O12" t="n">
-        <v>23.31488476782445</v>
+        <v>23.26321998518172</v>
       </c>
       <c r="P12" t="n">
-        <v>393.9528011287726</v>
+        <v>393.9784238168647</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26282,28 +26420,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4657101714387969</v>
+        <v>0.4693577712889724</v>
       </c>
       <c r="J13" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K13" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02157422429631806</v>
+        <v>0.02211359618894715</v>
       </c>
       <c r="M13" t="n">
-        <v>18.1823320282635</v>
+        <v>18.12066527255645</v>
       </c>
       <c r="N13" t="n">
-        <v>498.9285520024847</v>
+        <v>496.7996671925838</v>
       </c>
       <c r="O13" t="n">
-        <v>22.33670862062011</v>
+        <v>22.28900327947806</v>
       </c>
       <c r="P13" t="n">
-        <v>387.1264280094146</v>
+        <v>387.0882701216216</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26360,28 +26498,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2122156915647323</v>
+        <v>0.2432483036198226</v>
       </c>
       <c r="J14" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004256384681162628</v>
+        <v>0.005589638027724275</v>
       </c>
       <c r="M14" t="n">
-        <v>17.99473059887517</v>
+        <v>18.07128797558401</v>
       </c>
       <c r="N14" t="n">
-        <v>529.8424581077451</v>
+        <v>532.26325731021</v>
       </c>
       <c r="O14" t="n">
-        <v>23.01830702088547</v>
+        <v>23.07083130947409</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0846429708695</v>
+        <v>383.7568353030174</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26438,28 +26576,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02867626288018268</v>
+        <v>0.06389733114668301</v>
       </c>
       <c r="J15" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K15" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L15" t="n">
-        <v>9.161214188213584e-05</v>
+        <v>0.0004529676921269932</v>
       </c>
       <c r="M15" t="n">
-        <v>16.31577729461885</v>
+        <v>16.42636782822438</v>
       </c>
       <c r="N15" t="n">
-        <v>432.3951940862112</v>
+        <v>436.4272369222592</v>
       </c>
       <c r="O15" t="n">
-        <v>20.79411440976055</v>
+        <v>20.89084098169002</v>
       </c>
       <c r="P15" t="n">
-        <v>382.9564383428944</v>
+        <v>382.5741790861412</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26519,7 +26657,7 @@
         <v>-0.3276966419860211</v>
       </c>
       <c r="J16" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K16" t="n">
         <v>231</v>
@@ -26594,28 +26732,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5812020454857009</v>
+        <v>-0.5430799043619589</v>
       </c>
       <c r="J17" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K17" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04064215327584986</v>
+        <v>0.03528280518425408</v>
       </c>
       <c r="M17" t="n">
-        <v>16.49170572116028</v>
+        <v>16.6273225477369</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6760387807566</v>
+        <v>447.734471504628</v>
       </c>
       <c r="O17" t="n">
-        <v>20.99228522054606</v>
+        <v>21.15973703770035</v>
       </c>
       <c r="P17" t="n">
-        <v>395.558221795496</v>
+        <v>395.1767314453098</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26672,28 +26810,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8482781356832129</v>
+        <v>-0.7973195013562385</v>
       </c>
       <c r="J18" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K18" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06710491961583842</v>
+        <v>0.05870917052349989</v>
       </c>
       <c r="M18" t="n">
-        <v>18.45384153215471</v>
+        <v>18.6246285969758</v>
       </c>
       <c r="N18" t="n">
-        <v>543.2630897694489</v>
+        <v>556.249281006779</v>
       </c>
       <c r="O18" t="n">
-        <v>23.30800484317457</v>
+        <v>23.58493758751078</v>
       </c>
       <c r="P18" t="n">
-        <v>403.0028385405623</v>
+        <v>402.4918149167469</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26750,28 +26888,28 @@
         <v>0.0512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.740009934251457</v>
+        <v>-0.6938617400968002</v>
       </c>
       <c r="J19" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K19" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06787625258219709</v>
+        <v>0.05898126834789097</v>
       </c>
       <c r="M19" t="n">
-        <v>15.88865665190437</v>
+        <v>16.00822335172309</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0120819384774</v>
+        <v>412.6187460307448</v>
       </c>
       <c r="O19" t="n">
-        <v>20.05023894966036</v>
+        <v>20.31301912643083</v>
       </c>
       <c r="P19" t="n">
-        <v>399.2394870729293</v>
+        <v>398.76937149412</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26828,28 +26966,28 @@
         <v>0.0267</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5917315861135932</v>
+        <v>-0.5778285914675724</v>
       </c>
       <c r="J20" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K20" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03390426413625913</v>
+        <v>0.03262786205123602</v>
       </c>
       <c r="M20" t="n">
-        <v>18.17370232897736</v>
+        <v>18.14959237114216</v>
       </c>
       <c r="N20" t="n">
-        <v>527.907147834106</v>
+        <v>526.5801913787352</v>
       </c>
       <c r="O20" t="n">
-        <v>22.97623006139402</v>
+        <v>22.94733516944256</v>
       </c>
       <c r="P20" t="n">
-        <v>398.6255187190405</v>
+        <v>398.4841425987312</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26906,28 +27044,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2621201461627728</v>
+        <v>-0.2466828531633266</v>
       </c>
       <c r="J21" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K21" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009013657902793737</v>
+        <v>0.008042120409673337</v>
       </c>
       <c r="M21" t="n">
-        <v>16.3121241357086</v>
+        <v>16.32343589417131</v>
       </c>
       <c r="N21" t="n">
-        <v>415.7438163532379</v>
+        <v>415.2135500224626</v>
       </c>
       <c r="O21" t="n">
-        <v>20.38979686885668</v>
+        <v>20.37678949251973</v>
       </c>
       <c r="P21" t="n">
-        <v>384.5329586518288</v>
+        <v>384.3793237912176</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26984,28 +27122,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2693818646266463</v>
+        <v>-0.2464474572341692</v>
       </c>
       <c r="J22" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K22" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0082110218511523</v>
+        <v>0.006909943703077293</v>
       </c>
       <c r="M22" t="n">
-        <v>17.47591168502921</v>
+        <v>17.51852147924597</v>
       </c>
       <c r="N22" t="n">
-        <v>473.898894918957</v>
+        <v>474.5538560209999</v>
       </c>
       <c r="O22" t="n">
-        <v>21.76921897815714</v>
+        <v>21.78425706837394</v>
       </c>
       <c r="P22" t="n">
-        <v>376.3482395307705</v>
+        <v>376.1194835294236</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27062,28 +27200,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3299606631915009</v>
+        <v>-0.3166816617164738</v>
       </c>
       <c r="J23" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K23" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01157480806468969</v>
+        <v>0.0107632830413944</v>
       </c>
       <c r="M23" t="n">
-        <v>17.34641407017534</v>
+        <v>17.32743204568388</v>
       </c>
       <c r="N23" t="n">
-        <v>485.9780840372071</v>
+        <v>484.5779321495539</v>
       </c>
       <c r="O23" t="n">
-        <v>22.04491061531453</v>
+        <v>22.0131309029305</v>
       </c>
       <c r="P23" t="n">
-        <v>374.1688164296947</v>
+        <v>374.0331632699443</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27140,28 +27278,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>0.146717889532501</v>
+        <v>0.1593632049487071</v>
       </c>
       <c r="J24" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K24" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002527928164413606</v>
+        <v>0.00303204099181098</v>
       </c>
       <c r="M24" t="n">
-        <v>17.07203406161268</v>
+        <v>16.98376586272082</v>
       </c>
       <c r="N24" t="n">
-        <v>466.0002391994022</v>
+        <v>462.8066772142697</v>
       </c>
       <c r="O24" t="n">
-        <v>21.58703868527136</v>
+        <v>21.51294208643415</v>
       </c>
       <c r="P24" t="n">
-        <v>368.0297924206349</v>
+        <v>367.9044231021302</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27218,28 +27356,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4878604492925771</v>
+        <v>0.4962185041111704</v>
       </c>
       <c r="J25" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K25" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02878117442119044</v>
+        <v>0.0302581173382106</v>
       </c>
       <c r="M25" t="n">
-        <v>17.03606298524578</v>
+        <v>16.93918122972841</v>
       </c>
       <c r="N25" t="n">
-        <v>440.088657731243</v>
+        <v>436.7670012539244</v>
       </c>
       <c r="O25" t="n">
-        <v>20.97829015270889</v>
+        <v>20.8989712965477</v>
       </c>
       <c r="P25" t="n">
-        <v>367.7258400021085</v>
+        <v>367.6428301405817</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27296,28 +27434,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5247078857766998</v>
+        <v>0.5414764134977915</v>
       </c>
       <c r="J26" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K26" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02984271517610115</v>
+        <v>0.03229876596933101</v>
       </c>
       <c r="M26" t="n">
-        <v>17.38155112740662</v>
+        <v>17.29687014007989</v>
       </c>
       <c r="N26" t="n">
-        <v>486.1676712586921</v>
+        <v>482.5551085203138</v>
       </c>
       <c r="O26" t="n">
-        <v>22.0492102184793</v>
+        <v>21.96713701237177</v>
       </c>
       <c r="P26" t="n">
-        <v>363.5959776974989</v>
+        <v>363.4301661120277</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27374,28 +27512,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3404722641783857</v>
+        <v>0.335159876108482</v>
       </c>
       <c r="J27" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K27" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01510248255359115</v>
+        <v>0.01495045765354819</v>
       </c>
       <c r="M27" t="n">
-        <v>16.5048088651636</v>
+        <v>16.40086358837481</v>
       </c>
       <c r="N27" t="n">
-        <v>417.7115627736063</v>
+        <v>413.982269609371</v>
       </c>
       <c r="O27" t="n">
-        <v>20.43799312001074</v>
+        <v>20.34655424413114</v>
       </c>
       <c r="P27" t="n">
-        <v>360.5251719133497</v>
+        <v>360.5769299524862</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27433,7 +27571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB286"/>
+  <dimension ref="A1:AB288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60141,6 +60279,166 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>-37.783510555852835,174.83524965592161</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>-37.7828213766987,174.83508831447824</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>-37.78213049678075,174.83494388819977</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t>-37.78140179086147,174.83497324252633</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-37.793478503016146,174.83659701536567</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>-37.79275950788366,174.83635258763934</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>-37.79205532098369,174.83611344455045</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>-37.79131079281286,174.83596772517708</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>-37.79059088493252,174.83568043963777</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>-37.78987814902932,174.83563683551273</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>-37.78845406877693,174.8354695313291</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>-37.78776456943913,174.8352566181846</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>-37.78707912562787,174.83527304426255</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>-37.78634709600238,174.83555484550206</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>-37.785638443737625,174.83547836436333</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>-37.784931572080666,174.8353718389986</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>-37.78420736101314,174.83543414586052</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>-37.78349346996872,174.83541324105673</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>-37.782802798585735,174.83522982793895</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>-37.782117654906266,174.83502482076216</t>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr">
+        <is>
+          <t>-37.78138118095676,174.8351029169779</t>
+        </is>
+      </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB288"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22200,16 +22200,24 @@
           <t>2025-07-25 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr"/>
+      <c r="B286" t="n">
+        <v>327.8590909090909</v>
+      </c>
       <c r="C286" t="n">
         <v>321.6528571428571</v>
       </c>
       <c r="D286" t="n">
         <v>346.1566666666667</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
+      <c r="E286" t="n">
+        <v>395.6266666666667</v>
+      </c>
+      <c r="F286" t="n">
+        <v>420.6066666666667</v>
+      </c>
+      <c r="G286" t="n">
+        <v>413.3633333333333</v>
+      </c>
       <c r="H286" t="n">
         <v>427.11</v>
       </c>
@@ -22331,7 +22339,9 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>407.03</v>
+      </c>
       <c r="J288" t="n">
         <v>412.4171428571429</v>
       </c>
@@ -22350,7 +22360,9 @@
       <c r="O288" t="n">
         <v>420.3985714285715</v>
       </c>
-      <c r="P288" t="inlineStr"/>
+      <c r="P288" t="n">
+        <v>406.65</v>
+      </c>
       <c r="Q288" t="n">
         <v>426.26</v>
       </c>
@@ -22385,6 +22397,96 @@
         <v>360.7992307692308</v>
       </c>
       <c r="AB288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>322.0027272727273</v>
+      </c>
+      <c r="C289" t="n">
+        <v>330.0371428571428</v>
+      </c>
+      <c r="D289" t="n">
+        <v>345.5433333333333</v>
+      </c>
+      <c r="E289" t="n">
+        <v>369.1633333333333</v>
+      </c>
+      <c r="F289" t="n">
+        <v>395.2433333333333</v>
+      </c>
+      <c r="G289" t="n">
+        <v>394.6766666666667</v>
+      </c>
+      <c r="H289" t="n">
+        <v>394.67</v>
+      </c>
+      <c r="I289" t="n">
+        <v>402.8933333333333</v>
+      </c>
+      <c r="J289" t="n">
+        <v>415.0871428571429</v>
+      </c>
+      <c r="K289" t="n">
+        <v>413.13</v>
+      </c>
+      <c r="L289" t="n">
+        <v>415.88</v>
+      </c>
+      <c r="M289" t="n">
+        <v>416.4</v>
+      </c>
+      <c r="N289" t="n">
+        <v>408.4466666666667</v>
+      </c>
+      <c r="O289" t="n">
+        <v>407.4685714285715</v>
+      </c>
+      <c r="P289" t="n">
+        <v>432.4433333333333</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>420.09</v>
+      </c>
+      <c r="R289" t="n">
+        <v>418.6522222222222</v>
+      </c>
+      <c r="S289" t="n">
+        <v>415.0422222222222</v>
+      </c>
+      <c r="T289" t="n">
+        <v>405.04</v>
+      </c>
+      <c r="U289" t="n">
+        <v>396.39</v>
+      </c>
+      <c r="V289" t="n">
+        <v>390.9807692307692</v>
+      </c>
+      <c r="W289" t="n">
+        <v>387.915</v>
+      </c>
+      <c r="X289" t="n">
+        <v>389.5366666666667</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>384.0322222222222</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>360.2607692307692</v>
+      </c>
+      <c r="AB289" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -22401,7 +22503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25389,6 +25491,16 @@
       </c>
       <c r="B298" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -27571,7 +27683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB288"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60167,7 +60279,11 @@
           <t>2025-07-25 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>-37.79760396362662,174.8417840455288</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr">
         <is>
           <t>-37.797021261197564,174.8412644595877</t>
@@ -60178,9 +60294,21 @@
           <t>-37.796617729880914,174.8404791420119</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-37.79635985421971,174.83947779395257</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-37.79595622289591,174.8386852994378</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-37.79535874497017,174.8381810692654</t>
+        </is>
+      </c>
       <c r="H286" t="inlineStr">
         <is>
           <t>-37.79488319347883,174.83749784189203</t>
@@ -60346,7 +60474,11 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-37.79417113369294,174.8370719097897</t>
+        </is>
+      </c>
       <c r="J288" t="inlineStr">
         <is>
           <t>-37.793478503016146,174.83659701536567</t>
@@ -60377,7 +60509,11 @@
           <t>-37.78987814902932,174.83563683551273</t>
         </is>
       </c>
-      <c r="P288" t="inlineStr"/>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>-37.78915464921579,174.83573663092244</t>
+        </is>
+      </c>
       <c r="Q288" t="inlineStr">
         <is>
           <t>-37.78845406877693,174.8354695313291</t>
@@ -60434,6 +60570,148 @@
         </is>
       </c>
       <c r="AB288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-37.79756979488683,174.84183472042386</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-37.79707017877277,174.841191910927</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-37.79661415145126,174.8404844491418</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-37.796205457957434,174.8397067798064</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-37.79580940642931,174.83890600190406</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-37.795251614226316,174.8383447599026</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-37.79469752354329,174.83778232694826</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-37.79415112367277,174.8371115371091</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-37.79348725270218,174.83656877519175</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>-37.79276812912645,174.83631779706542</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>-37.79207445040282,174.8360231620824</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>-37.79132887616937,174.83581913396293</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>-37.790580135524955,174.83583794366425</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>-37.78986883144682,174.83578317095808</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>-37.78917053884811,174.83544446449707</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>-37.78845059575742,174.83553944661958</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>-37.78774885150019,174.83551192436119</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>-37.78705941674549,174.83548417586664</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>-37.786355221024095,174.83548313831912</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>-37.78563999168965,174.83546465143297</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>-37.78492738974308,174.83541040437603</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>-37.784217324545935,174.83533875155854</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>-37.78351421596476,174.83521461267296</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>-37.78281035010002,174.8351723066032</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>-37.78209334881465,174.83517800253063</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr">
+        <is>
+          <t>-37.78138022830324,174.83510891090867</t>
+        </is>
+      </c>
+      <c r="AB289" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -25674,28 +25674,28 @@
         <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1772004120637465</v>
+        <v>-0.4983556700361134</v>
       </c>
       <c r="J2" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K2" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004493250682517935</v>
+        <v>0.00343130029600347</v>
       </c>
       <c r="M2" t="n">
-        <v>54.28647462547927</v>
+        <v>56.00765405414707</v>
       </c>
       <c r="N2" t="n">
-        <v>4328.198687358878</v>
+        <v>4526.386562074761</v>
       </c>
       <c r="O2" t="n">
-        <v>65.78904686464821</v>
+        <v>67.27842568070957</v>
       </c>
       <c r="P2" t="n">
-        <v>473.9204017958093</v>
+        <v>476.8521863916696</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25752,28 +25752,28 @@
         <v>0.0446</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.335442971381377</v>
+        <v>-0.4904822893533315</v>
       </c>
       <c r="J3" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001358540765840743</v>
+        <v>0.002864943319823898</v>
       </c>
       <c r="M3" t="n">
-        <v>56.81604442501474</v>
+        <v>57.65313005757437</v>
       </c>
       <c r="N3" t="n">
-        <v>4818.496589407876</v>
+        <v>4907.019364051941</v>
       </c>
       <c r="O3" t="n">
-        <v>69.41539158866624</v>
+        <v>70.05012037143078</v>
       </c>
       <c r="P3" t="n">
-        <v>480.3284870549398</v>
+        <v>481.8382278429689</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25830,28 +25830,28 @@
         <v>0.0366</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2245086288054531</v>
+        <v>-0.3552905641521031</v>
       </c>
       <c r="J4" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006228578813950447</v>
+        <v>0.001546888843267258</v>
       </c>
       <c r="M4" t="n">
-        <v>56.28934953260963</v>
+        <v>56.88534252368988</v>
       </c>
       <c r="N4" t="n">
-        <v>4802.338020591773</v>
+        <v>4865.508174815966</v>
       </c>
       <c r="O4" t="n">
-        <v>69.29890345879777</v>
+        <v>69.75319472838478</v>
       </c>
       <c r="P4" t="n">
-        <v>479.1206303191573</v>
+        <v>480.3742195412035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25908,28 +25908,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3018549077074439</v>
+        <v>0.1139634729989954</v>
       </c>
       <c r="J5" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K5" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001226135718794596</v>
+        <v>0.0001750368296508098</v>
       </c>
       <c r="M5" t="n">
-        <v>53.34502057865575</v>
+        <v>54.08396542598042</v>
       </c>
       <c r="N5" t="n">
-        <v>4437.248698649982</v>
+        <v>4483.748506170385</v>
       </c>
       <c r="O5" t="n">
-        <v>66.61267671134362</v>
+        <v>66.9607982790706</v>
       </c>
       <c r="P5" t="n">
-        <v>467.6615551451976</v>
+        <v>469.4454271733932</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25986,28 +25986,28 @@
         <v>0.0446</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9084321723122787</v>
+        <v>0.7651806649849493</v>
       </c>
       <c r="J6" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01212797963629741</v>
+        <v>0.008686527681518008</v>
       </c>
       <c r="M6" t="n">
-        <v>47.67579267346164</v>
+        <v>48.05107287928161</v>
       </c>
       <c r="N6" t="n">
-        <v>3771.572873001733</v>
+        <v>3789.085446291835</v>
       </c>
       <c r="O6" t="n">
-        <v>61.4131327404956</v>
+        <v>61.55554764837881</v>
       </c>
       <c r="P6" t="n">
-        <v>458.4234658817376</v>
+        <v>459.8442430088398</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26064,28 +26064,28 @@
         <v>0.1501</v>
       </c>
       <c r="I7" t="n">
-        <v>1.564379584011086</v>
+        <v>1.421900818173769</v>
       </c>
       <c r="J7" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K7" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0457978746271468</v>
+        <v>0.03819347231080406</v>
       </c>
       <c r="M7" t="n">
-        <v>40.59648841061936</v>
+        <v>40.85985721808186</v>
       </c>
       <c r="N7" t="n">
-        <v>2897.868163412513</v>
+        <v>2923.165853223828</v>
       </c>
       <c r="O7" t="n">
-        <v>53.8318508265554</v>
+        <v>54.06630977997137</v>
       </c>
       <c r="P7" t="n">
-        <v>436.6995616012876</v>
+        <v>438.1122800622881</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26142,28 +26142,28 @@
         <v>0.0819</v>
       </c>
       <c r="I8" t="n">
-        <v>1.00604860605991</v>
+        <v>0.9367278467080175</v>
       </c>
       <c r="J8" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K8" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02936383620826277</v>
+        <v>0.02546615307593025</v>
       </c>
       <c r="M8" t="n">
-        <v>34.49204777944328</v>
+        <v>34.65632410554704</v>
       </c>
       <c r="N8" t="n">
-        <v>1889.345961653232</v>
+        <v>1906.361463804486</v>
       </c>
       <c r="O8" t="n">
-        <v>43.46660743206481</v>
+        <v>43.66189945254885</v>
       </c>
       <c r="P8" t="n">
-        <v>442.0997402489477</v>
+        <v>442.7855222536996</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26220,28 +26220,28 @@
         <v>0.032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6924213088666352</v>
+        <v>0.6095968389256412</v>
       </c>
       <c r="J9" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K9" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02601738611466542</v>
+        <v>0.02026543605969822</v>
       </c>
       <c r="M9" t="n">
-        <v>25.75155294560619</v>
+        <v>25.92304323825931</v>
       </c>
       <c r="N9" t="n">
-        <v>991.471195400791</v>
+        <v>1001.719409443361</v>
       </c>
       <c r="O9" t="n">
-        <v>31.48763559559198</v>
+        <v>31.6499511760028</v>
       </c>
       <c r="P9" t="n">
-        <v>432.8727165476825</v>
+        <v>433.7145674021258</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26298,28 +26298,28 @@
         <v>0.0425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6753676783707301</v>
+        <v>0.6589646213888498</v>
       </c>
       <c r="J10" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K10" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03351852057212312</v>
+        <v>0.03218115882784733</v>
       </c>
       <c r="M10" t="n">
-        <v>21.8261508687491</v>
+        <v>21.81050776279646</v>
       </c>
       <c r="N10" t="n">
-        <v>720.316439804198</v>
+        <v>718.5373355300508</v>
       </c>
       <c r="O10" t="n">
-        <v>26.83871158986955</v>
+        <v>26.80554673066846</v>
       </c>
       <c r="P10" t="n">
-        <v>416.1151772454947</v>
+        <v>416.2834796079576</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26376,28 +26376,28 @@
         <v>0.0449</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6899603695411534</v>
+        <v>0.679570674769216</v>
       </c>
       <c r="J11" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K11" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03744424592672857</v>
+        <v>0.03670126328386192</v>
       </c>
       <c r="M11" t="n">
-        <v>19.46140809236612</v>
+        <v>19.42127297711836</v>
       </c>
       <c r="N11" t="n">
-        <v>612.495410735803</v>
+        <v>610.231882229754</v>
       </c>
       <c r="O11" t="n">
-        <v>24.74864462421736</v>
+        <v>24.70287194294935</v>
       </c>
       <c r="P11" t="n">
-        <v>406.0038076350804</v>
+        <v>406.1135735557752</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26454,28 +26454,28 @@
         <v>0.0432</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6296874345806724</v>
+        <v>0.6347927217632846</v>
       </c>
       <c r="J12" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K12" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03621701567705804</v>
+        <v>0.03712608669285355</v>
       </c>
       <c r="M12" t="n">
-        <v>18.55923995192703</v>
+        <v>18.50377328287215</v>
       </c>
       <c r="N12" t="n">
-        <v>541.1774040789583</v>
+        <v>538.8973891089407</v>
       </c>
       <c r="O12" t="n">
-        <v>23.26321998518172</v>
+        <v>23.21416354532165</v>
       </c>
       <c r="P12" t="n">
-        <v>393.9784238168647</v>
+        <v>393.9248940726512</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26532,28 +26532,28 @@
         <v>0.0458</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4693577712889724</v>
+        <v>0.4849369663083867</v>
       </c>
       <c r="J13" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02211359618894715</v>
+        <v>0.02373701914629456</v>
       </c>
       <c r="M13" t="n">
-        <v>18.12066527255645</v>
+        <v>18.11941146817987</v>
       </c>
       <c r="N13" t="n">
-        <v>496.7996671925838</v>
+        <v>495.8895811421458</v>
       </c>
       <c r="O13" t="n">
-        <v>22.28900327947806</v>
+        <v>22.26857833679882</v>
       </c>
       <c r="P13" t="n">
-        <v>387.0882701216216</v>
+        <v>386.9246792289161</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26610,28 +26610,28 @@
         <v>0.0677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2432483036198226</v>
+        <v>0.2605289084577943</v>
       </c>
       <c r="J14" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K14" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L14" t="n">
-        <v>0.005589638027724275</v>
+        <v>0.006452341858984911</v>
       </c>
       <c r="M14" t="n">
-        <v>18.07128797558401</v>
+        <v>18.07787959342287</v>
       </c>
       <c r="N14" t="n">
-        <v>532.26325731021</v>
+        <v>531.3566780593667</v>
       </c>
       <c r="O14" t="n">
-        <v>23.07083130947409</v>
+        <v>23.05117519909487</v>
       </c>
       <c r="P14" t="n">
-        <v>383.7568353030174</v>
+        <v>383.5736031327833</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26688,28 +26688,28 @@
         <v>0.0912</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06389733114668301</v>
+        <v>0.08606288109158594</v>
       </c>
       <c r="J15" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K15" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004529676921269932</v>
+        <v>0.0008251377014083516</v>
       </c>
       <c r="M15" t="n">
-        <v>16.42636782822438</v>
+        <v>16.46833262015482</v>
       </c>
       <c r="N15" t="n">
-        <v>436.4272369222592</v>
+        <v>436.856494633745</v>
       </c>
       <c r="O15" t="n">
-        <v>20.89084098169002</v>
+        <v>20.90111228221467</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5741790861412</v>
+        <v>382.332737461873</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26766,28 +26766,28 @@
         <v>0.0344</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3276966419860211</v>
+        <v>-0.2755645786129135</v>
       </c>
       <c r="J16" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K16" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01014935537439576</v>
+        <v>0.007209108610557569</v>
       </c>
       <c r="M16" t="n">
-        <v>18.7531223714792</v>
+        <v>18.84720369587865</v>
       </c>
       <c r="N16" t="n">
-        <v>566.7790728996534</v>
+        <v>571.3905959736996</v>
       </c>
       <c r="O16" t="n">
-        <v>23.80712231454389</v>
+        <v>23.90377785986348</v>
       </c>
       <c r="P16" t="n">
-        <v>397.007116669157</v>
+        <v>396.4792434015517</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26844,28 +26844,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5430799043619589</v>
+        <v>-0.5107297238415041</v>
       </c>
       <c r="J17" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03528280518425408</v>
+        <v>0.03116471773346541</v>
       </c>
       <c r="M17" t="n">
-        <v>16.6273225477369</v>
+        <v>16.73031439973901</v>
       </c>
       <c r="N17" t="n">
-        <v>447.734471504628</v>
+        <v>452.2967293845154</v>
       </c>
       <c r="O17" t="n">
-        <v>21.15973703770035</v>
+        <v>21.26726896864088</v>
       </c>
       <c r="P17" t="n">
-        <v>395.1767314453098</v>
+        <v>394.8516238188584</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26922,28 +26922,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7973195013562385</v>
+        <v>-0.7662620943087969</v>
       </c>
       <c r="J18" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K18" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05870917052349989</v>
+        <v>0.05441260073808374</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6246285969758</v>
+        <v>18.69544195261138</v>
       </c>
       <c r="N18" t="n">
-        <v>556.249281006779</v>
+        <v>559.5990088006558</v>
       </c>
       <c r="O18" t="n">
-        <v>23.58493758751078</v>
+        <v>23.65584512970644</v>
       </c>
       <c r="P18" t="n">
-        <v>402.4918149167469</v>
+        <v>402.1790957856737</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27000,28 +27000,28 @@
         <v>0.0512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6938617400968002</v>
+        <v>-0.6645406271850153</v>
       </c>
       <c r="J19" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05898126834789097</v>
+        <v>0.05421610140059474</v>
       </c>
       <c r="M19" t="n">
-        <v>16.00822335172309</v>
+        <v>16.05814258600565</v>
       </c>
       <c r="N19" t="n">
-        <v>412.6187460307448</v>
+        <v>415.8517450656744</v>
       </c>
       <c r="O19" t="n">
-        <v>20.31301912643083</v>
+        <v>20.39244333241298</v>
       </c>
       <c r="P19" t="n">
-        <v>398.76937149412</v>
+        <v>398.4694621626704</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27078,28 +27078,28 @@
         <v>0.0267</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5778285914675724</v>
+        <v>-0.5584156223429241</v>
       </c>
       <c r="J20" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K20" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03262786205123602</v>
+        <v>0.03071383140101491</v>
       </c>
       <c r="M20" t="n">
-        <v>18.14959237114216</v>
+        <v>18.14960244257555</v>
       </c>
       <c r="N20" t="n">
-        <v>526.5801913787352</v>
+        <v>526.2738345846673</v>
       </c>
       <c r="O20" t="n">
-        <v>22.94733516944256</v>
+        <v>22.94065898322599</v>
       </c>
       <c r="P20" t="n">
-        <v>398.4841425987312</v>
+        <v>398.2859604070424</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27156,28 +27156,28 @@
         <v>0.047</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2466828531633266</v>
+        <v>-0.2304616397657763</v>
       </c>
       <c r="J21" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K21" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008042120409673337</v>
+        <v>0.007068221615687431</v>
       </c>
       <c r="M21" t="n">
-        <v>16.32343589417131</v>
+        <v>16.34009172675178</v>
       </c>
       <c r="N21" t="n">
-        <v>415.2135500224626</v>
+        <v>414.8473425749287</v>
       </c>
       <c r="O21" t="n">
-        <v>20.37678949251973</v>
+        <v>20.36780161369726</v>
       </c>
       <c r="P21" t="n">
-        <v>384.3793237912176</v>
+        <v>384.2172169578839</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27234,28 +27234,28 @@
         <v>0.0772</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2464474572341692</v>
+        <v>-0.22709726428423</v>
       </c>
       <c r="J22" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K22" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="n">
-        <v>0.006909943703077293</v>
+        <v>0.005907451335275815</v>
       </c>
       <c r="M22" t="n">
-        <v>17.51852147924597</v>
+        <v>17.54140163980659</v>
       </c>
       <c r="N22" t="n">
-        <v>474.5538560209999</v>
+        <v>474.421049280507</v>
       </c>
       <c r="O22" t="n">
-        <v>21.78425706837394</v>
+        <v>21.78120862763375</v>
       </c>
       <c r="P22" t="n">
-        <v>376.1194835294236</v>
+        <v>375.9257095621724</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27312,28 +27312,28 @@
         <v>0.0979</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.3166816617164738</v>
+        <v>-0.2955730051074859</v>
       </c>
       <c r="J23" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K23" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0107632830413944</v>
+        <v>0.009443112358445527</v>
       </c>
       <c r="M23" t="n">
-        <v>17.32743204568388</v>
+        <v>17.34500141338276</v>
       </c>
       <c r="N23" t="n">
-        <v>484.5779321495539</v>
+        <v>484.5618718286518</v>
       </c>
       <c r="O23" t="n">
-        <v>22.0131309029305</v>
+        <v>22.01276611034269</v>
       </c>
       <c r="P23" t="n">
-        <v>374.0331632699443</v>
+        <v>373.8166939775372</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27390,28 +27390,28 @@
         <v>0.0704</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1593632049487071</v>
+        <v>0.1743915563296259</v>
       </c>
       <c r="J24" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K24" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00303204099181098</v>
+        <v>0.003652382783425945</v>
       </c>
       <c r="M24" t="n">
-        <v>16.98376586272082</v>
+        <v>16.98338625047752</v>
       </c>
       <c r="N24" t="n">
-        <v>462.8066772142697</v>
+        <v>462.0978631963828</v>
       </c>
       <c r="O24" t="n">
-        <v>21.51294208643415</v>
+        <v>21.49646164363761</v>
       </c>
       <c r="P24" t="n">
-        <v>367.9044231021302</v>
+        <v>367.7546540638547</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27468,28 +27468,28 @@
         <v>0.052</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4962185041111704</v>
+        <v>0.4992182532241707</v>
       </c>
       <c r="J25" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K25" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0302581173382106</v>
+        <v>0.03088873831909289</v>
       </c>
       <c r="M25" t="n">
-        <v>16.93918122972841</v>
+        <v>16.87917860914871</v>
       </c>
       <c r="N25" t="n">
-        <v>436.7670012539244</v>
+        <v>434.9046584396309</v>
       </c>
       <c r="O25" t="n">
-        <v>20.8989712965477</v>
+        <v>20.85436785039601</v>
       </c>
       <c r="P25" t="n">
-        <v>367.6428301405817</v>
+        <v>367.6128778114032</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27546,28 +27546,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5414764134977915</v>
+        <v>0.5336374856092242</v>
       </c>
       <c r="J26" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K26" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03229876596933101</v>
+        <v>0.03168808408786905</v>
       </c>
       <c r="M26" t="n">
-        <v>17.29687014007989</v>
+        <v>17.26035675646794</v>
       </c>
       <c r="N26" t="n">
-        <v>482.5551085203138</v>
+        <v>480.674620226791</v>
       </c>
       <c r="O26" t="n">
-        <v>21.96713701237177</v>
+        <v>21.92429292421516</v>
       </c>
       <c r="P26" t="n">
-        <v>363.4301661120277</v>
+        <v>363.5080460708076</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27624,28 +27624,28 @@
         <v>0.075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.335159876108482</v>
+        <v>0.3263867829790471</v>
       </c>
       <c r="J27" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K27" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01495045765354819</v>
+        <v>0.01432917793077682</v>
       </c>
       <c r="M27" t="n">
-        <v>16.40086358837481</v>
+        <v>16.36666894129245</v>
       </c>
       <c r="N27" t="n">
-        <v>413.982269609371</v>
+        <v>412.3370065604391</v>
       </c>
       <c r="O27" t="n">
-        <v>20.34655424413114</v>
+        <v>20.30608299403012</v>
       </c>
       <c r="P27" t="n">
-        <v>360.5769299524862</v>
+        <v>360.6627020391909</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -25665,13 +25665,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.02</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0901</v>
+        <v>0.027</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4983135097179279</v>
@@ -25743,13 +25743,13 @@
         <v>0.9599621347487156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0268</v>
+        <v>0.0227</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0446</v>
+        <v>0.0317</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4904950392502401</v>
@@ -25824,10 +25824,10 @@
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0236</v>
+        <v>0.0233</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0366</v>
+        <v>0.0359</v>
       </c>
       <c r="I4" t="n">
         <v>-0.355281869596301</v>
@@ -25902,10 +25902,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0224</v>
+        <v>0.0237</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0442</v>
+        <v>0.0347</v>
       </c>
       <c r="I5" t="n">
         <v>0.1139712387434111</v>
@@ -25980,10 +25980,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0239</v>
+        <v>0.0247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0446</v>
+        <v>0.0369</v>
       </c>
       <c r="I6" t="n">
         <v>0.7652007413610959</v>
@@ -26055,13 +26055,13 @@
         <v>0.799811400118259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0374</v>
+        <v>0.0255</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1501</v>
+        <v>0.0334</v>
       </c>
       <c r="I7" t="n">
         <v>1.4218953765259</v>
@@ -26133,13 +26133,13 @@
         <v>0.759773534866236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0359</v>
+        <v>0.025</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0819</v>
+        <v>0.0315</v>
       </c>
       <c r="I8" t="n">
         <v>0.9367278467080173</v>
@@ -26214,10 +26214,10 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0247</v>
+        <v>0.025</v>
       </c>
       <c r="H9" t="n">
-        <v>0.032</v>
+        <v>0.0318</v>
       </c>
       <c r="I9" t="n">
         <v>0.6096326878143133</v>
@@ -26289,13 +26289,13 @@
         <v>0.6803866925854904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0338</v>
+        <v>0.029</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0425</v>
+        <v>0.032</v>
       </c>
       <c r="I10" t="n">
         <v>0.6589359507740733</v>
@@ -26367,13 +26367,13 @@
         <v>0.6403488273339712</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0358</v>
+        <v>0.0289</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0449</v>
+        <v>0.0373</v>
       </c>
       <c r="I11" t="n">
         <v>0.679570674769216</v>
@@ -26445,13 +26445,13 @@
         <v>0.6003109620823827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0339</v>
+        <v>0.0328</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0432</v>
+        <v>0.0366</v>
       </c>
       <c r="I12" t="n">
         <v>0.6347927217632846</v>
@@ -26523,13 +26523,13 @@
         <v>0.5604967253704963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0375</v>
+        <v>0.0342</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0458</v>
+        <v>0.0367</v>
       </c>
       <c r="I13" t="n">
         <v>0.4849369663083867</v>
@@ -26601,13 +26601,13 @@
         <v>0.5204588601189204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05</v>
+        <v>0.0337</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0677</v>
+        <v>0.042</v>
       </c>
       <c r="I14" t="n">
         <v>0.2605073212211773</v>
@@ -26679,13 +26679,13 @@
         <v>0.4804209948674533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0552</v>
+        <v>0.0429</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0912</v>
+        <v>0.0524</v>
       </c>
       <c r="I15" t="n">
         <v>0.08609320769095187</v>
@@ -26757,13 +26757,13 @@
         <v>0.4403858477584262</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0266</v>
+        <v>0.0457</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0344</v>
+        <v>0.0548</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2755426584930344</v>
@@ -26835,13 +26835,13 @@
         <v>0.4003479825068345</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0429</v>
+        <v>0.0441</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0577</v>
+        <v>0.0511</v>
       </c>
       <c r="I17" t="n">
         <v>-0.5107297238415045</v>
@@ -26913,13 +26913,13 @@
         <v>0.3603101172552427</v>
       </c>
       <c r="F18" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0398</v>
+        <v>0.0389</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0504</v>
+        <v>0.0447</v>
       </c>
       <c r="I18" t="n">
         <v>-0.7662635158299528</v>
@@ -26991,13 +26991,13 @@
         <v>0.3203018766994778</v>
       </c>
       <c r="F19" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0399</v>
+        <v>0.0346</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0512</v>
+        <v>0.0382</v>
       </c>
       <c r="I19" t="n">
         <v>-0.6645507397628437</v>
@@ -27069,13 +27069,13 @@
         <v>0.2802640114477492</v>
       </c>
       <c r="F20" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0241</v>
+        <v>0.0345</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0267</v>
+        <v>0.0357</v>
       </c>
       <c r="I20" t="n">
         <v>-0.5584156223429242</v>
@@ -27147,13 +27147,13 @@
         <v>0.2402261461960206</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.035</v>
+        <v>0.0342</v>
       </c>
       <c r="H21" t="n">
-        <v>0.047</v>
+        <v>0.0395</v>
       </c>
       <c r="I21" t="n">
         <v>-0.2304616397657763</v>
@@ -27225,13 +27225,13 @@
         <v>0.2001884905221492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.065</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0548</v>
+        <v>0.0383</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0772</v>
+        <v>0.0457</v>
       </c>
       <c r="I22" t="n">
         <v>-0.2271085590671566</v>
@@ -27303,13 +27303,13 @@
         <v>0.1601506252703161</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0658</v>
+        <v>0.0369</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0979</v>
+        <v>0.0471</v>
       </c>
       <c r="I23" t="n">
         <v>-0.2955663101885713</v>
@@ -27381,13 +27381,13 @@
         <v>0.1201127600186589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0493</v>
+        <v>0.0398</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0704</v>
+        <v>0.0508</v>
       </c>
       <c r="I24" t="n">
         <v>0.174368037584568</v>
@@ -27459,13 +27459,13 @@
         <v>0.08007489476700162</v>
       </c>
       <c r="F25" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0376</v>
+        <v>0.0378</v>
       </c>
       <c r="H25" t="n">
-        <v>0.052</v>
+        <v>0.0465</v>
       </c>
       <c r="I25" t="n">
         <v>0.4992160831983169</v>
@@ -27537,13 +27537,13 @@
         <v>0.04003786525152877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0448</v>
+        <v>0.0399</v>
       </c>
       <c r="H26" t="n">
-        <v>0.058</v>
+        <v>0.0502</v>
       </c>
       <c r="I26" t="n">
         <v>0.5336374856092245</v>
@@ -27615,13 +27615,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.056</v>
+        <v>0.0428</v>
       </c>
       <c r="H27" t="n">
-        <v>0.075</v>
+        <v>0.0522</v>
       </c>
       <c r="I27" t="n">
         <v>0.3263817339651132</v>

--- a/data/nzd0225/nzd0225.xlsx
+++ b/data/nzd0225/nzd0225.xlsx
@@ -589,10 +589,10 @@
         <v>604.11</v>
       </c>
       <c r="D2" t="n">
-        <v>599.37</v>
+        <v>602.97</v>
       </c>
       <c r="E2" t="n">
-        <v>586.58</v>
+        <v>590.1799999999999</v>
       </c>
       <c r="F2" t="n">
         <v>570.1900000000001</v>
@@ -628,7 +628,7 @@
         <v>375.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>381.57</v>
+        <v>380.37</v>
       </c>
       <c r="R2" t="n">
         <v>380.86</v>
@@ -679,10 +679,10 @@
         <v>621.59</v>
       </c>
       <c r="D3" t="n">
-        <v>602.89</v>
+        <v>607.5599999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>580.21</v>
+        <v>584.88</v>
       </c>
       <c r="F3" t="n">
         <v>562.5</v>
@@ -718,7 +718,7 @@
         <v>391.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>385.66</v>
+        <v>384.1</v>
       </c>
       <c r="R3" t="n">
         <v>382.82</v>
@@ -769,10 +769,10 @@
         <v>638.91</v>
       </c>
       <c r="D4" t="n">
-        <v>615.5</v>
+        <v>618.17</v>
       </c>
       <c r="E4" t="n">
-        <v>578.65</v>
+        <v>581.3200000000001</v>
       </c>
       <c r="F4" t="n">
         <v>552.9400000000001</v>
@@ -808,7 +808,7 @@
         <v>404.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>396.16</v>
+        <v>395.27</v>
       </c>
       <c r="R4" t="n">
         <v>397.92</v>
@@ -857,10 +857,10 @@
         <v>587.14</v>
       </c>
       <c r="D5" t="n">
-        <v>560.15</v>
+        <v>556.02</v>
       </c>
       <c r="E5" t="n">
-        <v>528.62</v>
+        <v>524.49</v>
       </c>
       <c r="F5" t="n">
         <v>522.98</v>
@@ -894,7 +894,7 @@
         <v>408.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>395.92</v>
+        <v>397.3</v>
       </c>
       <c r="R5" t="n">
         <v>398.31</v>
@@ -943,10 +943,10 @@
         <v>598.97</v>
       </c>
       <c r="D6" t="n">
-        <v>554.55</v>
+        <v>549.88</v>
       </c>
       <c r="E6" t="n">
-        <v>523.02</v>
+        <v>518.35</v>
       </c>
       <c r="F6" t="n">
         <v>499.54</v>
@@ -972,7 +972,7 @@
         <v>415.99</v>
       </c>
       <c r="Q6" t="n">
-        <v>400.31</v>
+        <v>401.87</v>
       </c>
       <c r="R6" t="n">
         <v>409.88</v>
@@ -1005,10 +1005,10 @@
         <v>567.13</v>
       </c>
       <c r="D7" t="n">
-        <v>534.5700000000001</v>
+        <v>533.64</v>
       </c>
       <c r="E7" t="n">
-        <v>507.17</v>
+        <v>506.24</v>
       </c>
       <c r="F7" t="n">
         <v>493.95</v>
@@ -1042,7 +1042,7 @@
         <v>413.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>403.28</v>
+        <v>403.59</v>
       </c>
       <c r="R7" t="n">
         <v>395.54</v>
@@ -1116,7 +1116,7 @@
         <v>433.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.08</v>
+        <v>408.15</v>
       </c>
       <c r="R8" t="n">
         <v>413.66</v>
@@ -1188,7 +1188,7 @@
         <v>423.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>405.34</v>
+        <v>406.61</v>
       </c>
       <c r="R9" t="n">
         <v>429.38</v>
@@ -1282,7 +1282,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>495.17</v>
+        <v>496.64</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
@@ -1316,7 +1316,7 @@
         <v>394.51</v>
       </c>
       <c r="Q11" t="n">
-        <v>383.25</v>
+        <v>382.76</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1357,9 +1357,11 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>548.0599999999999</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>542.73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>543.47</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>519.67</v>
@@ -1390,7 +1392,7 @@
         <v>379.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.05</v>
+        <v>373.83</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1444,7 +1446,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>419.26</v>
+        <v>420.64</v>
       </c>
       <c r="R13" t="n">
         <v>434.49</v>
@@ -1508,7 +1510,7 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>402.32</v>
+        <v>403.85</v>
       </c>
       <c r="R14" t="n">
         <v>410.27</v>
@@ -1556,9 +1558,11 @@
         <v>471.66</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>507.9</v>
+      </c>
       <c r="E15" t="n">
-        <v>495.64</v>
+        <v>505.64</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1588,7 +1592,7 @@
         <v>377.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.96</v>
+        <v>372.63</v>
       </c>
       <c r="R15" t="n">
         <v>376.1</v>
@@ -1658,7 +1662,7 @@
         <v>412.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>400.25</v>
+        <v>399.85</v>
       </c>
       <c r="R16" t="n">
         <v>397.02</v>
@@ -1738,7 +1742,7 @@
         <v>385.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>381.66</v>
+        <v>382.66</v>
       </c>
       <c r="R17" t="n">
         <v>375.65</v>
@@ -1789,7 +1793,7 @@
         <v>592.21</v>
       </c>
       <c r="D18" t="n">
-        <v>581.4400000000001</v>
+        <v>585.77</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1820,7 +1824,7 @@
         <v>380.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>389.66</v>
+        <v>388.22</v>
       </c>
       <c r="R18" t="n">
         <v>386.78</v>
@@ -1871,10 +1875,10 @@
         <v>611.14</v>
       </c>
       <c r="D19" t="n">
-        <v>584.62</v>
+        <v>585.02</v>
       </c>
       <c r="E19" t="n">
-        <v>556.8200000000001</v>
+        <v>557.22</v>
       </c>
       <c r="F19" t="n">
         <v>518.28</v>
@@ -1908,7 +1912,7 @@
         <v>392.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>399.45</v>
+        <v>399.32</v>
       </c>
       <c r="R19" t="n">
         <v>402.31</v>
@@ -1955,10 +1959,10 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>608.35</v>
+        <v>603.88</v>
       </c>
       <c r="E20" t="n">
-        <v>570.5</v>
+        <v>566.03</v>
       </c>
       <c r="F20" t="n">
         <v>522.65</v>
@@ -1994,7 +1998,7 @@
         <v>391.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>396.76</v>
+        <v>398.25</v>
       </c>
       <c r="R20" t="n">
         <v>425.65</v>
@@ -2045,10 +2049,10 @@
         <v>596.58</v>
       </c>
       <c r="D21" t="n">
-        <v>557.86</v>
+        <v>561.33</v>
       </c>
       <c r="E21" t="n">
-        <v>531.78</v>
+        <v>535.25</v>
       </c>
       <c r="F21" t="n">
         <v>505.23</v>
@@ -2084,7 +2088,7 @@
         <v>380.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>385.69</v>
+        <v>384.53</v>
       </c>
       <c r="R21" t="n">
         <v>393.75</v>
@@ -2135,10 +2139,10 @@
         <v>595.36</v>
       </c>
       <c r="D22" t="n">
-        <v>574.86</v>
+        <v>584.13</v>
       </c>
       <c r="E22" t="n">
-        <v>540.24</v>
+        <v>549.51</v>
       </c>
       <c r="F22" t="n">
         <v>504.51</v>
@@ -2174,7 +2178,7 @@
         <v>387.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>394.24</v>
+        <v>391.15</v>
       </c>
       <c r="R22" t="n">
         <v>400.09</v>
@@ -2224,7 +2228,7 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>511.78</v>
+        <v>507.65</v>
       </c>
       <c r="F23" t="n">
         <v>483.55</v>
@@ -2276,7 +2280,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>499.52</v>
+        <v>496.72</v>
       </c>
       <c r="F24" t="n">
         <v>470.1</v>
@@ -2312,7 +2316,7 @@
         <v>342.23</v>
       </c>
       <c r="Q24" t="n">
-        <v>349.63</v>
+        <v>350.56</v>
       </c>
       <c r="R24" t="n">
         <v>369.84</v>
@@ -2359,10 +2363,10 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>525.64</v>
+        <v>521.97</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2</v>
+        <v>480.53</v>
       </c>
       <c r="F25" t="n">
         <v>457.06</v>
@@ -2398,7 +2402,7 @@
         <v>338.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>354.16</v>
+        <v>355.38</v>
       </c>
       <c r="R25" t="n">
         <v>368.37</v>
@@ -2445,10 +2449,10 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>526.77</v>
+        <v>527.7</v>
       </c>
       <c r="E26" t="n">
-        <v>492.28</v>
+        <v>493.21</v>
       </c>
       <c r="F26" t="n">
         <v>472.75</v>
@@ -2482,7 +2486,7 @@
         <v>350.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>370.29</v>
+        <v>369.98</v>
       </c>
       <c r="R26" t="n">
         <v>355.39</v>
@@ -2527,11 +2531,9 @@
         <v>549.74</v>
       </c>
       <c r="D27" t="n">
-        <v>534.15</v>
-      </c>
-      <c r="E27" t="n">
-        <v>523.51</v>
-      </c>
+        <v>545.6799999999999</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>496.59</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>353.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.47</v>
+        <v>358.63</v>
       </c>
       <c r="R27" t="n">
         <v>387.09</v>
@@ -2617,10 +2619,10 @@
         <v>536.05</v>
       </c>
       <c r="D28" t="n">
-        <v>514.3099999999999</v>
+        <v>515.4400000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>476.39</v>
+        <v>477.52</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
@@ -2650,7 +2652,7 @@
         <v>383.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>380.2</v>
+        <v>379.82</v>
       </c>
       <c r="R28" t="n">
         <v>387.12</v>
@@ -2691,10 +2693,10 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>455.92</v>
+        <v>462.45</v>
       </c>
       <c r="E29" t="n">
-        <v>421.94</v>
+        <v>428.47</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
@@ -2775,10 +2777,10 @@
         <v>462.43</v>
       </c>
       <c r="D30" t="n">
-        <v>414.96</v>
+        <v>415.96</v>
       </c>
       <c r="E30" t="n">
-        <v>382.16</v>
+        <v>383.16</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2806,7 +2808,7 @@
         <v>390.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>399.81</v>
+        <v>399.48</v>
       </c>
       <c r="R30" t="n">
         <v>385.01</v>
@@ -2855,10 +2857,10 @@
         <v>476.6</v>
       </c>
       <c r="D31" t="n">
-        <v>421.06</v>
+        <v>430.33</v>
       </c>
       <c r="E31" t="n">
-        <v>410.15</v>
+        <v>419.42</v>
       </c>
       <c r="F31" t="n">
         <v>419.35</v>
@@ -2894,7 +2896,7 @@
         <v>402.15</v>
       </c>
       <c r="Q31" t="n">
-        <v>403.26</v>
+        <v>400.17</v>
       </c>
       <c r="R31" t="n">
         <v>397.22</v>
@@ -2945,10 +2947,10 @@
         <v>437.07</v>
       </c>
       <c r="D32" t="n">
-        <v>406.32</v>
+        <v>417.45</v>
       </c>
       <c r="E32" t="n">
-        <v>403.71</v>
+        <v>414.84</v>
       </c>
       <c r="F32" t="n">
         <v>425.34</v>
@@ -2984,7 +2986,7 @@
         <v>362.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>372.38</v>
+        <v>368.67</v>
       </c>
       <c r="R32" t="n">
         <v>385.78</v>
@@ -3058,7 +3060,7 @@
         <v>391.41</v>
       </c>
       <c r="Q33" t="n">
-        <v>399.33</v>
+        <v>400.91</v>
       </c>
       <c r="R33" t="n">
         <v>395.95</v>
@@ -3106,7 +3108,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>397.45</v>
+        <v>402.45</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
@@ -3190,7 +3192,7 @@
         <v>373.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>383.13</v>
+        <v>380.4</v>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
@@ -3235,10 +3237,10 @@
         <v>428.04</v>
       </c>
       <c r="D36" t="n">
-        <v>449.2</v>
+        <v>448</v>
       </c>
       <c r="E36" t="n">
-        <v>453.12</v>
+        <v>451.92</v>
       </c>
       <c r="F36" t="n">
         <v>433.52</v>
@@ -3274,7 +3276,7 @@
         <v>417.01</v>
       </c>
       <c r="Q36" t="n">
-        <v>436.38</v>
+        <v>436.78</v>
       </c>
       <c r="R36" t="n">
         <v>429.72</v>
@@ -3325,10 +3327,10 @@
         <v>434.65</v>
       </c>
       <c r="D37" t="n">
-        <v>431.05</v>
+        <v>434.32</v>
       </c>
       <c r="E37" t="n">
-        <v>422.72</v>
+        <v>425.99</v>
       </c>
       <c r="F37" t="n">
         <v>413.04</v>
@@ -3364,7 +3366,7 @@
         <v>400.16</v>
       </c>
       <c r="Q37" t="n">
-        <v>400.31</v>
+        <v>399.22</v>
       </c>
       <c r="R37" t="n">
         <v>403.81</v>
@@ -3415,10 +3417,10 @@
         <v>446.15</v>
       </c>
       <c r="D38" t="n">
-        <v>421.04</v>
+        <v>430.24</v>
       </c>
       <c r="E38" t="n">
-        <v>413.09</v>
+        <v>422.29</v>
       </c>
       <c r="F38" t="n">
         <v>405.49</v>
@@ -3454,7 +3456,7 @@
         <v>385.97</v>
       </c>
       <c r="Q38" t="n">
-        <v>387.87</v>
+        <v>384.8</v>
       </c>
       <c r="R38" t="n">
         <v>391.75</v>
@@ -3503,11 +3505,9 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>371.44</v>
-      </c>
-      <c r="E39" t="n">
-        <v>356.4</v>
-      </c>
+        <v>366.57</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -3530,7 +3530,7 @@
         <v>395.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>388.7</v>
+        <v>390.32</v>
       </c>
       <c r="R39" t="n">
         <v>391.2</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>377.63</v>
+        <v>373.03</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
@@ -3608,7 +3608,7 @@
         <v>405.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>394.96</v>
+        <v>396.49</v>
       </c>
       <c r="R40" t="n">
         <v>403.43</v>
@@ -3659,10 +3659,10 @@
         <v>426.44</v>
       </c>
       <c r="D41" t="n">
-        <v>396.06</v>
+        <v>407.33</v>
       </c>
       <c r="E41" t="n">
-        <v>388.39</v>
+        <v>399.66</v>
       </c>
       <c r="F41" t="n">
         <v>396.63</v>
@@ -3694,7 +3694,7 @@
         <v>383.79</v>
       </c>
       <c r="Q41" t="n">
-        <v>385.79</v>
+        <v>382.03</v>
       </c>
       <c r="R41" t="n">
         <v>390.55</v>
@@ -3741,10 +3741,10 @@
         <v>406.85</v>
       </c>
       <c r="D42" t="n">
-        <v>383.14</v>
+        <v>392.14</v>
       </c>
       <c r="E42" t="n">
-        <v>387.38</v>
+        <v>396.38</v>
       </c>
       <c r="F42" t="n">
         <v>394.86</v>
@@ -3774,7 +3774,7 @@
         <v>404.72</v>
       </c>
       <c r="Q42" t="n">
-        <v>408.9</v>
+        <v>405.9</v>
       </c>
       <c r="R42" t="n">
         <v>408.11</v>
@@ -3819,10 +3819,10 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>370.18</v>
+        <v>365.58</v>
       </c>
       <c r="E43" t="n">
-        <v>354.94</v>
+        <v>350.34</v>
       </c>
       <c r="F43" t="n">
         <v>358.9</v>
@@ -3858,7 +3858,7 @@
         <v>416.38</v>
       </c>
       <c r="Q43" t="n">
-        <v>399.59</v>
+        <v>401.12</v>
       </c>
       <c r="R43" t="n">
         <v>390.39</v>
@@ -3909,10 +3909,10 @@
         <v>387.74</v>
       </c>
       <c r="D44" t="n">
-        <v>369.08</v>
+        <v>375.48</v>
       </c>
       <c r="E44" t="n">
-        <v>361.8</v>
+        <v>368.2</v>
       </c>
       <c r="F44" t="n">
         <v>365.69</v>
@@ -3944,7 +3944,7 @@
         <v>408.88</v>
       </c>
       <c r="Q44" t="n">
-        <v>404.04</v>
+        <v>401.91</v>
       </c>
       <c r="R44" t="n">
         <v>407.35</v>
@@ -3993,10 +3993,10 @@
         <v>374.24</v>
       </c>
       <c r="D45" t="n">
-        <v>361.09</v>
+        <v>365.09</v>
       </c>
       <c r="E45" t="n">
-        <v>351.93</v>
+        <v>355.93</v>
       </c>
       <c r="F45" t="n">
         <v>359.85</v>
@@ -4032,7 +4032,7 @@
         <v>412.02</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.51</v>
+        <v>409.18</v>
       </c>
       <c r="R45" t="n">
         <v>398.82</v>
@@ -4081,10 +4081,10 @@
         <v>355.49</v>
       </c>
       <c r="D46" t="n">
-        <v>347.72</v>
+        <v>347.99</v>
       </c>
       <c r="E46" t="n">
-        <v>342.12</v>
+        <v>342.39</v>
       </c>
       <c r="F46" t="n">
         <v>350.32</v>
@@ -4112,7 +4112,7 @@
         <v>412.65</v>
       </c>
       <c r="Q46" t="n">
-        <v>405.63</v>
+        <v>405.54</v>
       </c>
       <c r="R46" t="n">
         <v>399.29</v>
@@ -4159,10 +4159,10 @@
         <v>347.99</v>
       </c>
       <c r="D47" t="n">
-        <v>360.98</v>
+        <v>366.98</v>
       </c>
       <c r="E47" t="n">
-        <v>394.45</v>
+        <v>400.45</v>
       </c>
       <c r="F47" t="n">
         <v>423.47</v>
@@ -4213,10 +4213,10 @@
         <v>381.33</v>
       </c>
       <c r="D48" t="n">
-        <v>387.43</v>
+        <v>398.1</v>
       </c>
       <c r="E48" t="n">
-        <v>417.89</v>
+        <v>428.56</v>
       </c>
       <c r="F48" t="n">
         <v>451.26</v>
@@ -4295,10 +4295,10 @@
         <v>428.78</v>
       </c>
       <c r="D49" t="n">
-        <v>461.76</v>
+        <v>456.69</v>
       </c>
       <c r="E49" t="n">
-        <v>484.01</v>
+        <v>478.94</v>
       </c>
       <c r="F49" t="n">
         <v>490.66</v>
@@ -4377,10 +4377,10 @@
         <v>432.96</v>
       </c>
       <c r="D50" t="n">
-        <v>465.37</v>
+        <v>464.37</v>
       </c>
       <c r="E50" t="n">
-        <v>476.51</v>
+        <v>475.51</v>
       </c>
       <c r="F50" t="n">
         <v>475.13</v>
@@ -4463,10 +4463,10 @@
         <v>425.74</v>
       </c>
       <c r="D51" t="n">
-        <v>439.85</v>
+        <v>444.85</v>
       </c>
       <c r="E51" t="n">
-        <v>449.88</v>
+        <v>454.88</v>
       </c>
       <c r="F51" t="n">
         <v>458.4</v>
@@ -4502,7 +4502,7 @@
         <v>396.58</v>
       </c>
       <c r="Q51" t="n">
-        <v>387.54</v>
+        <v>385.87</v>
       </c>
       <c r="R51" t="n">
         <v>380.59</v>
@@ -4549,10 +4549,10 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>459.38</v>
+        <v>460.71</v>
       </c>
       <c r="E52" t="n">
-        <v>462.31</v>
+        <v>463.64</v>
       </c>
       <c r="F52" t="n">
         <v>456.1</v>
@@ -4633,10 +4633,10 @@
         <v>450.81</v>
       </c>
       <c r="D53" t="n">
-        <v>457.37</v>
+        <v>459.7</v>
       </c>
       <c r="E53" t="n">
-        <v>458.81</v>
+        <v>461.14</v>
       </c>
       <c r="F53" t="n">
         <v>447.68</v>
@@ -4668,7 +4668,7 @@
         <v>400.81</v>
       </c>
       <c r="Q53" t="n">
-        <v>406.8</v>
+        <v>406.02</v>
       </c>
       <c r="R53" t="n">
         <v>409.09</v>
@@ -4713,7 +4713,7 @@
         <v>434.41</v>
       </c>
       <c r="D54" t="n">
-        <v>441.53</v>
+        <v>438</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
@@ -4748,7 +4748,7 @@
         <v>406.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>412.95</v>
+        <v>414.13</v>
       </c>
       <c r="R54" t="n">
         <v>441.28</v>
@@ -4795,7 +4795,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>448.83</v>
+        <v>446.9</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -4830,7 +4830,7 @@
         <v>410.15</v>
       </c>
       <c r="Q55" t="n">
-        <v>417.24</v>
+        <v>417.88</v>
       </c>
       <c r="R55" t="n">
         <v>424.13</v>
@@ -4879,10 +4879,10 @@
         <v>472.78</v>
       </c>
       <c r="D56" t="n">
-        <v>470.34</v>
+        <v>482.14</v>
       </c>
       <c r="E56" t="n">
-        <v>466.64</v>
+        <v>478.44</v>
       </c>
       <c r="F56" t="n">
         <v>452.36</v>
@@ -4914,7 +4914,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="n">
-        <v>414.48</v>
+        <v>410.55</v>
       </c>
       <c r="R56" t="n">
         <v>417.62</v>
@@ -4965,7 +4965,7 @@
         <v>463.2</v>
       </c>
       <c r="D57" t="n">
-        <v>454.7</v>
+        <v>462.7</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -4996,7 +4996,7 @@
         <v>397.28</v>
       </c>
       <c r="Q57" t="n">
-        <v>407.15</v>
+        <v>404.48</v>
       </c>
       <c r="R57" t="n">
         <v>416.77</v>
@@ -5041,10 +5041,10 @@
         <v>467.43</v>
       </c>
       <c r="D58" t="n">
-        <v>425.45</v>
+        <v>422.38</v>
       </c>
       <c r="E58" t="n">
-        <v>406.12</v>
+        <v>403.05</v>
       </c>
       <c r="F58" t="n">
         <v>396.11</v>
@@ -5074,7 +5074,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="n">
-        <v>420.71</v>
+        <v>421.73</v>
       </c>
       <c r="R58" t="n">
         <v>432.61</v>
@@ -5147,10 +5147,10 @@
         <v>384.92</v>
       </c>
       <c r="D60" t="n">
-        <v>369.31</v>
+        <v>373.98</v>
       </c>
       <c r="E60" t="n">
-        <v>374.08</v>
+        <v>378.75</v>
       </c>
       <c r="F60" t="n">
         <v>373.35</v>
@@ -5180,7 +5180,7 @@
         <v>400.06</v>
       </c>
       <c r="Q60" t="n">
-        <v>414.48</v>
+        <v>412.92</v>
       </c>
       <c r="R60" t="n">
         <v>421.76</v>
@@ -5227,10 +5227,10 @@
         <v>391.15</v>
       </c>
       <c r="D61" t="n">
-        <v>376.25</v>
+        <v>377.58</v>
       </c>
       <c r="E61" t="n">
-        <v>369.81</v>
+        <v>371.14</v>
       </c>
       <c r="F61" t="n">
         <v>364.7</v>
@@ -5299,10 +5299,10 @@
         <v>372.97</v>
       </c>
       <c r="D62" t="n">
-        <v>356.12</v>
+        <v>349.52</v>
       </c>
       <c r="E62" t="n">
-        <v>330.69</v>
+        <v>324.09</v>
       </c>
       <c r="F62" t="n">
         <v>314.18</v>
@@ -5326,7 +5326,7 @@
         <v>410.11</v>
       </c>
       <c r="Q62" t="n">
-        <v>404.11</v>
+        <v>406.31</v>
       </c>
       <c r="R62" t="n">
         <v>416.79</v>
@@ -5436,7 +5436,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>337.06</v>
+        <v>340.19</v>
       </c>
       <c r="F64" t="n">
         <v>329.62</v>
@@ -5470,7 +5470,7 @@
         <v>425.57</v>
       </c>
       <c r="Q64" t="n">
-        <v>423.25</v>
+        <v>422.21</v>
       </c>
       <c r="R64" t="n">
         <v>428.43</v>
@@ -5505,10 +5505,10 @@
         <v>414.4</v>
       </c>
       <c r="D65" t="n">
-        <v>364.41</v>
+        <v>372.88</v>
       </c>
       <c r="E65" t="n">
-        <v>347.49</v>
+        <v>355.96</v>
       </c>
       <c r="F65" t="n">
         <v>330.07</v>
@@ -5538,7 +5538,7 @@
         <v>418.83</v>
       </c>
       <c r="Q65" t="n">
-        <v>422.79</v>
+        <v>419.97</v>
       </c>
       <c r="R65" t="n">
         <v>426.84</v>
@@ -5585,10 +5585,10 @@
         <v>416.96</v>
       </c>
       <c r="D66" t="n">
-        <v>363.04</v>
+        <v>371.04</v>
       </c>
       <c r="E66" t="n">
-        <v>352.99</v>
+        <v>360.99</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -5614,7 +5614,7 @@
         <v>428.29</v>
       </c>
       <c r="Q66" t="n">
-        <v>433.97</v>
+        <v>431.3</v>
       </c>
       <c r="R66" t="n">
         <v>434.41</v>
@@ -5659,10 +5659,10 @@
         <v>386.8</v>
       </c>
       <c r="D67" t="n">
-        <v>360.58</v>
+        <v>357.05</v>
       </c>
       <c r="E67" t="n">
-        <v>339.26</v>
+        <v>335.73</v>
       </c>
       <c r="F67" t="n">
         <v>323.18</v>
@@ -5686,7 +5686,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="n">
-        <v>420.9</v>
+        <v>422.08</v>
       </c>
       <c r="R67" t="n">
         <v>429</v>
@@ -5735,10 +5735,10 @@
         <v>422.95</v>
       </c>
       <c r="D68" t="n">
-        <v>385.75</v>
+        <v>396.55</v>
       </c>
       <c r="E68" t="n">
-        <v>372.5</v>
+        <v>383.3</v>
       </c>
       <c r="F68" t="n">
         <v>369.57</v>
@@ -5766,7 +5766,7 @@
         <v>406.19</v>
       </c>
       <c r="Q68" t="n">
-        <v>406.97</v>
+        <v>403.37</v>
       </c>
       <c r="R68" t="n">
         <v>414.91</v>
@@ -5806,7 +5806,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>371.77</v>
+        <v>380.04</v>
       </c>
       <c r="F69" t="n">
         <v>373.72</v>
@@ -5925,10 +5925,10 @@
         <v>439.21</v>
       </c>
       <c r="D71" t="n">
-        <v>464.38</v>
+        <v>465.11</v>
       </c>
       <c r="E71" t="n">
-        <v>485.2</v>
+        <v>485.93</v>
       </c>
       <c r="F71" t="n">
         <v>488.91</v>
@@ -5960,7 +5960,7 @@
         <v>383.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>385.4</v>
+        <v>385.16</v>
       </c>
       <c r="R71" t="n">
         <v>389.87</v>
@@ -6007,10 +6007,10 @@
         <v>458.41</v>
       </c>
       <c r="D72" t="n">
-        <v>465.41</v>
+        <v>469.74</v>
       </c>
       <c r="E72" t="n">
-        <v>477.35</v>
+        <v>481.68</v>
       </c>
       <c r="F72" t="n">
         <v>477.12</v>
@@ -6042,7 +6042,7 @@
         <v>408.77</v>
       </c>
       <c r="Q72" t="n">
-        <v>412.23</v>
+        <v>410.79</v>
       </c>
       <c r="R72" t="n">
         <v>414.96</v>
@@ -6209,10 +6209,10 @@
         <v>524.62</v>
       </c>
       <c r="D75" t="n">
-        <v>520.74</v>
+        <v>516.41</v>
       </c>
       <c r="E75" t="n">
-        <v>508.75</v>
+        <v>504.42</v>
       </c>
       <c r="F75" t="n">
         <v>492.97</v>
@@ -6248,7 +6248,7 @@
         <v>415.59</v>
       </c>
       <c r="Q75" t="n">
-        <v>417.51</v>
+        <v>418.95</v>
       </c>
       <c r="R75" t="n">
         <v>413.14</v>
@@ -6299,10 +6299,10 @@
         <v>517.05</v>
       </c>
       <c r="D76" t="n">
-        <v>514.7</v>
+        <v>514.77</v>
       </c>
       <c r="E76" t="n">
-        <v>506.26</v>
+        <v>506.33</v>
       </c>
       <c r="F76" t="n">
         <v>503.89</v>
@@ -6338,7 +6338,7 @@
         <v>399.69</v>
       </c>
       <c r="Q76" t="n">
-        <v>404.33</v>
+        <v>404.31</v>
       </c>
       <c r="R76" t="n">
         <v>401.63</v>
@@ -6389,10 +6389,10 @@
         <v>570.42</v>
       </c>
       <c r="D77" t="n">
-        <v>554.5</v>
+        <v>551.5</v>
       </c>
       <c r="E77" t="n">
-        <v>524.91</v>
+        <v>521.91</v>
       </c>
       <c r="F77" t="n">
         <v>506.24</v>
@@ -6422,7 +6422,7 @@
         <v>429.79</v>
       </c>
       <c r="Q77" t="n">
-        <v>428.62</v>
+        <v>429.62</v>
       </c>
       <c r="R77" t="n">
         <v>412.93</v>
@@ -6464,7 +6464,9 @@
         <v>558.62</v>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>475.41</v>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
@@ -6498,7 +6500,7 @@
         <v>402.8</v>
       </c>
       <c r="Q78" t="n">
-        <v>405.14</v>
+        <v>401.52</v>
       </c>
       <c r="R78" t="n">
         <v>408.96</v>
@@ -6549,7 +6551,7 @@
         <v>531.89</v>
       </c>
       <c r="D79" t="n">
-        <v>509.85</v>
+        <v>504.98</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -6568,7 +6570,7 @@
         <v>425.94</v>
       </c>
       <c r="Q79" t="n">
-        <v>422.65</v>
+        <v>424.27</v>
       </c>
       <c r="R79" t="n">
         <v>421.87</v>
@@ -6622,7 +6624,7 @@
         <v>423.76</v>
       </c>
       <c r="Q80" t="n">
-        <v>411.64</v>
+        <v>411.68</v>
       </c>
       <c r="R80" t="n">
         <v>413.91</v>
@@ -6667,7 +6669,7 @@
         <v>532.26</v>
       </c>
       <c r="D81" t="n">
-        <v>484.02</v>
+        <v>488.62</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -6698,7 +6700,7 @@
         <v>426.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>424.6</v>
+        <v>423.07</v>
       </c>
       <c r="R81" t="n">
         <v>419.75</v>
@@ -6743,7 +6745,7 @@
         <v>502.84</v>
       </c>
       <c r="D82" t="n">
-        <v>481.5</v>
+        <v>490.1</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
@@ -6774,7 +6776,7 @@
         <v>383.46</v>
       </c>
       <c r="Q82" t="n">
-        <v>386.67</v>
+        <v>383.8</v>
       </c>
       <c r="R82" t="n">
         <v>386.3</v>
@@ -6950,7 +6952,7 @@
         <v>382.27</v>
       </c>
       <c r="Q85" t="n">
-        <v>370.95</v>
+        <v>372.86</v>
       </c>
       <c r="R85" t="n">
         <v>375.05</v>
@@ -6998,7 +7000,7 @@
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>556.41</v>
+        <v>556.34</v>
       </c>
       <c r="F86" t="n">
         <v>552.0700000000001</v>
@@ -7030,7 +7032,7 @@
         <v>394.35</v>
       </c>
       <c r="Q86" t="n">
-        <v>394.83</v>
+        <v>394.85</v>
       </c>
       <c r="R86" t="n">
         <v>396.03</v>
@@ -7078,7 +7080,7 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>570.92</v>
+        <v>569.05</v>
       </c>
       <c r="F87" t="n">
         <v>561.73</v>
@@ -7114,7 +7116,7 @@
         <v>393.26</v>
       </c>
       <c r="Q87" t="n">
-        <v>393.56</v>
+        <v>394.18</v>
       </c>
       <c r="R87" t="n">
         <v>392.67</v>
@@ -7237,10 +7239,10 @@
         <v>531.16</v>
       </c>
       <c r="D89" t="n">
-        <v>528.09</v>
+        <v>536.62</v>
       </c>
       <c r="E89" t="n">
-        <v>535.84</v>
+        <v>544.37</v>
       </c>
       <c r="F89" t="n">
         <v>538.3200000000001</v>
@@ -7272,7 +7274,7 @@
         <v>370.95</v>
       </c>
       <c r="Q89" t="n">
-        <v>376.44</v>
+        <v>373.6</v>
       </c>
       <c r="R89" t="n">
         <v>388.07</v>
@@ -7315,10 +7317,10 @@
         <v>544.6799999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>564.39</v>
+        <v>566.0599999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>566.8200000000001</v>
+        <v>568.49</v>
       </c>
       <c r="F90" t="n">
         <v>559.45</v>
@@ -7354,7 +7356,7 @@
         <v>387.12</v>
       </c>
       <c r="Q90" t="n">
-        <v>387.67</v>
+        <v>387.11</v>
       </c>
       <c r="R90" t="n">
         <v>387.1</v>
@@ -7404,7 +7406,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>591.15</v>
+        <v>602.08</v>
       </c>
       <c r="F91" t="n">
         <v>582.65</v>
@@ -7438,7 +7440,7 @@
         <v>400.46</v>
       </c>
       <c r="Q91" t="n">
-        <v>403.03</v>
+        <v>399.39</v>
       </c>
       <c r="R91" t="n">
         <v>408.23</v>
@@ -7489,11 +7491,9 @@
         <v>568.38</v>
       </c>
       <c r="D92" t="n">
-        <v>555.6</v>
-      </c>
-      <c r="E92" t="n">
-        <v>551.59</v>
-      </c>
+        <v>565.27</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
         <v>551.9</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>382.44</v>
       </c>
       <c r="Q92" t="n">
-        <v>392.14</v>
+        <v>388.92</v>
       </c>
       <c r="R92" t="n">
         <v>390.79</v>
@@ -7579,7 +7579,7 @@
         <v>504.85</v>
       </c>
       <c r="D93" t="n">
-        <v>490.57</v>
+        <v>487.3</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
@@ -7610,7 +7610,7 @@
         <v>370.41</v>
       </c>
       <c r="Q93" t="n">
-        <v>378.78</v>
+        <v>379.87</v>
       </c>
       <c r="R93" t="n">
         <v>369.25</v>
@@ -7657,7 +7657,7 @@
         <v>491.65</v>
       </c>
       <c r="D94" t="n">
-        <v>463.52</v>
+        <v>471.99</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -7686,7 +7686,7 @@
         <v>352.11</v>
       </c>
       <c r="Q94" t="n">
-        <v>346.41</v>
+        <v>343.59</v>
       </c>
       <c r="R94" t="n">
         <v>365.51</v>
@@ -7733,7 +7733,7 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>493.27</v>
+        <v>500.67</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
@@ -7758,7 +7758,7 @@
         <v>383.03</v>
       </c>
       <c r="Q95" t="n">
-        <v>383.67</v>
+        <v>381.2</v>
       </c>
       <c r="R95" t="n">
         <v>393.63</v>
@@ -7805,7 +7805,7 @@
         <v>482.36</v>
       </c>
       <c r="D96" t="n">
-        <v>454.46</v>
+        <v>449.06</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
@@ -7834,7 +7834,7 @@
         <v>403.7</v>
       </c>
       <c r="Q96" t="n">
-        <v>384.25</v>
+        <v>386.05</v>
       </c>
       <c r="R96" t="n">
         <v>388.68</v>
@@ -7877,7 +7877,7 @@
         <v>468.75</v>
       </c>
       <c r="D97" t="n">
-        <v>446.36</v>
+        <v>446.29</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
@@ -7908,7 +7908,7 @@
         <v>384.37</v>
       </c>
       <c r="Q97" t="n">
-        <v>401.44</v>
+        <v>401.46</v>
       </c>
       <c r="R97" t="n">
         <v>417.19</v>
@@ -7974,7 +7974,7 @@
         <v>394.62</v>
       </c>
       <c r="Q98" t="n">
-        <v>403.01</v>
+        <v>403.21</v>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
@@ -8019,7 +8019,7 @@
         <v>429.34</v>
       </c>
       <c r="D99" t="n">
-        <v>423.87</v>
+        <v>431.67</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
@@ -8052,7 +8052,7 @@
         <v>370.1</v>
       </c>
       <c r="Q99" t="n">
-        <v>379.21</v>
+        <v>376.61</v>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
@@ -8104,7 +8104,7 @@
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="n">
-        <v>390.01</v>
+        <v>390.57</v>
       </c>
       <c r="R100" t="n">
         <v>409.63</v>
@@ -8150,7 +8150,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>552.63</v>
+        <v>545.96</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -8213,10 +8213,10 @@
         <v>515.33</v>
       </c>
       <c r="D102" t="n">
-        <v>501.75</v>
+        <v>496.95</v>
       </c>
       <c r="E102" t="n">
-        <v>487.21</v>
+        <v>482.41</v>
       </c>
       <c r="F102" t="n">
         <v>469.87</v>
@@ -8246,7 +8246,7 @@
         <v>373.58</v>
       </c>
       <c r="Q102" t="n">
-        <v>389.95</v>
+        <v>391.55</v>
       </c>
       <c r="R102" t="n">
         <v>413.37</v>
@@ -8293,10 +8293,10 @@
         <v>483.7</v>
       </c>
       <c r="D103" t="n">
-        <v>475.29</v>
+        <v>474.76</v>
       </c>
       <c r="E103" t="n">
-        <v>458.27</v>
+        <v>457.74</v>
       </c>
       <c r="F103" t="n">
         <v>445.32</v>
@@ -8326,7 +8326,7 @@
         <v>376.07</v>
       </c>
       <c r="Q103" t="n">
-        <v>390.85</v>
+        <v>391.03</v>
       </c>
       <c r="R103" t="n">
         <v>397.48</v>
@@ -8367,10 +8367,10 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>490.55</v>
+        <v>496.35</v>
       </c>
       <c r="E104" t="n">
-        <v>477.08</v>
+        <v>482.88</v>
       </c>
       <c r="F104" t="n">
         <v>457.42</v>
@@ -8453,10 +8453,10 @@
         <v>498.49</v>
       </c>
       <c r="D105" t="n">
-        <v>479.64</v>
+        <v>489.57</v>
       </c>
       <c r="E105" t="n">
-        <v>471.02</v>
+        <v>480.95</v>
       </c>
       <c r="F105" t="n">
         <v>454.69</v>
@@ -8488,7 +8488,7 @@
         <v>388.59</v>
       </c>
       <c r="Q105" t="n">
-        <v>403.06</v>
+        <v>399.75</v>
       </c>
       <c r="R105" t="n">
         <v>406.82</v>
@@ -8560,7 +8560,7 @@
         <v>410.29</v>
       </c>
       <c r="Q106" t="n">
-        <v>424.02</v>
+        <v>421.2</v>
       </c>
       <c r="R106" t="n">
         <v>430.32</v>
@@ -8603,10 +8603,10 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>515.13</v>
+        <v>522.26</v>
       </c>
       <c r="E107" t="n">
-        <v>473.69</v>
+        <v>480.82</v>
       </c>
       <c r="F107" t="n">
         <v>456.95</v>
@@ -8636,7 +8636,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
-        <v>425.4</v>
+        <v>423.02</v>
       </c>
       <c r="R107" t="n">
         <v>422.29</v>
@@ -8700,7 +8700,7 @@
         <v>400.95</v>
       </c>
       <c r="Q108" t="n">
-        <v>406.88</v>
+        <v>406.55</v>
       </c>
       <c r="R108" t="n">
         <v>408.41</v>
@@ -8768,7 +8768,7 @@
         <v>372.73</v>
       </c>
       <c r="Q109" t="n">
-        <v>384.65</v>
+        <v>381.43</v>
       </c>
       <c r="R109" t="n">
         <v>398.43</v>
@@ -8882,7 +8882,7 @@
         <v>376.67</v>
       </c>
       <c r="Q111" t="n">
-        <v>391.77</v>
+        <v>388.79</v>
       </c>
       <c r="R111" t="n">
         <v>390.41</v>
@@ -8925,10 +8925,10 @@
         <v>400.9</v>
       </c>
       <c r="D112" t="n">
-        <v>401.28</v>
+        <v>404.21</v>
       </c>
       <c r="E112" t="n">
-        <v>393.06</v>
+        <v>395.99</v>
       </c>
       <c r="F112" t="n">
         <v>385.6</v>
@@ -8964,7 +8964,7 @@
         <v>417.18</v>
       </c>
       <c r="Q112" t="n">
-        <v>419.07</v>
+        <v>418.09</v>
       </c>
       <c r="R112" t="n">
         <v>423.76</v>
@@ -9015,10 +9015,10 @@
         <v>410.46</v>
       </c>
       <c r="D113" t="n">
-        <v>399.08</v>
+        <v>408.41</v>
       </c>
       <c r="E113" t="n">
-        <v>418.2</v>
+        <v>427.53</v>
       </c>
       <c r="F113" t="n">
         <v>412.91</v>
@@ -9054,7 +9054,7 @@
         <v>383.16</v>
       </c>
       <c r="Q113" t="n">
-        <v>394.34</v>
+        <v>391.23</v>
       </c>
       <c r="R113" t="n">
         <v>403.63</v>
@@ -9103,10 +9103,10 @@
         <v>381.35</v>
       </c>
       <c r="D114" t="n">
-        <v>403.2</v>
+        <v>402.53</v>
       </c>
       <c r="E114" t="n">
-        <v>416.17</v>
+        <v>415.5</v>
       </c>
       <c r="F114" t="n">
         <v>427.04</v>
@@ -9189,10 +9189,10 @@
         <v>387</v>
       </c>
       <c r="D115" t="n">
-        <v>412.24</v>
+        <v>415.64</v>
       </c>
       <c r="E115" t="n">
-        <v>425.98</v>
+        <v>429.38</v>
       </c>
       <c r="F115" t="n">
         <v>430.78</v>
@@ -9228,7 +9228,7 @@
         <v>401.58</v>
       </c>
       <c r="Q115" t="n">
-        <v>413.51</v>
+        <v>412.38</v>
       </c>
       <c r="R115" t="n">
         <v>409.02</v>
@@ -9279,10 +9279,10 @@
         <v>389.94</v>
       </c>
       <c r="D116" t="n">
-        <v>397.29</v>
+        <v>395.76</v>
       </c>
       <c r="E116" t="n">
-        <v>391.74</v>
+        <v>390.21</v>
       </c>
       <c r="F116" t="n">
         <v>413.01</v>
@@ -9318,7 +9318,7 @@
         <v>374.61</v>
       </c>
       <c r="Q116" t="n">
-        <v>387.43</v>
+        <v>387.94</v>
       </c>
       <c r="R116" t="n">
         <v>378.42</v>
@@ -9400,7 +9400,7 @@
         <v>390.66</v>
       </c>
       <c r="Q117" t="n">
-        <v>391.43</v>
+        <v>389.25</v>
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
@@ -9462,7 +9462,7 @@
         <v>386.39</v>
       </c>
       <c r="Q118" t="n">
-        <v>392.98</v>
+        <v>394.85</v>
       </c>
       <c r="R118" t="n">
         <v>401.29</v>
@@ -9511,10 +9511,10 @@
         <v>412.61</v>
       </c>
       <c r="D119" t="n">
-        <v>409.92</v>
+        <v>419.79</v>
       </c>
       <c r="E119" t="n">
-        <v>413.93</v>
+        <v>423.8</v>
       </c>
       <c r="F119" t="n">
         <v>421</v>
@@ -9546,7 +9546,7 @@
         <v>392.6</v>
       </c>
       <c r="Q119" t="n">
-        <v>401.98</v>
+        <v>398.69</v>
       </c>
       <c r="R119" t="n">
         <v>408.81</v>
@@ -9593,10 +9593,10 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>385.07</v>
+        <v>383.54</v>
       </c>
       <c r="E120" t="n">
-        <v>431.93</v>
+        <v>430.4</v>
       </c>
       <c r="F120" t="n">
         <v>449.52</v>
@@ -9632,7 +9632,7 @@
         <v>378.04</v>
       </c>
       <c r="Q120" t="n">
-        <v>391.77</v>
+        <v>392.28</v>
       </c>
       <c r="R120" t="n">
         <v>407.52</v>
@@ -9681,10 +9681,10 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>390.53</v>
+        <v>389.53</v>
       </c>
       <c r="E121" t="n">
-        <v>440.97</v>
+        <v>439.97</v>
       </c>
       <c r="F121" t="n">
         <v>449.23</v>
@@ -9720,7 +9720,7 @@
         <v>381.68</v>
       </c>
       <c r="Q121" t="n">
-        <v>386.74</v>
+        <v>387.07</v>
       </c>
       <c r="R121" t="n">
         <v>395.65</v>
@@ -9847,10 +9847,10 @@
         <v>432.55</v>
       </c>
       <c r="D123" t="n">
-        <v>434.84</v>
+        <v>434.64</v>
       </c>
       <c r="E123" t="n">
-        <v>434.1</v>
+        <v>433.9</v>
       </c>
       <c r="F123" t="n">
         <v>435.35</v>
@@ -9933,10 +9933,10 @@
         <v>422.26</v>
       </c>
       <c r="D124" t="n">
-        <v>437.43</v>
+        <v>446.9</v>
       </c>
       <c r="E124" t="n">
-        <v>442.1</v>
+        <v>451.57</v>
       </c>
       <c r="F124" t="n">
         <v>451.54</v>
@@ -9972,7 +9972,7 @@
         <v>401.49</v>
       </c>
       <c r="Q124" t="n">
-        <v>407.82</v>
+        <v>404.66</v>
       </c>
       <c r="R124" t="n">
         <v>410.54</v>
@@ -10044,7 +10044,7 @@
         <v>388.12</v>
       </c>
       <c r="Q125" t="n">
-        <v>388.92</v>
+        <v>391.1</v>
       </c>
       <c r="R125" t="n">
         <v>412.52</v>
@@ -10215,10 +10215,10 @@
         <v>460.92</v>
       </c>
       <c r="D128" t="n">
-        <v>475.27</v>
+        <v>483.87</v>
       </c>
       <c r="E128" t="n">
-        <v>496.09</v>
+        <v>504.69</v>
       </c>
       <c r="F128" t="n">
         <v>507.35</v>
@@ -10277,10 +10277,10 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>536.84</v>
+        <v>529.71</v>
       </c>
       <c r="E129" t="n">
-        <v>537.92</v>
+        <v>530.79</v>
       </c>
       <c r="F129" t="n">
         <v>556.1</v>
@@ -10312,7 +10312,7 @@
         <v>362.2</v>
       </c>
       <c r="Q129" t="n">
-        <v>358.82</v>
+        <v>361.2</v>
       </c>
       <c r="R129" t="n">
         <v>347.85</v>
@@ -10359,10 +10359,10 @@
         <v>485.75</v>
       </c>
       <c r="D130" t="n">
-        <v>514.04</v>
+        <v>523.5700000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>528.23</v>
+        <v>537.76</v>
       </c>
       <c r="F130" t="n">
         <v>545.54</v>
@@ -10398,7 +10398,7 @@
         <v>378.6</v>
       </c>
       <c r="Q130" t="n">
-        <v>379.83</v>
+        <v>376.65</v>
       </c>
       <c r="R130" t="n">
         <v>380.81</v>
@@ -10449,10 +10449,10 @@
         <v>508.26</v>
       </c>
       <c r="D131" t="n">
-        <v>534.08</v>
+        <v>533.08</v>
       </c>
       <c r="E131" t="n">
-        <v>543.03</v>
+        <v>542.03</v>
       </c>
       <c r="F131" t="n">
         <v>542.95</v>
@@ -10484,7 +10484,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="n">
-        <v>370.45</v>
+        <v>370.78</v>
       </c>
       <c r="R131" t="n">
         <v>368.71</v>
@@ -10533,10 +10533,10 @@
         <v>489.97</v>
       </c>
       <c r="D132" t="n">
-        <v>520.88</v>
+        <v>521.6799999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>541.76</v>
+        <v>542.5599999999999</v>
       </c>
       <c r="F132" t="n">
         <v>539.74</v>
@@ -10568,7 +10568,7 @@
         <v>367.51</v>
       </c>
       <c r="Q132" t="n">
-        <v>355.36</v>
+        <v>355.09</v>
       </c>
       <c r="R132" t="n">
         <v>366.71</v>
@@ -10714,7 +10714,7 @@
         <v>365.62</v>
       </c>
       <c r="Q134" t="n">
-        <v>373.65</v>
+        <v>375.27</v>
       </c>
       <c r="R134" t="n">
         <v>355.29</v>
@@ -10765,7 +10765,7 @@
         <v>497.98</v>
       </c>
       <c r="D135" t="n">
-        <v>504.5</v>
+        <v>503.5</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
@@ -10802,7 +10802,7 @@
         <v>377.97</v>
       </c>
       <c r="Q135" t="n">
-        <v>375.63</v>
+        <v>375.96</v>
       </c>
       <c r="R135" t="n">
         <v>365.65</v>
@@ -10936,7 +10936,7 @@
         <v>363.86</v>
       </c>
       <c r="Q137" t="n">
-        <v>364.28</v>
+        <v>365.86</v>
       </c>
       <c r="R137" t="n">
         <v>377.29</v>
@@ -11006,7 +11006,7 @@
         <v>356.66</v>
       </c>
       <c r="Q138" t="n">
-        <v>360.95</v>
+        <v>357.79</v>
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
@@ -11064,7 +11064,7 @@
         <v>358.04</v>
       </c>
       <c r="Q139" t="n">
-        <v>358.48</v>
+        <v>355.79</v>
       </c>
       <c r="R139" t="n">
         <v>368.62</v>
@@ -11218,7 +11218,7 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>561.61</v>
+        <v>559.6799999999999</v>
       </c>
       <c r="F142" t="n">
         <v>510.51</v>
@@ -11252,7 +11252,7 @@
         <v>368.66</v>
       </c>
       <c r="Q142" t="n">
-        <v>372.46</v>
+        <v>373.1</v>
       </c>
       <c r="R142" t="n">
         <v>379</v>
@@ -11302,7 +11302,7 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>554.15</v>
+        <v>562.62</v>
       </c>
       <c r="F143" t="n">
         <v>527</v>
@@ -11338,7 +11338,7 @@
         <v>378.05</v>
       </c>
       <c r="Q143" t="n">
-        <v>387.67</v>
+        <v>384.85</v>
       </c>
       <c r="R143" t="n">
         <v>382.32</v>
@@ -11389,10 +11389,10 @@
         <v>543.2</v>
       </c>
       <c r="D144" t="n">
-        <v>533.7</v>
+        <v>535.63</v>
       </c>
       <c r="E144" t="n">
-        <v>514.48</v>
+        <v>516.41</v>
       </c>
       <c r="F144" t="n">
         <v>495.64</v>
@@ -11428,7 +11428,7 @@
         <v>389.58</v>
       </c>
       <c r="Q144" t="n">
-        <v>387.72</v>
+        <v>387.08</v>
       </c>
       <c r="R144" t="n">
         <v>389.01</v>
@@ -11473,10 +11473,10 @@
         <v>549.02</v>
       </c>
       <c r="D145" t="n">
-        <v>536.24</v>
+        <v>543.97</v>
       </c>
       <c r="E145" t="n">
-        <v>533.6900000000001</v>
+        <v>541.42</v>
       </c>
       <c r="F145" t="n">
         <v>510.29</v>
@@ -11508,7 +11508,7 @@
         <v>379.42</v>
       </c>
       <c r="Q145" t="n">
-        <v>383.63</v>
+        <v>381.05</v>
       </c>
       <c r="R145" t="n">
         <v>389.93</v>
@@ -11549,10 +11549,10 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>547.5599999999999</v>
+        <v>557.16</v>
       </c>
       <c r="E146" t="n">
-        <v>539</v>
+        <v>548.6</v>
       </c>
       <c r="F146" t="n">
         <v>520.74</v>
@@ -11632,7 +11632,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
-        <v>521.9299999999999</v>
+        <v>527.6</v>
       </c>
       <c r="F147" t="n">
         <v>505.65</v>
@@ -11691,7 +11691,7 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>607.13</v>
+        <v>601.53</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
@@ -11722,7 +11722,7 @@
         <v>368.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>365.88</v>
+        <v>367.75</v>
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
@@ -11776,7 +11776,7 @@
         <v>353.84</v>
       </c>
       <c r="Q149" t="n">
-        <v>347.23</v>
+        <v>348.23</v>
       </c>
       <c r="R149" t="n">
         <v>342.01</v>
@@ -11821,10 +11821,10 @@
         <v>593.17</v>
       </c>
       <c r="D150" t="n">
-        <v>597.14</v>
+        <v>598.34</v>
       </c>
       <c r="E150" t="n">
-        <v>594.26</v>
+        <v>595.46</v>
       </c>
       <c r="F150" t="n">
         <v>586.6</v>
@@ -11858,7 +11858,7 @@
         <v>344.93</v>
       </c>
       <c r="Q150" t="n">
-        <v>344.5</v>
+        <v>344.1</v>
       </c>
       <c r="R150" t="n">
         <v>338.37</v>
@@ -11969,10 +11969,10 @@
         <v>566.04</v>
       </c>
       <c r="D152" t="n">
-        <v>563.24</v>
+        <v>571.64</v>
       </c>
       <c r="E152" t="n">
-        <v>570.73</v>
+        <v>579.13</v>
       </c>
       <c r="F152" t="n">
         <v>569.96</v>
@@ -12004,7 +12004,7 @@
         <v>353.94</v>
       </c>
       <c r="Q152" t="n">
-        <v>362.68</v>
+        <v>359.88</v>
       </c>
       <c r="R152" t="n">
         <v>365.34</v>
@@ -12047,7 +12047,9 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>614.99</v>
+      </c>
       <c r="F153" t="n">
         <v>608.28</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>362.48</v>
       </c>
       <c r="Q153" t="n">
-        <v>358.73</v>
+        <v>360.37</v>
       </c>
       <c r="R153" t="n">
         <v>351.31</v>
@@ -12133,7 +12135,7 @@
         <v>604.12</v>
       </c>
       <c r="D154" t="n">
-        <v>601.5599999999999</v>
+        <v>601.16</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -12210,7 +12212,7 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
-        <v>579.42</v>
+        <v>573.15</v>
       </c>
       <c r="F155" t="n">
         <v>573.98</v>
@@ -12242,7 +12244,7 @@
         <v>342.53</v>
       </c>
       <c r="Q155" t="n">
-        <v>352.59</v>
+        <v>354.68</v>
       </c>
       <c r="R155" t="n">
         <v>362.67</v>
@@ -12390,7 +12392,7 @@
         <v>382.43</v>
       </c>
       <c r="Q157" t="n">
-        <v>386.5</v>
+        <v>387.63</v>
       </c>
       <c r="R157" t="n">
         <v>382.66</v>
@@ -12441,10 +12443,10 @@
         <v>599.1799999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>588.38</v>
+        <v>597.51</v>
       </c>
       <c r="E158" t="n">
-        <v>580.11</v>
+        <v>589.24</v>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -12474,7 +12476,7 @@
         <v>374.41</v>
       </c>
       <c r="Q158" t="n">
-        <v>378.97</v>
+        <v>375.93</v>
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
@@ -12521,10 +12523,10 @@
         <v>629.01</v>
       </c>
       <c r="D159" t="n">
-        <v>609.59</v>
+        <v>608.79</v>
       </c>
       <c r="E159" t="n">
-        <v>585.12</v>
+        <v>584.3200000000001</v>
       </c>
       <c r="F159" t="n">
         <v>545.0599999999999</v>
@@ -12560,7 +12562,7 @@
         <v>393.59</v>
       </c>
       <c r="Q159" t="n">
-        <v>395.8</v>
+        <v>396.07</v>
       </c>
       <c r="R159" t="n">
         <v>379.71</v>
@@ -12710,7 +12712,7 @@
         <v>385.09</v>
       </c>
       <c r="Q161" t="n">
-        <v>391.13</v>
+        <v>388.26</v>
       </c>
       <c r="R161" t="n">
         <v>390.97</v>
@@ -12772,7 +12774,7 @@
         <v>372.68</v>
       </c>
       <c r="Q162" t="n">
-        <v>373.79</v>
+        <v>370.52</v>
       </c>
       <c r="R162" t="n">
         <v>379.32</v>
@@ -12815,10 +12817,10 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>638.66</v>
+        <v>640.9299999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>607.1</v>
+        <v>609.37</v>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
@@ -12848,7 +12850,7 @@
         <v>390.29</v>
       </c>
       <c r="Q163" t="n">
-        <v>384.08</v>
+        <v>383.32</v>
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
@@ -12891,7 +12893,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>607.9</v>
+        <v>615.77</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -12918,7 +12920,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="n">
-        <v>352.19</v>
+        <v>349.57</v>
       </c>
       <c r="R164" t="n">
         <v>365.59</v>
@@ -12968,7 +12970,7 @@
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>532.63</v>
+        <v>536.63</v>
       </c>
       <c r="F165" t="n">
         <v>501.42</v>
@@ -13000,7 +13002,7 @@
         <v>357.92</v>
       </c>
       <c r="Q165" t="n">
-        <v>365.53</v>
+        <v>364.2</v>
       </c>
       <c r="R165" t="n">
         <v>373.19</v>
@@ -13125,10 +13127,10 @@
         <v>564.9</v>
       </c>
       <c r="D167" t="n">
-        <v>553.88</v>
+        <v>562.48</v>
       </c>
       <c r="E167" t="n">
-        <v>549.9</v>
+        <v>558.5</v>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
@@ -13162,7 +13164,7 @@
         <v>380.13</v>
       </c>
       <c r="Q167" t="n">
-        <v>387.26</v>
+        <v>384.39</v>
       </c>
       <c r="R167" t="n">
         <v>400.38</v>
@@ -13213,10 +13215,10 @@
         <v>555.59</v>
       </c>
       <c r="D168" t="n">
-        <v>533.1799999999999</v>
+        <v>527.25</v>
       </c>
       <c r="E168" t="n">
-        <v>480.2</v>
+        <v>474.27</v>
       </c>
       <c r="F168" t="n">
         <v>454.51</v>
@@ -13246,7 +13248,7 @@
         <v>364.12</v>
       </c>
       <c r="Q168" t="n">
-        <v>370.12</v>
+        <v>372.1</v>
       </c>
       <c r="R168" t="n">
         <v>368.23</v>
@@ -13293,10 +13295,10 @@
         <v>548.11</v>
       </c>
       <c r="D169" t="n">
-        <v>504.56</v>
+        <v>511.03</v>
       </c>
       <c r="E169" t="n">
-        <v>493.3</v>
+        <v>499.77</v>
       </c>
       <c r="F169" t="n">
         <v>514.35</v>
@@ -13332,7 +13334,7 @@
         <v>390.12</v>
       </c>
       <c r="Q169" t="n">
-        <v>383.53</v>
+        <v>381.37</v>
       </c>
       <c r="R169" t="n">
         <v>382.23</v>
@@ -13374,11 +13376,9 @@
       <c r="C170" t="n">
         <v>495.29</v>
       </c>
-      <c r="D170" t="n">
-        <v>466.4</v>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
-        <v>478.45</v>
+        <v>476.05</v>
       </c>
       <c r="F170" t="n">
         <v>489.69</v>
@@ -13410,7 +13410,7 @@
         <v>387.97</v>
       </c>
       <c r="Q170" t="n">
-        <v>381.98</v>
+        <v>382.78</v>
       </c>
       <c r="R170" t="n">
         <v>379.25</v>
@@ -13456,11 +13456,9 @@
       <c r="C171" t="n">
         <v>467.98</v>
       </c>
-      <c r="D171" t="n">
-        <v>445.76</v>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>444.14</v>
+        <v>440.34</v>
       </c>
       <c r="F171" t="n">
         <v>456.12</v>
@@ -13494,7 +13492,7 @@
         <v>366.35</v>
       </c>
       <c r="Q171" t="n">
-        <v>367.67</v>
+        <v>368.94</v>
       </c>
       <c r="R171" t="n">
         <v>391.08</v>
@@ -13528,9 +13526,11 @@
       <c r="C172" t="n">
         <v>493.51</v>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>499.23</v>
+      </c>
       <c r="E172" t="n">
-        <v>505.15</v>
+        <v>503.75</v>
       </c>
       <c r="F172" t="n">
         <v>473.95</v>
@@ -13566,7 +13566,7 @@
         <v>388.77</v>
       </c>
       <c r="Q172" t="n">
-        <v>389.58</v>
+        <v>390.05</v>
       </c>
       <c r="R172" t="n">
         <v>390.23</v>
@@ -13616,9 +13616,11 @@
       <c r="C173" t="n">
         <v>506.96</v>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>506.87</v>
+      </c>
       <c r="E173" t="n">
-        <v>493.32</v>
+        <v>497.19</v>
       </c>
       <c r="F173" t="n">
         <v>475.1</v>
@@ -13648,7 +13650,7 @@
         <v>386.98</v>
       </c>
       <c r="Q173" t="n">
-        <v>387.84</v>
+        <v>386.55</v>
       </c>
       <c r="R173" t="n">
         <v>384.71</v>
@@ -13769,10 +13771,10 @@
         <v>457.8</v>
       </c>
       <c r="D175" t="n">
-        <v>457.94</v>
+        <v>458.14</v>
       </c>
       <c r="E175" t="n">
-        <v>464.47</v>
+        <v>464.67</v>
       </c>
       <c r="F175" t="n">
         <v>492.56</v>
@@ -13825,10 +13827,10 @@
         <v>492.01</v>
       </c>
       <c r="D176" t="n">
-        <v>485.06</v>
+        <v>493.93</v>
       </c>
       <c r="E176" t="n">
-        <v>489.84</v>
+        <v>498.71</v>
       </c>
       <c r="F176" t="n">
         <v>499.65</v>
@@ -13858,7 +13860,7 @@
         <v>374.78</v>
       </c>
       <c r="Q176" t="n">
-        <v>372.99</v>
+        <v>370.03</v>
       </c>
       <c r="R176" t="n">
         <v>385.13</v>
@@ -13903,10 +13905,10 @@
         <v>455.55</v>
       </c>
       <c r="D177" t="n">
-        <v>470.85</v>
+        <v>465.98</v>
       </c>
       <c r="E177" t="n">
-        <v>486</v>
+        <v>481.13</v>
       </c>
       <c r="F177" t="n">
         <v>486.83</v>
@@ -13940,7 +13942,7 @@
         <v>371.57</v>
       </c>
       <c r="Q177" t="n">
-        <v>365.93</v>
+        <v>367.55</v>
       </c>
       <c r="R177" t="n">
         <v>369.43</v>
@@ -13979,10 +13981,10 @@
         <v>480.41</v>
       </c>
       <c r="D178" t="n">
-        <v>483.99</v>
+        <v>480.06</v>
       </c>
       <c r="E178" t="n">
-        <v>480.62</v>
+        <v>476.69</v>
       </c>
       <c r="F178" t="n">
         <v>507.75</v>
@@ -14016,7 +14018,7 @@
         <v>383.36</v>
       </c>
       <c r="Q178" t="n">
-        <v>377.63</v>
+        <v>378.94</v>
       </c>
       <c r="R178" t="n">
         <v>384.8</v>
@@ -14067,10 +14069,10 @@
         <v>446.38</v>
       </c>
       <c r="D179" t="n">
-        <v>461.04</v>
+        <v>458.84</v>
       </c>
       <c r="E179" t="n">
-        <v>473.55</v>
+        <v>471.35</v>
       </c>
       <c r="F179" t="n">
         <v>463.39</v>
@@ -14106,7 +14108,7 @@
         <v>365.76</v>
       </c>
       <c r="Q179" t="n">
-        <v>355.17</v>
+        <v>355.9</v>
       </c>
       <c r="R179" t="n">
         <v>356.84</v>
@@ -14143,10 +14145,10 @@
         <v>456.24</v>
       </c>
       <c r="D180" t="n">
-        <v>477.95</v>
+        <v>478.02</v>
       </c>
       <c r="E180" t="n">
-        <v>475.29</v>
+        <v>475.36</v>
       </c>
       <c r="F180" t="n">
         <v>458.37</v>
@@ -14182,7 +14184,7 @@
         <v>354.79</v>
       </c>
       <c r="Q180" t="n">
-        <v>354.53</v>
+        <v>354.51</v>
       </c>
       <c r="R180" t="n">
         <v>362.42</v>
@@ -14233,10 +14235,10 @@
         <v>468.65</v>
       </c>
       <c r="D181" t="n">
-        <v>475.27</v>
+        <v>474.34</v>
       </c>
       <c r="E181" t="n">
-        <v>473.35</v>
+        <v>472.42</v>
       </c>
       <c r="F181" t="n">
         <v>464.89</v>
@@ -14266,7 +14268,7 @@
         <v>377.3</v>
       </c>
       <c r="Q181" t="n">
-        <v>365.09</v>
+        <v>365.4</v>
       </c>
       <c r="R181" t="n">
         <v>355.18</v>
@@ -14303,10 +14305,10 @@
         <v>487.82</v>
       </c>
       <c r="D182" t="n">
-        <v>497.85</v>
+        <v>505.92</v>
       </c>
       <c r="E182" t="n">
-        <v>500.94</v>
+        <v>509.01</v>
       </c>
       <c r="F182" t="n">
         <v>493.25</v>
@@ -14342,7 +14344,7 @@
         <v>379.38</v>
       </c>
       <c r="Q182" t="n">
-        <v>376.77</v>
+        <v>374.08</v>
       </c>
       <c r="R182" t="n">
         <v>381.81</v>
@@ -14406,7 +14408,7 @@
         <v>408.94</v>
       </c>
       <c r="Q183" t="n">
-        <v>378.36</v>
+        <v>380.74</v>
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
@@ -14445,10 +14447,10 @@
         <v>499.74</v>
       </c>
       <c r="D184" t="n">
-        <v>505.03</v>
+        <v>513.7</v>
       </c>
       <c r="E184" t="n">
-        <v>506.45</v>
+        <v>515.12</v>
       </c>
       <c r="F184" t="n">
         <v>496.82</v>
@@ -14484,7 +14486,7 @@
         <v>389.88</v>
       </c>
       <c r="Q184" t="n">
-        <v>377.63</v>
+        <v>374.74</v>
       </c>
       <c r="R184" t="n">
         <v>382.38</v>
@@ -14566,7 +14568,7 @@
         <v>380.95</v>
       </c>
       <c r="Q185" t="n">
-        <v>380.55</v>
+        <v>377.02</v>
       </c>
       <c r="R185" t="n">
         <v>384.16</v>
@@ -14615,10 +14617,10 @@
         <v>482.81</v>
       </c>
       <c r="D186" t="n">
-        <v>480.68</v>
+        <v>479.15</v>
       </c>
       <c r="E186" t="n">
-        <v>479.28</v>
+        <v>477.75</v>
       </c>
       <c r="F186" t="n">
         <v>460.52</v>
@@ -14648,7 +14650,7 @@
         <v>377.36</v>
       </c>
       <c r="Q186" t="n">
-        <v>368.41</v>
+        <v>368.92</v>
       </c>
       <c r="R186" t="n">
         <v>364.8</v>
@@ -14695,10 +14697,10 @@
         <v>509.54</v>
       </c>
       <c r="D187" t="n">
-        <v>505</v>
+        <v>510.93</v>
       </c>
       <c r="E187" t="n">
-        <v>495.04</v>
+        <v>500.97</v>
       </c>
       <c r="F187" t="n">
         <v>487.97</v>
@@ -14734,7 +14736,7 @@
         <v>393.37</v>
       </c>
       <c r="Q187" t="n">
-        <v>392.41</v>
+        <v>390.43</v>
       </c>
       <c r="R187" t="n">
         <v>390.82</v>
@@ -14785,10 +14787,10 @@
         <v>497.3</v>
       </c>
       <c r="D188" t="n">
-        <v>495.85</v>
+        <v>501.12</v>
       </c>
       <c r="E188" t="n">
-        <v>490.87</v>
+        <v>496.14</v>
       </c>
       <c r="F188" t="n">
         <v>486.73</v>
@@ -14818,7 +14820,7 @@
         <v>389.05</v>
       </c>
       <c r="Q188" t="n">
-        <v>385.39</v>
+        <v>383.63</v>
       </c>
       <c r="R188" t="n">
         <v>382.4</v>
@@ -14865,10 +14867,10 @@
         <v>505.68</v>
       </c>
       <c r="D189" t="n">
-        <v>502.74</v>
+        <v>511.81</v>
       </c>
       <c r="E189" t="n">
-        <v>497.46</v>
+        <v>506.53</v>
       </c>
       <c r="F189" t="n">
         <v>497.56</v>
@@ -14900,7 +14902,7 @@
         <v>383.15</v>
       </c>
       <c r="Q189" t="n">
-        <v>383.09</v>
+        <v>380.07</v>
       </c>
       <c r="R189" t="n">
         <v>384.26</v>
@@ -14966,7 +14968,7 @@
         <v>386.36</v>
       </c>
       <c r="Q190" t="n">
-        <v>371.49</v>
+        <v>373.29</v>
       </c>
       <c r="R190" t="n">
         <v>367.37</v>
@@ -15017,10 +15019,10 @@
         <v>511</v>
       </c>
       <c r="D191" t="n">
-        <v>511.06</v>
+        <v>521.39</v>
       </c>
       <c r="E191" t="n">
-        <v>504.01</v>
+        <v>514.34</v>
       </c>
       <c r="F191" t="n">
         <v>501</v>
@@ -15050,7 +15052,7 @@
         <v>388.54</v>
       </c>
       <c r="Q191" t="n">
-        <v>389.65</v>
+        <v>386.21</v>
       </c>
       <c r="R191" t="n">
         <v>396.22</v>
@@ -15106,7 +15108,7 @@
         <v>374.37</v>
       </c>
       <c r="Q192" t="n">
-        <v>370.46</v>
+        <v>371.22</v>
       </c>
       <c r="R192" t="n">
         <v>358.1</v>
@@ -15232,7 +15234,7 @@
         <v>367.37</v>
       </c>
       <c r="Q194" t="n">
-        <v>373.97</v>
+        <v>375.15</v>
       </c>
       <c r="R194" t="n">
         <v>357.32</v>
@@ -15312,7 +15314,7 @@
         <v>348.19</v>
       </c>
       <c r="Q195" t="n">
-        <v>350.01</v>
+        <v>350.99</v>
       </c>
       <c r="R195" t="n">
         <v>334.99</v>
@@ -15392,7 +15394,7 @@
         <v>337.6</v>
       </c>
       <c r="Q196" t="n">
-        <v>326.13</v>
+        <v>325.82</v>
       </c>
       <c r="R196" t="n">
         <v>331.15</v>
@@ -15466,7 +15468,7 @@
         <v>320.42</v>
       </c>
       <c r="Q197" t="n">
-        <v>323.5</v>
+        <v>324.9</v>
       </c>
       <c r="R197" t="n">
         <v>320.66</v>
@@ -15530,7 +15532,7 @@
         <v>347.63</v>
       </c>
       <c r="Q198" t="n">
-        <v>340.64</v>
+        <v>343.02</v>
       </c>
       <c r="R198" t="n">
         <v>317.11</v>
@@ -15596,7 +15598,7 @@
         <v>356.85</v>
       </c>
       <c r="Q199" t="n">
-        <v>351.39</v>
+        <v>348.37</v>
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="inlineStr"/>
@@ -15662,7 +15664,7 @@
         <v>358.71</v>
       </c>
       <c r="Q200" t="n">
-        <v>358.6</v>
+        <v>355.58</v>
       </c>
       <c r="R200" t="n">
         <v>351.92</v>
@@ -15728,7 +15730,7 @@
         <v>354.53</v>
       </c>
       <c r="Q201" t="n">
-        <v>347.82</v>
+        <v>344.09</v>
       </c>
       <c r="R201" t="n">
         <v>346.92</v>
@@ -15800,7 +15802,7 @@
         <v>364.82</v>
       </c>
       <c r="Q202" t="n">
-        <v>363.22</v>
+        <v>359.64</v>
       </c>
       <c r="R202" t="n">
         <v>355.27</v>
@@ -15870,7 +15872,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="n">
-        <v>351.86</v>
+        <v>349.66</v>
       </c>
       <c r="R203" t="n">
         <v>345.5</v>
@@ -16084,7 +16086,7 @@
         <v>367.47</v>
       </c>
       <c r="Q206" t="n">
-        <v>346.03</v>
+        <v>345.61</v>
       </c>
       <c r="R206" t="n">
         <v>343.04</v>
@@ -16152,7 +16154,7 @@
         <v>353.13</v>
       </c>
       <c r="Q207" t="n">
-        <v>342.2</v>
+        <v>341.56</v>
       </c>
       <c r="R207" t="n">
         <v>350.1</v>
@@ -16216,7 +16218,7 @@
         <v>362.07</v>
       </c>
       <c r="Q208" t="n">
-        <v>352.61</v>
+        <v>349.1</v>
       </c>
       <c r="R208" t="n">
         <v>357.45</v>
@@ -16292,7 +16294,7 @@
         <v>359.19</v>
       </c>
       <c r="Q209" t="n">
-        <v>363.58</v>
+        <v>364.6</v>
       </c>
       <c r="R209" t="n">
         <v>357.78</v>
@@ -16356,7 +16358,7 @@
         <v>366.12</v>
       </c>
       <c r="Q210" t="n">
-        <v>368.32</v>
+        <v>366.01</v>
       </c>
       <c r="R210" t="n">
         <v>379.56</v>
@@ -16464,7 +16466,7 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="n">
-        <v>484.88</v>
+        <v>491.75</v>
       </c>
       <c r="F212" t="n">
         <v>464.31</v>
@@ -16543,10 +16545,10 @@
         <v>541.03</v>
       </c>
       <c r="D213" t="n">
-        <v>502.83</v>
+        <v>502.5</v>
       </c>
       <c r="E213" t="n">
-        <v>470.75</v>
+        <v>470.42</v>
       </c>
       <c r="F213" t="n">
         <v>454.78</v>
@@ -16582,7 +16584,7 @@
         <v>366.72</v>
       </c>
       <c r="Q213" t="n">
-        <v>369.24</v>
+        <v>369.35</v>
       </c>
       <c r="R213" t="n">
         <v>367.25</v>
@@ -16633,10 +16635,10 @@
         <v>509.46</v>
       </c>
       <c r="D214" t="n">
-        <v>487.53</v>
+        <v>497.8</v>
       </c>
       <c r="E214" t="n">
-        <v>471.52</v>
+        <v>481.79</v>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -16664,7 +16666,7 @@
         <v>369.97</v>
       </c>
       <c r="Q214" t="n">
-        <v>368.76</v>
+        <v>365.34</v>
       </c>
       <c r="R214" t="n">
         <v>373.17</v>
@@ -16706,7 +16708,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
-        <v>462.93</v>
+        <v>471.86</v>
       </c>
       <c r="F215" t="n">
         <v>475.59</v>
@@ -16787,10 +16789,10 @@
         <v>452.87</v>
       </c>
       <c r="D216" t="n">
-        <v>442.07</v>
+        <v>438.54</v>
       </c>
       <c r="E216" t="n">
-        <v>484.87</v>
+        <v>481.34</v>
       </c>
       <c r="F216" t="n">
         <v>499.43</v>
@@ -16826,7 +16828,7 @@
         <v>374.46</v>
       </c>
       <c r="Q216" t="n">
-        <v>378.01</v>
+        <v>379.19</v>
       </c>
       <c r="R216" t="n">
         <v>377.2</v>
@@ -16877,10 +16879,10 @@
         <v>470.69</v>
       </c>
       <c r="D217" t="n">
-        <v>474.54</v>
+        <v>471.54</v>
       </c>
       <c r="E217" t="n">
-        <v>474.84</v>
+        <v>471.84</v>
       </c>
       <c r="F217" t="n">
         <v>464.7</v>
@@ -16910,7 +16912,7 @@
         <v>392.92</v>
       </c>
       <c r="Q217" t="n">
-        <v>392.34</v>
+        <v>393.34</v>
       </c>
       <c r="R217" t="n">
         <v>388.3</v>
@@ -16968,7 +16970,7 @@
         <v>370.26</v>
       </c>
       <c r="Q218" t="n">
-        <v>367.91</v>
+        <v>364.73</v>
       </c>
       <c r="R218" t="n">
         <v>371.5</v>
@@ -17081,10 +17083,10 @@
         <v>486.86</v>
       </c>
       <c r="D220" t="n">
-        <v>468.33</v>
+        <v>470.06</v>
       </c>
       <c r="E220" t="n">
-        <v>436.54</v>
+        <v>438.27</v>
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
@@ -17118,7 +17120,7 @@
         <v>372.61</v>
       </c>
       <c r="Q220" t="n">
-        <v>376.79</v>
+        <v>376.21</v>
       </c>
       <c r="R220" t="n">
         <v>386.89</v>
@@ -17169,10 +17171,10 @@
         <v>480.04</v>
       </c>
       <c r="D221" t="n">
-        <v>456.29</v>
+        <v>451.02</v>
       </c>
       <c r="E221" t="n">
-        <v>412.25</v>
+        <v>406.98</v>
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -17221,10 +17223,10 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>446.72</v>
+        <v>448.05</v>
       </c>
       <c r="E222" t="n">
-        <v>461.24</v>
+        <v>462.57</v>
       </c>
       <c r="F222" t="n">
         <v>441.87</v>
@@ -17250,7 +17252,7 @@
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
-        <v>363.43</v>
+        <v>362.99</v>
       </c>
       <c r="R222" t="n">
         <v>371.47</v>
@@ -17345,10 +17347,10 @@
         <v>450</v>
       </c>
       <c r="D224" t="n">
-        <v>460.18</v>
+        <v>468.45</v>
       </c>
       <c r="E224" t="n">
-        <v>455.74</v>
+        <v>464.01</v>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -17376,7 +17378,7 @@
         <v>368.69</v>
       </c>
       <c r="Q224" t="n">
-        <v>370.98</v>
+        <v>368.22</v>
       </c>
       <c r="R224" t="n">
         <v>368.02</v>
@@ -17419,9 +17421,11 @@
         <v>500.08</v>
       </c>
       <c r="D225" t="n">
-        <v>515.91</v>
-      </c>
-      <c r="E225" t="inlineStr"/>
+        <v>508.91</v>
+      </c>
+      <c r="E225" t="n">
+        <v>546.59</v>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
         <v>531.8</v>
@@ -17440,7 +17444,7 @@
       </c>
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="n">
-        <v>371.92</v>
+        <v>374.25</v>
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
@@ -17473,9 +17477,11 @@
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>499.23</v>
-      </c>
-      <c r="E226" t="inlineStr"/>
+        <v>506.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>513.58</v>
+      </c>
       <c r="F226" t="n">
         <v>503.38</v>
       </c>
@@ -17555,7 +17561,9 @@
         <v>510.67</v>
       </c>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>529.74</v>
+      </c>
       <c r="F227" t="n">
         <v>526.55</v>
       </c>
@@ -17580,7 +17588,7 @@
       </c>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="n">
-        <v>385.62</v>
+        <v>387.42</v>
       </c>
       <c r="R227" t="n">
         <v>406.56</v>
@@ -17695,10 +17703,10 @@
         <v>480.22</v>
       </c>
       <c r="D229" t="n">
-        <v>484.45</v>
+        <v>490.45</v>
       </c>
       <c r="E229" t="n">
-        <v>485.74</v>
+        <v>491.74</v>
       </c>
       <c r="F229" t="n">
         <v>491.1</v>
@@ -17734,7 +17742,7 @@
         <v>389.45</v>
       </c>
       <c r="Q229" t="n">
-        <v>371.79</v>
+        <v>369.79</v>
       </c>
       <c r="R229" t="n">
         <v>377.54</v>
@@ -17864,7 +17872,7 @@
         <v>394.46</v>
       </c>
       <c r="Q231" t="n">
-        <v>392.8</v>
+        <v>390.4</v>
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="inlineStr"/>
@@ -17905,10 +17913,10 @@
         <v>513.84</v>
       </c>
       <c r="D232" t="n">
-        <v>545.91</v>
+        <v>553.4400000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>541.39</v>
+        <v>548.92</v>
       </c>
       <c r="F232" t="n">
         <v>527</v>
@@ -17932,7 +17940,7 @@
         <v>400.3</v>
       </c>
       <c r="Q232" t="n">
-        <v>392.26</v>
+        <v>389.75</v>
       </c>
       <c r="R232" t="n">
         <v>408.11</v>
@@ -17973,7 +17981,7 @@
         <v>542.08</v>
       </c>
       <c r="D233" t="n">
-        <v>535.76</v>
+        <v>529.49</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
@@ -18045,10 +18053,10 @@
         <v>540.6799999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>537.17</v>
+        <v>531.97</v>
       </c>
       <c r="E234" t="n">
-        <v>520.02</v>
+        <v>514.8200000000001</v>
       </c>
       <c r="F234" t="n">
         <v>504.16</v>
@@ -18148,7 +18156,7 @@
         <v>402.54</v>
       </c>
       <c r="Q235" t="n">
-        <v>407.28</v>
+        <v>404.32</v>
       </c>
       <c r="R235" t="n">
         <v>411.94</v>
@@ -18189,10 +18197,10 @@
         <v>526.92</v>
       </c>
       <c r="D236" t="n">
-        <v>529</v>
+        <v>532.27</v>
       </c>
       <c r="E236" t="n">
-        <v>513.17</v>
+        <v>516.4400000000001</v>
       </c>
       <c r="F236" t="n">
         <v>502.92</v>
@@ -18222,7 +18230,7 @@
         <v>394.22</v>
       </c>
       <c r="Q236" t="n">
-        <v>394.62</v>
+        <v>393.53</v>
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
@@ -18261,10 +18269,10 @@
         <v>517.6900000000001</v>
       </c>
       <c r="D237" t="n">
-        <v>513.3</v>
+        <v>511.83</v>
       </c>
       <c r="E237" t="n">
-        <v>504.37</v>
+        <v>502.9</v>
       </c>
       <c r="F237" t="n">
         <v>491.38</v>
@@ -18300,7 +18308,7 @@
         <v>392.53</v>
       </c>
       <c r="Q237" t="n">
-        <v>395.75</v>
+        <v>396.24</v>
       </c>
       <c r="R237" t="n">
         <v>406.12</v>
@@ -18351,10 +18359,10 @@
         <v>495.9</v>
       </c>
       <c r="D238" t="n">
-        <v>500.96</v>
+        <v>499.89</v>
       </c>
       <c r="E238" t="n">
-        <v>499.43</v>
+        <v>498.36</v>
       </c>
       <c r="F238" t="n">
         <v>492.04</v>
@@ -18390,7 +18398,7 @@
         <v>407.84</v>
       </c>
       <c r="Q238" t="n">
-        <v>412.42</v>
+        <v>412.78</v>
       </c>
       <c r="R238" t="n">
         <v>422.61</v>
@@ -18441,10 +18449,10 @@
         <v>463.61</v>
       </c>
       <c r="D239" t="n">
-        <v>471.05</v>
+        <v>464.98</v>
       </c>
       <c r="E239" t="n">
-        <v>474.84</v>
+        <v>468.77</v>
       </c>
       <c r="F239" t="n">
         <v>461.41</v>
@@ -18480,7 +18488,7 @@
         <v>377.99</v>
       </c>
       <c r="Q239" t="n">
-        <v>377.18</v>
+        <v>379.2</v>
       </c>
       <c r="R239" t="n">
         <v>381.05</v>
@@ -18538,7 +18546,7 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="n">
-        <v>404.01</v>
+        <v>401.77</v>
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="inlineStr"/>
@@ -18569,10 +18577,10 @@
         <v>525.1900000000001</v>
       </c>
       <c r="D241" t="n">
-        <v>538.54</v>
+        <v>539.0700000000001</v>
       </c>
       <c r="E241" t="n">
-        <v>531.0599999999999</v>
+        <v>531.59</v>
       </c>
       <c r="F241" t="n">
         <v>518.72</v>
@@ -18608,7 +18616,7 @@
         <v>372.51</v>
       </c>
       <c r="Q241" t="n">
-        <v>375.47</v>
+        <v>375.29</v>
       </c>
       <c r="R241" t="n">
         <v>375.51</v>
@@ -18659,10 +18667,10 @@
         <v>502.45</v>
       </c>
       <c r="D242" t="n">
-        <v>511.49</v>
+        <v>519.02</v>
       </c>
       <c r="E242" t="n">
-        <v>506.1</v>
+        <v>513.63</v>
       </c>
       <c r="F242" t="n">
         <v>495.77</v>
@@ -18690,7 +18698,7 @@
         <v>376.97</v>
       </c>
       <c r="Q242" t="n">
-        <v>375.44</v>
+        <v>372.93</v>
       </c>
       <c r="R242" t="n">
         <v>381.04</v>
@@ -18760,7 +18768,7 @@
         <v>372.36</v>
       </c>
       <c r="Q243" t="n">
-        <v>364.19</v>
+        <v>366.1</v>
       </c>
       <c r="R243" t="n">
         <v>376.39</v>
@@ -18826,7 +18834,7 @@
         <v>371.33</v>
       </c>
       <c r="Q244" t="n">
-        <v>366.94</v>
+        <v>369.25</v>
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
@@ -18861,10 +18869,10 @@
         <v>517.28</v>
       </c>
       <c r="D245" t="n">
-        <v>521.54</v>
+        <v>519.27</v>
       </c>
       <c r="E245" t="n">
-        <v>509.89</v>
+        <v>507.62</v>
       </c>
       <c r="F245" t="n">
         <v>499.29</v>
@@ -18896,7 +18904,7 @@
         <v>394.98</v>
       </c>
       <c r="Q245" t="n">
-        <v>395.64</v>
+        <v>396.4</v>
       </c>
       <c r="R245" t="n">
         <v>406.24</v>
@@ -19033,10 +19041,10 @@
         <v>531.45</v>
       </c>
       <c r="D247" t="n">
-        <v>530.52</v>
+        <v>536.3200000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>524.2</v>
+        <v>530</v>
       </c>
       <c r="F247" t="n">
         <v>491.94</v>
@@ -19066,7 +19074,7 @@
         <v>369.03</v>
       </c>
       <c r="Q247" t="n">
-        <v>372.46</v>
+        <v>370.53</v>
       </c>
       <c r="R247" t="n">
         <v>378.51</v>
@@ -19113,10 +19121,10 @@
         <v>508.07</v>
       </c>
       <c r="D248" t="n">
-        <v>525.14</v>
+        <v>523.01</v>
       </c>
       <c r="E248" t="n">
-        <v>517.91</v>
+        <v>515.78</v>
       </c>
       <c r="F248" t="n">
         <v>494.83</v>
@@ -19152,7 +19160,7 @@
         <v>403.39</v>
       </c>
       <c r="Q248" t="n">
-        <v>402.61</v>
+        <v>403.32</v>
       </c>
       <c r="R248" t="n">
         <v>398.87</v>
@@ -19187,10 +19195,10 @@
         <v>537.5599999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>539.42</v>
+        <v>549.6900000000001</v>
       </c>
       <c r="E249" t="n">
-        <v>522.51</v>
+        <v>532.78</v>
       </c>
       <c r="F249" t="n">
         <v>496.25</v>
@@ -19226,7 +19234,7 @@
         <v>395.24</v>
       </c>
       <c r="Q249" t="n">
-        <v>389.53</v>
+        <v>386.11</v>
       </c>
       <c r="R249" t="n">
         <v>389.77</v>
@@ -19273,10 +19281,10 @@
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
-        <v>518.74</v>
+        <v>517.41</v>
       </c>
       <c r="E250" t="n">
-        <v>508.24</v>
+        <v>506.91</v>
       </c>
       <c r="F250" t="n">
         <v>498.36</v>
@@ -19302,7 +19310,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="n">
-        <v>399.58</v>
+        <v>400.02</v>
       </c>
       <c r="R250" t="n">
         <v>411.87</v>
@@ -19345,10 +19353,10 @@
         <v>519.73</v>
       </c>
       <c r="D251" t="n">
-        <v>491.67</v>
+        <v>490.47</v>
       </c>
       <c r="E251" t="n">
-        <v>501.28</v>
+        <v>500.08</v>
       </c>
       <c r="F251" t="n">
         <v>479.79</v>
@@ -19382,7 +19390,7 @@
         <v>419.68</v>
       </c>
       <c r="Q251" t="n">
-        <v>415.78</v>
+        <v>416.18</v>
       </c>
       <c r="R251" t="n">
         <v>404.53</v>
@@ -19433,10 +19441,10 @@
         <v>499.98</v>
       </c>
       <c r="D252" t="n">
-        <v>498.48</v>
+        <v>499.08</v>
       </c>
       <c r="E252" t="n">
-        <v>480.45</v>
+        <v>481.05</v>
       </c>
       <c r="F252" t="n">
         <v>475.09</v>
@@ -19462,7 +19470,7 @@
         <v>402.34</v>
       </c>
       <c r="Q252" t="n">
-        <v>383.22</v>
+        <v>383.02</v>
       </c>
       <c r="R252" t="n">
         <v>378.08</v>
@@ -19503,10 +19511,10 @@
         <v>515.41</v>
       </c>
       <c r="D253" t="n">
-        <v>506.03</v>
+        <v>514.63</v>
       </c>
       <c r="E253" t="n">
-        <v>509.68</v>
+        <v>518.28</v>
       </c>
       <c r="F253" t="n">
         <v>497.37</v>
@@ -19542,7 +19550,7 @@
         <v>404.69</v>
       </c>
       <c r="Q253" t="n">
-        <v>394.59</v>
+        <v>391.72</v>
       </c>
       <c r="R253" t="n">
         <v>391.12</v>
@@ -19624,7 +19632,7 @@
         <v>397.37</v>
       </c>
       <c r="Q254" t="n">
-        <v>387.78</v>
+        <v>389.18</v>
       </c>
       <c r="R254" t="n">
         <v>389.69</v>
@@ -19675,10 +19683,10 @@
         <v>527.8099999999999</v>
       </c>
       <c r="D255" t="n">
-        <v>523.23</v>
+        <v>534.5599999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>512.27</v>
+        <v>523.6</v>
       </c>
       <c r="F255" t="n">
         <v>503.26</v>
@@ -19714,7 +19722,7 @@
         <v>392.19</v>
       </c>
       <c r="Q255" t="n">
-        <v>388.91</v>
+        <v>385.13</v>
       </c>
       <c r="R255" t="n">
         <v>390.35</v>
@@ -19761,10 +19769,10 @@
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="n">
-        <v>513.05</v>
+        <v>510.58</v>
       </c>
       <c r="E256" t="n">
-        <v>535.3</v>
+        <v>532.83</v>
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
@@ -19798,7 +19806,7 @@
         <v>402.79</v>
       </c>
       <c r="Q256" t="n">
-        <v>409.89</v>
+        <v>410.71</v>
       </c>
       <c r="R256" t="n">
         <v>415.82</v>
@@ -19849,10 +19857,10 @@
         <v>517.45</v>
       </c>
       <c r="D257" t="n">
-        <v>518.4</v>
+        <v>527.67</v>
       </c>
       <c r="E257" t="n">
-        <v>521.72</v>
+        <v>530.99</v>
       </c>
       <c r="F257" t="n">
         <v>497.93</v>
@@ -19888,7 +19896,7 @@
         <v>385.17</v>
       </c>
       <c r="Q257" t="n">
-        <v>388.6</v>
+        <v>385.51</v>
       </c>
       <c r="R257" t="n">
         <v>397.9</v>
@@ -19937,10 +19945,10 @@
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
-        <v>473.43</v>
+        <v>469.5</v>
       </c>
       <c r="E258" t="n">
-        <v>479.58</v>
+        <v>475.65</v>
       </c>
       <c r="F258" t="n">
         <v>473.9</v>
@@ -20007,10 +20015,10 @@
         <v>491.65</v>
       </c>
       <c r="D259" t="n">
-        <v>495.66</v>
+        <v>496.26</v>
       </c>
       <c r="E259" t="n">
-        <v>502.67</v>
+        <v>503.27</v>
       </c>
       <c r="F259" t="n">
         <v>501.82</v>
@@ -20046,7 +20054,7 @@
         <v>373.68</v>
       </c>
       <c r="Q259" t="n">
-        <v>375.68</v>
+        <v>375.48</v>
       </c>
       <c r="R259" t="n">
         <v>373.08</v>
@@ -20097,10 +20105,10 @@
         <v>525.86</v>
       </c>
       <c r="D260" t="n">
-        <v>525.3</v>
+        <v>532.1</v>
       </c>
       <c r="E260" t="n">
-        <v>528.67</v>
+        <v>535.47</v>
       </c>
       <c r="F260" t="n">
         <v>529.33</v>
@@ -20136,7 +20144,7 @@
         <v>385.57</v>
       </c>
       <c r="Q260" t="n">
-        <v>392.43</v>
+        <v>390.16</v>
       </c>
       <c r="R260" t="n">
         <v>395.3</v>
@@ -20185,10 +20193,10 @@
         <v>480.34</v>
       </c>
       <c r="D261" t="n">
-        <v>497.88</v>
+        <v>494.41</v>
       </c>
       <c r="E261" t="n">
-        <v>505.38</v>
+        <v>501.91</v>
       </c>
       <c r="F261" t="n">
         <v>509.36</v>
@@ -20224,7 +20232,7 @@
         <v>377.76</v>
       </c>
       <c r="Q261" t="n">
-        <v>374.35</v>
+        <v>375.51</v>
       </c>
       <c r="R261" t="n">
         <v>376.4</v>
@@ -20275,10 +20283,10 @@
         <v>501.87</v>
       </c>
       <c r="D262" t="n">
-        <v>516.87</v>
+        <v>517.54</v>
       </c>
       <c r="E262" t="n">
-        <v>519.41</v>
+        <v>520.08</v>
       </c>
       <c r="F262" t="n">
         <v>517.92</v>
@@ -20314,7 +20322,7 @@
         <v>392.99</v>
       </c>
       <c r="Q262" t="n">
-        <v>400.36</v>
+        <v>400.14</v>
       </c>
       <c r="R262" t="n">
         <v>402.31</v>
@@ -20365,11 +20373,9 @@
         <v>514.77</v>
       </c>
       <c r="D263" t="n">
-        <v>501.04</v>
-      </c>
-      <c r="E263" t="n">
-        <v>481.02</v>
-      </c>
+        <v>499.11</v>
+      </c>
+      <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
         <v>471.12</v>
       </c>
@@ -20398,7 +20404,7 @@
         <v>395.75</v>
       </c>
       <c r="Q263" t="n">
-        <v>382.02</v>
+        <v>382.66</v>
       </c>
       <c r="R263" t="n">
         <v>397.15</v>
@@ -20443,11 +20449,9 @@
         <v>488.06</v>
       </c>
       <c r="D264" t="n">
-        <v>467.27</v>
-      </c>
-      <c r="E264" t="n">
-        <v>442.74</v>
-      </c>
+        <v>460.54</v>
+      </c>
+      <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
         <v>447.43</v>
       </c>
@@ -20482,7 +20486,7 @@
         <v>397.23</v>
       </c>
       <c r="Q264" t="n">
-        <v>381.15</v>
+        <v>383.39</v>
       </c>
       <c r="R264" t="n">
         <v>399.68</v>
@@ -20533,10 +20537,10 @@
         <v>516.54</v>
       </c>
       <c r="D265" t="n">
-        <v>501.72</v>
+        <v>510.39</v>
       </c>
       <c r="E265" t="n">
-        <v>475.95</v>
+        <v>484.62</v>
       </c>
       <c r="F265" t="n">
         <v>473.56</v>
@@ -20572,7 +20576,7 @@
         <v>393.22</v>
       </c>
       <c r="Q265" t="n">
-        <v>385.62</v>
+        <v>382.73</v>
       </c>
       <c r="R265" t="n">
         <v>393.25</v>
@@ -20619,10 +20623,10 @@
         <v>513.01</v>
       </c>
       <c r="D266" t="n">
-        <v>481.62</v>
+        <v>485.09</v>
       </c>
       <c r="E266" t="n">
-        <v>455.82</v>
+        <v>459.29</v>
       </c>
       <c r="F266" t="n">
         <v>461.1</v>
@@ -20654,7 +20658,7 @@
         <v>405.24</v>
       </c>
       <c r="Q266" t="n">
-        <v>399.32</v>
+        <v>398.16</v>
       </c>
       <c r="R266" t="n">
         <v>393.37</v>
@@ -20703,10 +20707,10 @@
         <v>518.46</v>
       </c>
       <c r="D267" t="n">
-        <v>487.15</v>
+        <v>497.35</v>
       </c>
       <c r="E267" t="n">
-        <v>479.06</v>
+        <v>489.26</v>
       </c>
       <c r="F267" t="n">
         <v>469.36</v>
@@ -20742,7 +20746,7 @@
         <v>394.8</v>
       </c>
       <c r="Q267" t="n">
-        <v>391.1</v>
+        <v>387.7</v>
       </c>
       <c r="R267" t="n">
         <v>396.62</v>
@@ -20793,10 +20797,10 @@
         <v>459.01</v>
       </c>
       <c r="D268" t="n">
-        <v>437.15</v>
+        <v>434.28</v>
       </c>
       <c r="E268" t="n">
-        <v>426.1</v>
+        <v>423.23</v>
       </c>
       <c r="F268" t="n">
         <v>423.9</v>
@@ -20832,7 +20836,7 @@
         <v>402.65</v>
       </c>
       <c r="Q268" t="n">
-        <v>377.91</v>
+        <v>378.87</v>
       </c>
       <c r="R268" t="n">
         <v>388.2</v>
@@ -20883,10 +20887,10 @@
         <v>472.96</v>
       </c>
       <c r="D269" t="n">
-        <v>444.03</v>
+        <v>449.63</v>
       </c>
       <c r="E269" t="n">
-        <v>433.49</v>
+        <v>439.09</v>
       </c>
       <c r="F269" t="n">
         <v>442.36</v>
@@ -20947,10 +20951,10 @@
         <v>452.75</v>
       </c>
       <c r="D270" t="n">
-        <v>455.44</v>
+        <v>457.84</v>
       </c>
       <c r="E270" t="n">
-        <v>463.75</v>
+        <v>466.15</v>
       </c>
       <c r="F270" t="n">
         <v>467.06</v>
@@ -20986,7 +20990,7 @@
         <v>395.35</v>
       </c>
       <c r="Q270" t="n">
-        <v>396.15</v>
+        <v>395.35</v>
       </c>
       <c r="R270" t="n">
         <v>404.03</v>
@@ -21037,10 +21041,10 @@
         <v>468.73</v>
       </c>
       <c r="D271" t="n">
-        <v>443.74</v>
+        <v>445.21</v>
       </c>
       <c r="E271" t="n">
-        <v>440.89</v>
+        <v>442.36</v>
       </c>
       <c r="F271" t="n">
         <v>443.99</v>
@@ -21076,7 +21080,7 @@
         <v>394.9</v>
       </c>
       <c r="Q271" t="n">
-        <v>397.56</v>
+        <v>397.07</v>
       </c>
       <c r="R271" t="n">
         <v>406.9</v>
@@ -21127,10 +21131,10 @@
         <v>419.11</v>
       </c>
       <c r="D272" t="n">
-        <v>409.15</v>
+        <v>405.48</v>
       </c>
       <c r="E272" t="n">
-        <v>415.49</v>
+        <v>411.82</v>
       </c>
       <c r="F272" t="n">
         <v>421.14</v>
@@ -21162,7 +21166,7 @@
         <v>409.23</v>
       </c>
       <c r="Q272" t="n">
-        <v>401.63</v>
+        <v>402.85</v>
       </c>
       <c r="R272" t="n">
         <v>402.1</v>
@@ -21230,7 +21234,7 @@
         <v>375.81</v>
       </c>
       <c r="Q273" t="n">
-        <v>370.8</v>
+        <v>368.07</v>
       </c>
       <c r="R273" t="n">
         <v>380.5</v>
@@ -21279,10 +21283,10 @@
         <v>384.44</v>
       </c>
       <c r="D274" t="n">
-        <v>395.16</v>
+        <v>391.16</v>
       </c>
       <c r="E274" t="n">
-        <v>390.87</v>
+        <v>386.87</v>
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
@@ -21316,7 +21320,7 @@
         <v>410.42</v>
       </c>
       <c r="Q274" t="n">
-        <v>403.73</v>
+        <v>405.06</v>
       </c>
       <c r="R274" t="n">
         <v>410.05</v>
@@ -21361,10 +21365,10 @@
         <v>388.2</v>
       </c>
       <c r="D275" t="n">
-        <v>394.15</v>
+        <v>398.28</v>
       </c>
       <c r="E275" t="n">
-        <v>414.47</v>
+        <v>418.6</v>
       </c>
       <c r="F275" t="n">
         <v>440.54</v>
@@ -21400,7 +21404,7 @@
         <v>397.47</v>
       </c>
       <c r="Q275" t="n">
-        <v>401.03</v>
+        <v>399.65</v>
       </c>
       <c r="R275" t="n">
         <v>391.62</v>
@@ -21451,10 +21455,10 @@
         <v>415.43</v>
       </c>
       <c r="D276" t="n">
-        <v>411.49</v>
+        <v>422.89</v>
       </c>
       <c r="E276" t="n">
-        <v>435.43</v>
+        <v>446.83</v>
       </c>
       <c r="F276" t="n">
         <v>459.81</v>
@@ -21490,7 +21494,7 @@
         <v>411</v>
       </c>
       <c r="Q276" t="n">
-        <v>409.9</v>
+        <v>406.1</v>
       </c>
       <c r="R276" t="n">
         <v>405.99</v>
@@ -21541,11 +21545,9 @@
         <v>396.63</v>
       </c>
       <c r="D277" t="n">
-        <v>385.46</v>
-      </c>
-      <c r="E277" t="n">
-        <v>372.76</v>
-      </c>
+        <v>391.99</v>
+      </c>
+      <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
         <v>382.31</v>
       </c>
@@ -21580,7 +21582,7 @@
         <v>407.49</v>
       </c>
       <c r="Q277" t="n">
-        <v>408.01</v>
+        <v>405.83</v>
       </c>
       <c r="R277" t="n">
         <v>396.51</v>
@@ -21631,11 +21633,9 @@
         <v>357.13</v>
       </c>
       <c r="D278" t="n">
-        <v>347.34</v>
-      </c>
-      <c r="E278" t="n">
-        <v>331.89</v>
-      </c>
+        <v>341.27</v>
+      </c>
+      <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
         <v>344.4</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>420.82</v>
       </c>
       <c r="Q278" t="n">
-        <v>427.48</v>
+        <v>429.5</v>
       </c>
       <c r="R278" t="n">
         <v>419.82</v>
@@ -21740,7 +21740,7 @@
         <v>454.93</v>
       </c>
       <c r="Q279" t="n">
-        <v>441.18</v>
+        <v>442.49</v>
       </c>
       <c r="R279" t="n">
         <v>432.35</v>
@@ -21789,10 +21789,10 @@
         <v>395.34</v>
       </c>
       <c r="D280" t="n">
-        <v>369.46</v>
+        <v>379.66</v>
       </c>
       <c r="E280" t="n">
-        <v>356.29</v>
+        <v>366.49</v>
       </c>
       <c r="F280" t="n">
         <v>369.27</v>
@@ -21828,7 +21828,7 @@
         <v>406.51</v>
       </c>
       <c r="Q280" t="n">
-        <v>407.19</v>
+        <v>403.79</v>
       </c>
       <c r="R280" t="n">
         <v>407.23</v>
@@ -21879,10 +21879,10 @@
         <v>340.57</v>
       </c>
       <c r="D281" t="n">
-        <v>316.74</v>
+        <v>315.94</v>
       </c>
       <c r="E281" t="n">
-        <v>314.95</v>
+        <v>314.15</v>
       </c>
       <c r="F281" t="n">
         <v>351.47</v>
@@ -21918,7 +21918,7 @@
         <v>431.66</v>
       </c>
       <c r="Q281" t="n">
-        <v>426.97</v>
+        <v>427.24</v>
       </c>
       <c r="R281" t="n">
         <v>424.27</v>
@@ -21969,10 +21969,10 @@
         <v>330.9</v>
       </c>
       <c r="D282" t="n">
-        <v>329.79</v>
+        <v>330.79</v>
       </c>
       <c r="E282" t="n">
-        <v>340.35</v>
+        <v>341.35</v>
       </c>
       <c r="F282" t="n">
         <v>337.91</v>
@@ -22008,7 +22008,7 @@
         <v>423.52</v>
       </c>
       <c r="Q282" t="n">
-        <v>424.24</v>
+        <v>423.91</v>
       </c>
       <c r="R282" t="n">
         <v>424.71</v>
@@ -22059,10 +22059,10 @@
         <v>356.19</v>
       </c>
       <c r="D283" t="n">
-        <v>340.03</v>
+        <v>347.36</v>
       </c>
       <c r="E283" t="n">
-        <v>342.27</v>
+        <v>349.6</v>
       </c>
       <c r="F283" t="n">
         <v>355.1</v>
@@ -22098,7 +22098,7 @@
         <v>410.6</v>
       </c>
       <c r="Q283" t="n">
-        <v>412.33</v>
+        <v>409.89</v>
       </c>
       <c r="R283" t="n">
         <v>409.18</v>
@@ -22149,10 +22149,10 @@
         <v>371.13</v>
       </c>
       <c r="D284" t="n">
-        <v>336.99</v>
+        <v>345.79</v>
       </c>
       <c r="E284" t="n">
-        <v>336.11</v>
+        <v>344.91</v>
       </c>
       <c r="F284" t="n">
         <v>353.69</v>
@@ -22188,7 +22188,7 @@
         <v>422.94</v>
       </c>
       <c r="Q284" t="n">
-        <v>428.18</v>
+        <v>425.25</v>
       </c>
       <c r="R284" t="n">
         <v>428.79</v>
@@ -22239,10 +22239,10 @@
         <v>370.95</v>
       </c>
       <c r="D285" t="n">
-        <v>337.2</v>
+        <v>348.53</v>
       </c>
       <c r="E285" t="n">
-        <v>337.94</v>
+        <v>349.27</v>
       </c>
       <c r="F285" t="n">
         <v>350.32</v>
@@ -22278,7 +22278,7 @@
         <v>417.98</v>
       </c>
       <c r="Q285" t="n">
-        <v>412.36</v>
+        <v>408.58</v>
       </c>
       <c r="R285" t="n">
         <v>413.54</v>
@@ -22327,10 +22327,10 @@
         <v>337.31</v>
       </c>
       <c r="D286" t="n">
-        <v>346.16</v>
+        <v>355.29</v>
       </c>
       <c r="E286" t="n">
-        <v>395.63</v>
+        <v>404.76</v>
       </c>
       <c r="F286" t="n">
         <v>420.61</v>
@@ -22366,7 +22366,7 @@
         <v>435.4</v>
       </c>
       <c r="Q286" t="n">
-        <v>437.59</v>
+        <v>434.55</v>
       </c>
       <c r="R286" t="n">
         <v>418.56</v>
@@ -22484,7 +22484,7 @@
         <v>414.65</v>
       </c>
       <c r="Q288" t="n">
-        <v>424.93</v>
+        <v>426.26</v>
       </c>
       <c r="R288" t="n">
         <v>439.54</v>
@@ -22533,10 +22533,10 @@
         <v>338.38</v>
       </c>
       <c r="D289" t="n">
-        <v>345.54</v>
+        <v>350.41</v>
       </c>
       <c r="E289" t="n">
-        <v>369.16</v>
+        <v>374.03</v>
       </c>
       <c r="F289" t="n">
         <v>395.24</v>
@@ -22572,7 +22572,7 @@
         <v>422.71</v>
       </c>
       <c r="Q289" t="n">
-        <v>421.71</v>
+        <v>420.09</v>
       </c>
       <c r="R289" t="n">
         <v>420.68</v>
@@ -22621,10 +22621,10 @@
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
-        <v>378.97</v>
+        <v>390.1</v>
       </c>
       <c r="E290" t="n">
-        <v>402.54</v>
+        <v>413.67</v>
       </c>
       <c r="F290" t="n">
         <v>410.29</v>
@@ -22660,7 +22660,7 @@
         <v>422.64</v>
       </c>
       <c r="Q290" t="n">
-        <v>431.09</v>
+        <v>427.38</v>
       </c>
       <c r="R290" t="n">
         <v>431.83</v>
@@ -26046,28 +26046,28 @@
         <v>0.0348</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4491452030155272</v>
+        <v>-0.4300126572567929</v>
       </c>
       <c r="J4" t="n">
         <v>289</v>
       </c>
       <c r="K4" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00247399433352069</v>
+        <v>0.002321975383379749</v>
       </c>
       <c r="M4" t="n">
-        <v>57.21825022101294</v>
+        <v>56.82368977631499</v>
       </c>
       <c r="N4" t="n">
-        <v>4884.93154570288</v>
+        <v>4802.48078316265</v>
       </c>
       <c r="O4" t="n">
-        <v>69.89228530891575</v>
+        <v>69.29993350042011</v>
       </c>
       <c r="P4" t="n">
-        <v>481.2798719932129</v>
+        <v>484.2203821515699</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26124,28 +26124,28 @@
         <v>0.0337</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04335059444880459</v>
+        <v>0.3437763901034335</v>
       </c>
       <c r="J5" t="n">
         <v>289</v>
       </c>
       <c r="K5" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" t="n">
-        <v>2.546172553830051e-05</v>
+        <v>0.001619824594037089</v>
       </c>
       <c r="M5" t="n">
-        <v>54.28146676977896</v>
+        <v>52.83203894057596</v>
       </c>
       <c r="N5" t="n">
-        <v>4485.516387464111</v>
+        <v>4361.891486857849</v>
       </c>
       <c r="O5" t="n">
-        <v>66.97399784591114</v>
+        <v>66.04461739504475</v>
       </c>
       <c r="P5" t="n">
-        <v>470.122807352237</v>
+        <v>471.9174228111983</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27060,7 +27060,7 @@
         <v>0.0517</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4573595061320946</v>
+        <v>-0.4727466279843291</v>
       </c>
       <c r="J17" t="n">
         <v>289</v>
@@ -27069,19 +27069,19 @@
         <v>232</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02472156802229653</v>
+        <v>0.02654448140541577</v>
       </c>
       <c r="M17" t="n">
-        <v>16.93321012388197</v>
+        <v>16.86978524599399</v>
       </c>
       <c r="N17" t="n">
-        <v>462.4400516465655</v>
+        <v>459.2891224821698</v>
       </c>
       <c r="O17" t="n">
-        <v>21.5044193515325</v>
+        <v>21.4310317642938</v>
       </c>
       <c r="P17" t="n">
-        <v>394.9928591281619</v>
+        <v>394.4674984871239</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28063,12 +28063,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-37.79809505731386,174.8382880609641</t>
+          <t>-37.79811606058313,174.8382569091604</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-37.797473929596656,174.8378254562184</t>
+          <t>-37.79749493279553,174.83779430458935</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-37.78842891237347,174.83597593541015</t>
+          <t>-37.78842823685275,174.8359895331866</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -28205,12 +28205,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-37.79811559384391,174.8382576014229</t>
+          <t>-37.79814283974008,174.83821719058497</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-37.79743676558388,174.8378805772519</t>
+          <t>-37.79746401141669,174.83784016670373</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-37.78843121476146,174.83592958965298</t>
+          <t>-37.78843033659117,174.83594726676372</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -28347,12 +28347,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-37.79818916356749,174.83814848343863</t>
+          <t>-37.79820474096685,174.83812537912695</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-37.79742766418925,174.83789407627202</t>
+          <t>-37.79744324157531,174.83787097217785</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -28412,7 +28412,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-37.788437125454344,174.83581060908625</t>
+          <t>-37.78843662445739,174.83582069410664</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -28485,12 +28485,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-37.797866237854606,174.83862744140887</t>
+          <t>-37.7978421423295,174.83866317920666</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-37.79713577701386,174.83832699500343</t>
+          <t>-37.79711168152265,174.8383627324949</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -28546,7 +28546,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-37.78843699035412,174.83581332864233</t>
+          <t>-37.788437767179495,174.83579769119473</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -28619,12 +28619,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-37.797833565953674,174.83867589943415</t>
+          <t>-37.797806319907465,174.8387163099331</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-37.797103105158875,174.83837545261338</t>
+          <t>-37.797075859150986,174.83841586276594</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -28664,7 +28664,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-37.78843946155231,174.83576358342708</t>
+          <t>-37.78844033969515,174.83574590631088</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -28705,12 +28705,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-37.79771699712369,174.83884879039582</t>
+          <t>-37.79771157124135,174.8388568378597</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-37.79701063203774,174.838512604723</t>
+          <t>-37.79700520616533,174.83852065212318</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -28766,7 +28766,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-37.7884411333989,174.83572992891692</t>
+          <t>-37.78844130790085,174.8357264161565</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-37.78844327244789,174.8356868692715</t>
+          <t>-37.78844387475623,174.8356747445813</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -28982,7 +28982,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-37.78844229299056,174.83570658605692</t>
+          <t>-37.788443007882165,174.8356921950699</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -29106,7 +29106,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-37.79694062074068,174.83861644205356</t>
+          <t>-37.79694919712925,174.83860372199118</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -29162,7 +29162,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-37.78842985809983,174.83595689852254</t>
+          <t>-37.7884295822633,174.83596245094816</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -29219,10 +29219,14 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-37.797795701530426,174.83873205877043</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>-37.79776460484325,174.83877818033938</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-37.797222415680146,174.83819849559774</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
@@ -29272,7 +29276,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-37.78842355319947,174.83608381109485</t>
+          <t>-37.78842455523739,174.83606364106285</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -29342,7 +29346,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-37.78845012855715,174.83554885175528</t>
+          <t>-37.78845090534755,174.83553321430068</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -29432,7 +29436,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-37.788440593005085,174.83574080714263</t>
+          <t>-37.78844145425724,174.8357234699703</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -29503,10 +29507,14 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-37.797561396611826,174.83907957042226</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-37.796943362851444,174.83861237509515</t>
+          <t>-37.797001705602206,174.83852584399364</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -29554,7 +29562,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-37.78842575430071,174.83603950501245</t>
+          <t>-37.78842387970659,174.8360772388373</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -29656,7 +29664,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-37.78843942777753,174.83576426331618</t>
+          <t>-37.78843920261226,174.83576879590998</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -29778,7 +29786,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-37.78842896303746,174.83597491557688</t>
+          <t>-37.78842952597009,174.83596358409622</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -29855,7 +29863,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-37.797990449247365,174.8384432139887</t>
+          <t>-37.798015711559,174.83840574539565</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -29904,7 +29912,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-37.78843346646811,174.8358842637256</t>
+          <t>-37.78843265585572,174.83590058105986</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -29981,12 +29989,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-37.79800900217019,174.83841569664114</t>
+          <t>-37.79801133587073,174.83841223533855</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-37.797300302851916,174.83808297567222</t>
+          <t>-37.797302636548274,174.8380795143973</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -30042,7 +30050,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-37.788438977446795,174.83577332850376</t>
+          <t>-37.78843890426798,174.83577480159673</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -30111,12 +30119,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-37.7981474487876,174.8382103544874</t>
+          <t>-37.79812136974164,174.83824903467388</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-37.797380115212526,174.83796459994488</t>
+          <t>-37.79735403618611,174.83800327976115</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -30176,7 +30184,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-37.788437463204595,174.835803810196</t>
+          <t>-37.788438301949384,174.8357869262849</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -30253,12 +30261,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-37.79785287738313,174.83864725728512</t>
+          <t>-37.79787312228845,174.83861723060522</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-37.79715421326649,174.83829965104744</t>
+          <t>-37.79717445813188,174.838269624599</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -30318,7 +30326,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-37.78843123164934,174.83592924970856</t>
+          <t>-37.7884305786512,174.83594239422686</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -30395,12 +30403,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-37.79795205984671,174.8385001523558</t>
+          <t>-37.798006143386864,174.83841993673644</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-37.79720357105232,174.83822644532583</t>
+          <t>-37.79725765453378,174.8381462304332</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -30460,7 +30468,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-37.78843604465087,174.83583236553454</t>
+          <t>-37.788434305224385,174.8358673798168</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -30534,7 +30542,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-37.797037528021164,174.83847271382942</t>
+          <t>-37.797013432487816,174.8385084512257</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -30600,7 +30608,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-37.796965999845945,174.838578801044</t>
+          <t>-37.796949663871466,174.83860302974279</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -30660,7 +30668,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-37.78841093173073,174.83633786278733</t>
+          <t>-37.78841145529045,174.83632732451676</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -30729,12 +30737,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-37.797664896962814,174.83892606330653</t>
+          <t>-37.79764348512456,174.83895782045096</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-37.79687661867027,174.8387113665074</t>
+          <t>-37.796855206840085,174.83874312332983</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -30794,7 +30802,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-37.78841348196445,174.8362865312097</t>
+          <t>-37.78841416877856,174.83627270681058</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -30863,12 +30871,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-37.797671489707014,174.8389162852175</t>
+          <t>-37.797676915593236,174.83890823776235</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-37.7969237596736,174.83864144951454</t>
+          <t>-37.79692918555386,174.83863340213216</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -30924,7 +30932,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-37.78842256241704,174.8361037544966</t>
+          <t>-37.78842238790388,174.8361072672548</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -30989,14 +30997,10 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-37.79771454672529,174.83885242473448</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-37.79710596394694,174.8383712125742</t>
-        </is>
-      </c>
+          <t>-37.797781815957414,174.83875265339702</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>-37.796396052491474,174.83802411495114</t>
@@ -31054,7 +31058,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-37.78841816014983,174.8361923666485</t>
+          <t>-37.7884159983984,174.8362358795162</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -31131,12 +31135,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-37.7975987944495,174.83902410369566</t>
+          <t>-37.79760538720145,174.83901432562416</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-37.796831052885615,174.83877894708016</t>
+          <t>-37.79683764563267,174.8387691691023</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -31184,7 +31188,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-37.78842814115386,174.83599145953823</t>
+          <t>-37.788427927238565,174.8359957655007</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -31241,12 +31245,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-37.79725812898364,174.83952935936586</t>
+          <t>-37.797296227142276,174.83947285472485</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-37.79651337490924,174.83925010509026</t>
+          <t>-37.796551473023975,174.83919360095544</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -31371,12 +31375,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-37.79701915433945,174.83988378837034</t>
+          <t>-37.79702498869346,174.8398751353458</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-37.796281285070116,174.83959432044213</t>
+          <t>-37.79628711941669,174.8395856674935</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -31420,7 +31424,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-37.788439180095715,174.83576924916937</t>
+          <t>-37.78843899433421,174.83577298855923</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -31493,12 +31497,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-37.79705474388947,174.8398310048995</t>
+          <t>-37.79710882829361,174.8397507912324</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-37.796444588201695,174.83935212389332</t>
+          <t>-37.796498672413925,174.83927191065195</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -31558,7 +31562,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-37.7884411221407,174.83573015554663</t>
+          <t>-37.78843938274449,174.83576516983493</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -31635,12 +31639,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-37.796968745495604,174.83995855044506</t>
+          <t>-37.79703368187981,174.83986224233678</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-37.796407015104506,174.83940784909638</t>
+          <t>-37.79647195120231,174.83931154137272</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -31700,7 +31704,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-37.78842373897082,174.83608007170696</t>
+          <t>-37.78842165044387,174.8361221114908</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -31810,7 +31814,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-37.78843890989711,174.83577468828187</t>
+          <t>-37.78843979929986,174.8357567845363</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -31880,7 +31884,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-37.79637049216296,174.8394620167083</t>
+          <t>-37.79639966384342,174.83941875184686</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -31998,7 +32002,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-37.788429790548044,174.83595825830025</t>
+          <t>-37.7884282537408,174.8359891932422</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -32063,12 +32067,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-37.79721892227579,174.8395875080319</t>
+          <t>-37.79721192107509,174.83959789171578</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-37.796695288798546,174.83898030381002</t>
+          <t>-37.796688287633465,174.83899068746314</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -32128,7 +32132,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-37.78845976511486,174.83535485663705</t>
+          <t>-37.78845999026428,174.83535032404006</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -32205,12 +32209,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-37.79711302902185,174.83974456103974</t>
+          <t>-37.79713210732531,174.8397162655725</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-37.79651792568081,174.83924335574795</t>
+          <t>-37.79653700391147,174.83921506041932</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -32270,7 +32274,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-37.78843946155231,174.83576358342708</t>
+          <t>-37.78843884797658,174.8357759347452</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -32347,12 +32351,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-37.79705462720247,174.83983117796015</t>
+          <t>-37.79710830320256,174.83975157000643</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-37.79646174112902,174.83932668410782</t>
+          <t>-37.79651541692216,174.83924707653932</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -32412,7 +32416,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-37.78843245883155,174.83590454707857</t>
+          <t>-37.788430730642276,174.83593933472693</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -32485,14 +32489,10 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-37.796765242666105,174.84026036667046</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-37.79613099209365,174.83981721992643</t>
-        </is>
-      </c>
+          <t>-37.79673682922501,174.84030250659006</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -32526,7 +32526,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-37.7884329260601,174.8358951419485</t>
+          <t>-37.78843383799803,174.8358767849473</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -32591,7 +32591,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-37.796801357470905,174.84020680479563</t>
+          <t>-37.79677451933062,174.84024660845563</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -32644,7 +32644,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-37.788436449952634,174.83582420686653</t>
+          <t>-37.78843731121703,174.83580686969663</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -32721,12 +32721,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-37.79690888493479,174.84004733027604</t>
+          <t>-37.79697463819844,174.83994981090225</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-37.796317633039365,174.83954041254998</t>
+          <t>-37.79638338604759,174.83944289364376</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -32778,7 +32778,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-37.7884312879422,174.8359281165604</t>
+          <t>-37.788429171322655,174.83597072292906</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -32847,12 +32847,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-37.796833504878585,174.84015912689523</t>
+          <t>-37.796886014216355,174.84008125001748</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-37.796311740352536,174.83954915203532</t>
+          <t>-37.79636424942136,174.8394712753842</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -32900,7 +32900,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-37.78844429693423,174.8356662459665</t>
+          <t>-37.78844260821857,174.83570024042487</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -32965,12 +32965,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-37.79675789134596,174.84027126940433</t>
+          <t>-37.79673105318492,174.8403110730174</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-37.79612247392379,174.83982985317743</t>
+          <t>-37.7960956358459,174.839869656552</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -33030,7 +33030,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-37.788439056254724,174.83577174209594</t>
+          <t>-37.78843991751141,174.8357544049245</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -33107,12 +33107,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-37.79675147352601,174.84028078766227</t>
+          <t>-37.7967888135591,174.8402254086838</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-37.79616249764223,174.8397704941781</t>
+          <t>-37.796199837528754,174.8397151154618</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-37.78844156120994,174.8357213169881</t>
+          <t>-37.78844036221159,174.8357454530515</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -33237,12 +33237,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-37.79670485679362,174.84034992477694</t>
+          <t>-37.79672819433657,174.84031531296574</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-37.79610491248732,174.83985589843232</t>
+          <t>-37.79612824994323,174.83982128679523</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -33302,7 +33302,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-37.78844520320761,174.83564800227308</t>
+          <t>-37.7884444545472,174.8356630731503</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -33375,12 +33375,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-37.79662685098592,174.84046561459692</t>
+          <t>-37.79662842627258,174.8404632783053</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-37.79604767733566,174.83994078337952</t>
+          <t>-37.79604925261584,174.83993844709835</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -33424,7 +33424,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-37.78844245623367,174.83570329992605</t>
+          <t>-37.78844240557203,174.83570431975977</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -33493,12 +33493,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-37.79670421501105,174.84035087660146</t>
+          <t>-37.79673922132224,174.84029895887733</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-37.79635298914741,174.8394879756087</t>
+          <t>-37.79638799517305,174.83943605779552</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -33563,12 +33563,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-37.79685853433571,174.84012200559732</t>
+          <t>-37.79692078703969,174.84002967815738</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-37.79648974589706,174.8392851497387</t>
+          <t>-37.79655199811267,174.8391928221844</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -33689,12 +33689,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-37.79729220145751,174.8394788253558</t>
+          <t>-37.79726262141717,174.8395226964939</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-37.79687551015607,174.83871301059403</t>
+          <t>-37.79684593032256,174.83875688172947</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -33815,12 +33815,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-37.79731326337025,174.83944758769954</t>
+          <t>-37.797307429046185,174.83945624079172</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-37.79683175300038,174.8387779087109</t>
+          <t>-37.796825918710375,174.83878656178732</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -33949,12 +33949,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-37.797164371230494,174.8396684141832</t>
+          <t>-37.79719354291907,174.83962514887656</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-37.796676385650834,174.83900833966894</t>
+          <t>-37.79670555717244,174.83896507444857</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -34014,7 +34014,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-37.788432273065766,174.83590828646757</t>
+          <t>-37.78843133297651,174.8359272100419</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -34083,12 +34083,12 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-37.797278315760046,174.83949941970116</t>
+          <t>-37.797286075414945,174.83948791109736</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-37.79674890602556,174.83890078226784</t>
+          <t>-37.796756665641766,174.83888927369995</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -34213,12 +34213,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-37.797266588760756,174.83951681239853</t>
+          <t>-37.79728018274478,174.839496650714</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-37.796728485977795,174.8389310679613</t>
+          <t>-37.796742079896134,174.8389109063444</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -34270,7 +34270,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-37.7884431148343,174.83569004208755</t>
+          <t>-37.78844267576738,174.8356988806466</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-37.797174172919554,174.839653877044</t>
+          <t>-37.797153577701906,174.83968442233797</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -34392,7 +34392,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-37.78844657668486,174.83562035344463</t>
+          <t>-37.788447240905164,174.83560698228942</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -34461,7 +34461,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-37.79721676357233,174.83959070966802</t>
+          <t>-37.79720550330701,174.83960741009093</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -34518,7 +34518,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-37.788448991512425,174.83557174136197</t>
+          <t>-37.7884493517647,174.83556448920947</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -34591,12 +34591,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-37.797342259951876,174.83940458181118</t>
+          <t>-37.79741110489454,174.8393024751399</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-37.796774168531535,174.8388633145153</t>
+          <t>-37.796843013178375,174.83876120826952</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -34648,7 +34648,7 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-37.788447437919366,174.83560301626875</t>
+          <t>-37.78844522572367,174.8356475490136</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -34725,7 +34725,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-37.79725101110121,174.8395399161223</t>
+          <t>-37.797297685723656,174.8394706914526</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -34774,7 +34774,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>-37.78844331185128,174.83568607606747</t>
+          <t>-37.78844180888974,174.83571633113448</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -34839,12 +34839,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-37.79708035668283,174.83979301807508</t>
+          <t>-37.79706244523176,174.83981958289587</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-37.796421075847235,174.83938699541682</t>
+          <t>-37.79640316444406,174.8394135600612</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -34892,7 +34892,7 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>-37.78845094474991,174.83553242109645</t>
+          <t>-37.78845151889793,174.83552086297755</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -34975,12 +34975,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-37.79675281543389,174.84027879748118</t>
+          <t>-37.79678006199107,174.84023838813692</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-37.79623414352762,174.83966423621666</t>
+          <t>-37.79626138994375,174.8396238269866</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>-37.788447437919366,174.83560301626875</t>
+          <t>-37.7884465597979,174.83562069338925</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -35097,12 +35097,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-37.79679330603016,174.84021874589666</t>
+          <t>-37.79680106575205,174.84020723744428</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-37.79620923084005,174.8397011842446</t>
+          <t>-37.7962169905308,174.83968967584514</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -35203,12 +35203,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-37.796675859882995,174.84039292992188</t>
+          <t>-37.79663735289604,174.84045003931755</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-37.795980990434025,174.84003968585827</t>
+          <t>-37.79594248352563,174.84009679481963</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>-37.78844160061357,174.83572052378412</t>
+          <t>-37.78844283901029,174.83569559451567</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -35400,7 +35400,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-37.79601815540997,174.83998456700112</t>
+          <t>-37.79603641699824,174.83995748346067</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>-37.78845237448895,174.83550363911365</t>
+          <t>-37.78845178908483,174.8355154238627</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -35501,12 +35501,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-37.79672422695495,174.8403211969752</t>
+          <t>-37.796773644173655,174.84024790640055</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-37.7960790078999,174.83989431732385</t>
+          <t>-37.796128424974114,174.83982102720785</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -35554,7 +35554,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>-37.78845211556035,174.83550885159883</t>
+          <t>-37.788450528210454,174.83554080639826</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -35623,12 +35623,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-37.796716233847015,174.84033305152172</t>
+          <t>-37.79676290891379,174.84026382785606</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-37.79611109691408,174.83984672635063</t>
+          <t>-37.79615777181106,174.8397775030429</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -35668,7 +35668,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>-37.788458408585974,174.8353821655331</t>
+          <t>-37.78845690570222,174.83541242061568</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -35733,12 +35733,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-37.7967018812562,174.84035433778132</t>
+          <t>-37.79668128586538,174.84038488268402</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-37.79603099103174,174.83996553064821</t>
+          <t>-37.79601039569174,174.83999607533852</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35774,7 +35774,7 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>-37.78845105169914,174.83553026811353</t>
+          <t>-37.78845171590923,174.83551689695628</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -35847,12 +35847,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-37.796848732591585,174.8401365426121</t>
+          <t>-37.79691174377394,174.8400430903069</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-37.79622492525106,174.83967790785522</t>
+          <t>-37.796287936225156,174.8395844560806</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35896,7 +35896,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>-37.78844321052827,174.83568811573494</t>
+          <t>-37.78844118406076,174.83572890908326</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -35950,7 +35950,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-37.79622066617343,174.83968422449718</t>
+          <t>-37.796268916253396,174.83961266468867</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -36113,12 +36113,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-37.79730748738944,174.8394561542608</t>
+          <t>-37.797311746446056,174.83944983750365</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-37.796882452954996,174.83870271341908</t>
+          <t>-37.79688671198246,174.83869639666372</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>-37.78843106839993,174.83593253583814</t>
+          <t>-37.78843093329692,174.83593525539368</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -36239,12 +36239,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-37.79731349674321,174.83944724157584</t>
+          <t>-37.797338759359306,174.83940977367072</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-37.79683665380352,174.83877064012563</t>
+          <t>-37.796861916270025,174.83873317228392</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>-37.788446171397176,174.83562851211545</t>
+          <t>-37.78844536082007,174.83564482945675</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -36529,12 +36529,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-37.79763630894806,174.83896846384945</t>
+          <t>-37.797611046465775,174.83900593205695</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-37.79701985018536,174.83849893279313</t>
+          <t>-37.79699458778986,174.83853640079533</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -36594,7 +36594,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>-37.78844914349389,174.83556868186017</t>
+          <t>-37.78844995406049,174.83555236451676</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -36671,12 +36671,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-37.79760106982414,174.83902072896322</t>
+          <t>-37.79760147822471,174.839020123242</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-37.79700532285078,174.8385204790608</t>
+          <t>-37.79700573124978,174.83851987334256</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36736,7 +36736,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>-37.78844172445346,174.83571803085732</t>
+          <t>-37.788441713195304,174.83571825748703</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -36813,12 +36813,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-37.79783327424018,174.83867633209488</t>
+          <t>-37.79781577142821,174.83870229173343</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-37.79711413191205,174.8383590981748</t>
+          <t>-37.79709662912821,174.8383850575988</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36866,7 +36866,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>-37.788455397181885,174.8354427890116</t>
+          <t>-37.788455960063516,174.83543145752077</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -36925,7 +36925,11 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-37.797371839950294,174.83936071057835</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
@@ -36980,7 +36984,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>-37.78844218040904,174.835708852354</t>
+          <t>-37.78844014267616,174.8357498723306</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -37057,7 +37061,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-37.79757277349176,174.83906269677504</t>
+          <t>-37.797544360459106,174.8391048376176</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -37082,7 +37086,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>-37.788452036755956,174.83551043800736</t>
+          <t>-37.78845294863415,174.83549208099421</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -37152,7 +37156,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>-37.788445839286005,174.83563519769282</t>
+          <t>-37.788445861802025,174.83563474443335</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -37217,7 +37221,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-37.79742207340303,174.83928620727977</t>
+          <t>-37.79744891123395,174.8392464029207</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -37266,7 +37270,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>-37.78845313438677,174.83548834160254</t>
+          <t>-37.7884522731691,174.83550567878177</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -37331,7 +37335,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-37.79740737093371,174.83930801313375</t>
+          <t>-37.79745754601159,174.8392335962947</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -37380,7 +37384,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>-37.788431783319034,174.83591814485666</t>
+          <t>-37.78843016771197,174.83595066620802</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -37618,7 +37622,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>-37.788422933960845,174.83609627572105</t>
+          <t>-37.78842400918345,174.83607463259722</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -37688,7 +37692,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-37.797297910813036,174.83808652347884</t>
+          <t>-37.79729750241615,174.83808712920188</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -37740,7 +37744,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>-37.788436376773205,174.83582567995936</t>
+          <t>-37.78843638803156,174.8358254533297</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -37810,7 +37814,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-37.79738256559021,174.8379609655983</t>
+          <t>-37.79737165557441,174.83797714709186</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -37870,7 +37874,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>-37.78843566186535,174.8358400709431</t>
+          <t>-37.788436010875685,174.83583304542353</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -38053,12 +38057,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-37.797679190964736,174.83890486302275</t>
+          <t>-37.797728957400174,174.83883105135834</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-37.797177900341694,174.8382645192358</t>
+          <t>-37.79722766650409,174.83819070774524</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -38110,7 +38114,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>-37.78842602451148,174.83603406590234</t>
+          <t>-37.78842442576078,174.836066247303</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -38171,12 +38175,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-37.79789097513839,174.8385907517326</t>
+          <t>-37.79790071835803,174.8385763008392</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-37.79735864523193,174.83799644373298</t>
+          <t>-37.79736838840349,174.83798199288577</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -38236,7 +38240,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>-37.788432346246225,174.83590681337492</t>
+          <t>-37.78843203100713,174.83591315900472</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -38310,7 +38314,7 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-37.79750059198942,174.83778591095293</t>
+          <t>-37.797564359980306,174.83769133102257</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -38366,7 +38370,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>-37.788440992671426,174.83573276178822</t>
+          <t>-37.788438943671956,174.83577400839283</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -38443,14 +38447,10 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-37.79783969193655,174.83866681355767</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-37.79726978976302,174.83812823182194</t>
-        </is>
-      </c>
+          <t>-37.79789610929025,174.83858313689106</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
           <t>-37.796716212251496,174.8375428187324</t>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>-37.78843486251749,174.8358561616489</t>
+          <t>-37.788433049903695,174.83589264902244</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -38585,7 +38585,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-37.79746028813666,174.83922952932497</t>
+          <t>-37.79744120994465,174.83925782504411</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -38634,7 +38634,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>-37.78842734178541,174.83600755023994</t>
+          <t>-37.78842795538533,174.8359951989267</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -38703,7 +38703,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-37.79730246987025,174.83946359591897</t>
+          <t>-37.79735188658029,174.8393903041949</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -38748,7 +38748,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>-37.788409118968254,174.83637435013117</t>
+          <t>-37.78840753138442,174.83640630488387</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -38817,7 +38817,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-37.797476040767364,174.8392061658761</t>
+          <t>-37.797519214621516,174.83914213266883</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -38854,7 +38854,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>-37.78843009453095,174.83595213930056</t>
+          <t>-37.788428704088076,174.8359801280579</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -38923,7 +38923,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-37.79724961086194,174.83954199286106</t>
+          <t>-37.797218105469085,174.8395887194618</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -38968,7 +38968,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>-37.78843042103074,174.83594556704156</t>
+          <t>-37.78843143430364,174.83592517037522</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -39029,7 +39029,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-37.79720235276604,174.83961208274724</t>
+          <t>-37.79720194436257,174.83961268846187</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>-37.78844009764322,174.8357507788494</t>
+          <t>-37.788440108901455,174.83575055221968</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -39172,7 +39172,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>-37.788440981413245,174.83573298841793</t>
+          <t>-37.78844109399522,174.8357307221209</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -39237,7 +39237,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-37.79707113841229,174.83980668987368</t>
+          <t>-37.79711664631536,174.83973919615107</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -39290,7 +39290,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>-37.78842758384792,174.83600267770356</t>
+          <t>-37.788426120211064,174.83603213955084</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -39356,7 +39356,7 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>-37.78843366349161,174.83588029770684</t>
+          <t>-37.78843397872895,174.83587395207667</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -39422,7 +39422,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-37.79727585737667,174.8381192325141</t>
+          <t>-37.79723694295856,174.83817694920316</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -39511,12 +39511,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-37.79752551566773,174.83913278727553</t>
+          <t>-37.797497511012494,174.83917432234458</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-37.79689417986547,174.83868532070738</t>
+          <t>-37.79686617529906,174.8387268555321</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -39564,7 +39564,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>-37.788433629716174,174.83588097759576</t>
+          <t>-37.788434530393445,174.83586284722372</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -39633,12 +39633,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-37.79737113983217,174.83936174895112</t>
+          <t>-37.797368047643666,174.83936633509734</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-37.79672533545547,174.83893574060966</t>
+          <t>-37.79672224327598,174.8389403267271</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -39686,7 +39686,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>-37.78843413634748,174.83587077926157</t>
+          <t>-37.788434237673634,174.8358687395947</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -39743,12 +39743,12 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-37.79746017145049,174.8392297023875</t>
+          <t>-37.79749401042962,174.83917951422598</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-37.79683507854541,174.8387729764567</t>
+          <t>-37.79686891741348,174.8387227885819</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -39877,12 +39877,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-37.79739651910863,174.83932410792517</t>
+          <t>-37.79745445382787,174.83923818245162</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-37.796799722740786,174.8388254140836</t>
+          <t>-37.79685765724068,174.838739489035</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -39934,7 +39934,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>-37.78844100955874,174.83573242184366</t>
+          <t>-37.78843914632091,174.83576992905842</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -40040,7 +40040,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>-37.788452807912385,174.83549491386663</t>
+          <t>-37.78845122056626,174.8355268686668</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -40101,12 +40101,12 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-37.79760357857045,174.83901700810412</t>
+          <t>-37.79764517706848,174.8389553110315</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-37.79681530030103,174.8388023103829</t>
+          <t>-37.79685689878336,174.8387406139358</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -40154,7 +40154,7 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>-37.788453584695645,174.8354792764106</t>
+          <t>-37.78845224502468,174.83550624535627</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -40244,7 +40244,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>-37.78844315986676,174.83568913556869</t>
+          <t>-37.78844297410779,174.83569287495908</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -40342,7 +40342,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>-37.7884306462028,174.8359410344491</t>
+          <t>-37.78842883356279,174.8359775218174</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -40494,7 +40494,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>-37.78843465423636,174.83586035429755</t>
+          <t>-37.78843297672339,174.83589412211512</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -40555,12 +40555,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-37.79693934031582,174.84000216160814</t>
+          <t>-37.79695643499562,174.83997680829734</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-37.79634487941503,174.83950000322838</t>
+          <t>-37.79636197402939,174.83947465004135</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -40620,7 +40620,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>-37.78845002160758,174.8355510047381</t>
+          <t>-37.788449469972385,174.8355621095969</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -40697,12 +40697,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-37.79692650471663,174.840021198216</t>
+          <t>-37.79698093930573,174.839940465647</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-37.796491554537845,174.83928246730963</t>
+          <t>-37.796545988764024,174.83920173478546</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -40762,7 +40762,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>-37.78843610094282,174.8358312323862</t>
+          <t>-37.78843435025822,174.83586647329818</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -40835,12 +40835,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-37.79695054229088,174.83998554783582</t>
+          <t>-37.79694663326859,174.83999134535068</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-37.796479710856765,174.8393000328913</t>
+          <t>-37.796475801858044,174.83930583039728</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -40969,12 +40969,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-37.7970032848935,174.83990732459006</t>
+          <t>-37.79702312170024,174.83987790431382</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-37.79653694556826,174.8392151469494</t>
+          <t>-37.79655678225384,174.83918572671456</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -41034,7 +41034,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>-37.788446891908244,174.8356140078117</t>
+          <t>-37.788446255832156,174.83562681239235</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -41111,12 +41111,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-37.796916061204215,174.84003668708755</t>
+          <t>-37.79690713462504,174.84004992617537</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-37.79633717808534,174.83951142513817</t>
+          <t>-37.7963282515428,174.83952466416696</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -41176,7 +41176,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>-37.7884322111438,174.83590953293057</t>
+          <t>-37.78843249823638,174.83590375387482</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -41302,7 +41302,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>-37.78843446284275,174.83586420700166</t>
+          <t>-37.78843323566897,174.83588890963333</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>-37.78843533537142,174.83584664320327</t>
+          <t>-37.78843638803156,174.8358254533297</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -41461,12 +41461,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-37.79698974918604,174.83992739959302</t>
+          <t>-37.79704733426371,174.83984199424927</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-37.796466641964436,174.83931941559553</t>
+          <t>-37.79652422674853,174.83923401050342</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -41518,7 +41518,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>-37.78844040161536,174.83574465984753</t>
+          <t>-37.78843854963195,174.83578194043184</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -41587,12 +41587,12 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-37.796844765218474,174.8401424266408</t>
+          <t>-37.79683583862796,174.840155665703</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-37.796571659763444,174.839163661528</t>
+          <t>-37.79656273325815,174.839176900641</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -41652,7 +41652,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>-37.78843465423636,174.83586035429755</t>
+          <t>-37.788434941326535,174.8358545752413</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -41725,12 +41725,12 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-37.796876620882855,174.84009518133377</t>
+          <t>-37.79687078651346,174.84010383432346</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-37.79662440196177,174.83908543820675</t>
+          <t>-37.79661856765023,174.83909409123453</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -41790,7 +41790,7 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>-37.78843182272398,174.83591735165294</t>
+          <t>-37.78843200849004,174.835913612264</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -41981,12 +41981,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-37.79713514118337,174.83971176598612</t>
+          <t>-37.797133974314924,174.83971349659632</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>-37.79658432022928,174.8391448844799</t>
+          <t>-37.796583153366186,174.8391466150837</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -42115,12 +42115,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-37.79715025212781,174.83968935457932</t>
+          <t>-37.79720550330701,174.83960741009093</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>-37.79663099473307,174.83907566028373</t>
+          <t>-37.79668624562681,174.83899371602828</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -42180,7 +42180,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>-37.78844368899771,174.83567848397175</t>
+          <t>-37.78844191021323,174.83571429146713</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -42286,7 +42286,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>-37.788433049903695,174.83589264902244</t>
+          <t>-37.78843427707824,174.83586794639092</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -42527,12 +42527,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-37.7973710231458,174.83936192201324</t>
+          <t>-37.79742119825615,174.8392875052475</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-37.79694598827653,174.83860848119855</t>
+          <t>-37.79699616304349,174.83853406445417</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -42613,12 +42613,12 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-37.797730240941895,174.83882914765644</t>
+          <t>-37.79768864250686,174.8388908448714</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-37.79719003558817,174.83824652066346</t>
+          <t>-37.79714843735255,174.83830821766801</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -42670,7 +42670,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>-37.78841610536043,174.83623372653585</t>
+          <t>-37.78841744519735,174.83620675762333</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -42739,12 +42739,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-37.797597219190074,174.83902644004877</t>
+          <t>-37.79765281998692,174.83894397537665</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-37.79713350165314,174.8383303697312</t>
+          <t>-37.79718910210777,174.83824790516925</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -42804,7 +42804,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>-37.78842793286793,174.8359956521859</t>
+          <t>-37.7884261427286,174.83603168629168</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -42881,12 +42881,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-37.79771413832553,174.83885303045759</t>
+          <t>-37.797708304043105,174.83886168364384</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-37.79721984861047,174.83820230299185</t>
+          <t>-37.79721401436077,174.83821095615937</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -42938,7 +42938,7 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>-37.788422652488315,174.8361019414601</t>
+          <t>-37.788422838260225,174.83609820207232</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -43011,12 +43011,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-37.79763712574869,174.8389672524058</t>
+          <t>-37.797641793180595,174.83896032987028</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-37.79721243911324,174.83821329251435</t>
+          <t>-37.79721710651318,174.83820636998075</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -43068,7 +43068,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>-37.78841415751931,174.83627293344006</t>
+          <t>-37.788414005519606,174.83627599293828</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -43284,7 +43284,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>-37.78842445390788,174.83606568072906</t>
+          <t>-37.788425365872286,174.83604732373308</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -43361,7 +43361,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-37.79754155999517,174.83910899112803</t>
+          <t>-37.7975357256948,174.8391176442738</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>-37.78842556853065,174.8360432444006</t>
+          <t>-37.78842575430071,174.83603950501245</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -43614,7 +43614,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>-37.78841917909483,174.83617185667592</t>
+          <t>-37.78842006855771,174.83615395294234</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -43716,7 +43716,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>-37.78841730445847,174.83620959049236</t>
+          <t>-37.78841552551314,174.8362453979556</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -43794,7 +43794,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>-37.78841591395466,174.83623757923752</t>
+          <t>-37.78841439959277,174.83626806090587</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -44000,7 +44000,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-37.79732824885949,174.8380415268904</t>
+          <t>-37.797316988778775,174.83805822755158</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -44056,7 +44056,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>-37.78842378400628,174.8360791651887</t>
+          <t>-37.78842414428968,174.83607191304236</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -44130,7 +44130,7 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-37.797284725426195,174.83810607967686</t>
+          <t>-37.797334141439705,174.83803278716414</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -44190,7 +44190,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>-37.788432346246225,174.83590681337492</t>
+          <t>-37.78843075878875,174.83593876815286</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -44267,12 +44267,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-37.79771192129828,174.83885631866852</t>
+          <t>-37.7977231814621,174.8388396180162</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-37.79705328054343,174.83844935038584</t>
+          <t>-37.79706454067703,174.83843264984412</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -44332,7 +44332,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>-37.788432374392556,174.83590624680082</t>
+          <t>-37.788432014119316,174.83591349894917</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -44397,12 +44397,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-37.797726740373506,174.8388343395706</t>
+          <t>-37.79777183934611,174.83876745037185</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-37.797165356694734,174.8382831235231</t>
+          <t>-37.79721045546816,174.8382162345909</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -44454,7 +44454,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>-37.78843007201371,174.8359525925598</t>
+          <t>-37.78842861964801,174.83598182777996</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -44511,12 +44511,12 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-37.79779278439353,174.83873638537332</t>
+          <t>-37.79784879339558,174.83865331453845</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>-37.7971963365805,174.83823717524857</t>
+          <t>-37.79725234537015,174.8381541048238</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -44638,7 +44638,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-37.797096745813455,174.838384884536</t>
+          <t>-37.797129826070254,174.83833582121414</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -44719,7 +44719,7 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-37.79814033101786,174.8382209114985</t>
+          <t>-37.798107659276354,174.83826936988402</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -44768,7 +44768,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>-37.78842007981672,174.83615372631277</t>
+          <t>-37.7884211325319,174.8361325364502</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -44838,7 +44838,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>-37.78840958060449,174.8363650583233</t>
+          <t>-37.78841014357452,174.83635372685012</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -44903,12 +44903,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-37.79808204695143,174.83830735776692</t>
+          <t>-37.79808904804369,174.838296973838</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-37.7975187364114,174.83775899938829</t>
+          <t>-37.797525737472974,174.83774861550128</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -44964,7 +44964,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>-37.78840804369079,174.83639599324397</t>
+          <t>-37.788407818501284,174.83640052583297</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -45123,12 +45123,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-37.79788426573466,174.8386007029444</t>
+          <t>-37.797933273534696,174.83852801579044</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-37.79738145708605,174.8379626097075</t>
+          <t>-37.79743046461851,174.83788992272773</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -45180,7 +45180,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>-37.78841827837015,174.83618998703847</t>
+          <t>-37.788416702095276,174.8362217151716</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -45240,7 +45240,11 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-37.79763967962743,174.83757961746318</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>-37.79704256373384,174.83705220729095</t>
@@ -45298,7 +45302,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>-37.788416054694224,174.83623474636863</t>
+          <t>-37.788416977944,174.8362161627484</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -45375,7 +45379,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-37.79810783430359,174.8382691102856</t>
+          <t>-37.79810550060705,174.83827257159726</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -45490,7 +45494,7 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-37.79743215654447,174.83788741329457</t>
+          <t>-37.79739557592716,174.83794166894467</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -45542,7 +45546,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>-37.78841259811114,174.83630432162454</t>
+          <t>-37.78841377470509,174.8362806388429</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -45762,7 +45766,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>-37.78843168762131,174.83592007120853</t>
+          <t>-37.78843232372916,174.8359072666342</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -45839,12 +45843,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-37.79803093895153,174.83838316038836</t>
+          <t>-37.798084205621635,174.83830415605573</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-37.797436182161185,174.8378814425738</t>
+          <t>-37.7974894486277,174.83780243862753</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -45892,7 +45896,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>-37.788427448743285,174.83600539725876</t>
+          <t>-37.788425737412524,174.83603984495682</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -45961,12 +45965,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-37.79815468324115,174.83819962440842</t>
+          <t>-37.79815001585186,174.83820654704024</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-37.79746541163044,174.83783808992956</t>
+          <t>-37.79746074425114,174.8378450125098</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -46026,7 +46030,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>-37.78843692280399,174.83581468842038</t>
+          <t>-37.788437074791766,174.8358116289198</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -46250,7 +46254,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>-37.788434293965935,174.83586760644644</t>
+          <t>-37.78843267837277,174.8359001278006</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -46336,7 +46340,7 @@
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>-37.78842453271973,174.836064094322</t>
+          <t>-37.78842269189448,174.83610114825663</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -46397,12 +46401,12 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-37.79832428423622,174.8379480726799</t>
+          <t>-37.798337527911215,174.83792842961694</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>-37.79759364772497,174.83764789169507</t>
+          <t>-37.79760689138138,174.8376282488006</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -46450,7 +46454,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>-37.78843032533256,174.83594749339335</t>
+          <t>-37.78842989750503,174.83595610531887</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -46511,7 +46515,7 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-37.79814482338084,174.83821424846712</t>
+          <t>-37.79819073881032,174.838146147048</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -46552,7 +46556,7 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>-37.78841237292515,174.83630885421422</t>
+          <t>-37.788410897952645,174.83633854267572</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -46626,7 +46630,7 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>-37.79715917238404,174.83829229586706</t>
+          <t>-37.797182509401964,174.8382576832403</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -46678,7 +46682,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>-37.788419882784055,174.83615769232978</t>
+          <t>-37.78841913405865,174.83617276319404</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -46865,12 +46869,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-37.79782965699283,174.83868169708788</t>
+          <t>-37.7978798316935,174.83860727939643</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-37.797259929889464,174.83814285569403</t>
+          <t>-37.79731010437599,174.83806843831601</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -46926,7 +46930,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>-37.78843211544622,174.83591145928244</t>
+          <t>-37.788430499840985,174.8359439806342</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -47003,12 +47007,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-37.79770888747138,174.8388608183253</t>
+          <t>-37.79767429016448,174.8389121316924</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-37.79685328152525,174.83874597884702</t>
+          <t>-37.796818684189944,174.8387972916002</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -47056,7 +47060,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>-37.78842246671629,174.83610568084785</t>
+          <t>-37.78842358134666,174.83608324452095</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -47125,12 +47129,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-37.797541910053155,174.83910847193926</t>
+          <t>-37.79757965796156,174.83905248605265</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-37.79692971063903,174.83863262335313</t>
+          <t>-37.79696745841487,174.8385766377668</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -47190,7 +47194,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>-37.7884300157206,174.8359537257079</t>
+          <t>-37.78842879978679,174.83597820170624</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -47249,14 +47253,10 @@
           <t>-37.79803432723535,174.83976196941603</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>-37.79731927272341,174.83943867501318</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-37.79684307152126,174.8387611217387</t>
+          <t>-37.79682906922706,174.83878188912624</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -47308,7 +47308,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>-37.78842914317601,174.8359712895031</t>
+          <t>-37.78842959352192,174.83596222431854</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -47375,14 +47375,10 @@
           <t>-37.797874991376645,174.83999828683633</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>-37.797198852164755,174.83961727458706</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-37.79664289672534,174.8390580080997</t>
+          <t>-37.79662072634558,174.83909088961443</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -47438,7 +47434,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>-37.78842108749604,174.83613344296842</t>
+          <t>-37.78842180243959,174.8361190519918</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -47481,10 +47477,14 @@
           <t>-37.798023942121745,174.83977737204722</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>-37.79751081322548,174.83915459319073</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-37.79699884680885,174.8385300840208</t>
+          <t>-37.79699067882697,174.83854219838233</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -47544,7 +47544,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>-37.78843342143415,174.8358851702442</t>
+          <t>-37.78843368600857,174.83587984444753</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -47619,10 +47619,14 @@
           <t>-37.798102413859546,174.83966098688947</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>-37.79755538728457,174.83908848316716</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-37.796929827324604,174.83863245029116</t>
+          <t>-37.796952405981784,174.83859896278338</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -47670,7 +47674,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>-37.788432441943755,174.83590488702302</t>
+          <t>-37.7884317157677,174.83591950463446</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -47849,12 +47853,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-37.79726991432796,174.83951188014163</t>
+          <t>-37.797271081193614,174.83951014952507</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-37.796761508108474,174.83888209166008</t>
+          <t>-37.79676267496787,174.83888036104793</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -47923,12 +47927,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-37.79742814108766,174.83927720803592</t>
+          <t>-37.79747989140978,174.83920045480932</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-37.79690952402823,174.83866256307132</t>
+          <t>-37.79696127408238,174.83858581006155</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -47976,7 +47980,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>-37.78842408236601,174.836073159505</t>
+          <t>-37.78842241605117,174.8361067006809</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
@@ -48041,12 +48045,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-37.79734523545536,174.83940016873018</t>
+          <t>-37.79731682230764,174.83944230931266</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-37.796887120382344,174.83869579094744</t>
+          <t>-37.796858707412326,174.83873793148</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -48102,7 +48106,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>-37.78842010796422,174.83615315973896</t>
+          <t>-37.78842101994223,174.8361348027457</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -48155,12 +48159,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-37.797421898373656,174.83928646687332</t>
+          <t>-37.79739896952093,174.83932047361785</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>-37.79685573192592,174.8387423445524</t>
+          <t>-37.796832803172514,174.83877635115698</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -48216,7 +48220,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>-37.78842669440793,174.83602058144172</t>
+          <t>-37.78842743185518,174.83600573720315</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -48293,12 +48297,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-37.79728800074268,174.83948505557876</t>
+          <t>-37.797275165223176,174.83950409236667</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-37.79681448350022,174.83880352181313</t>
+          <t>-37.79680164805747,174.83882255857057</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -48358,7 +48362,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>-37.78841405055657,174.8362750864203</t>
+          <t>-37.7884144615185,174.83626681444363</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -48407,12 +48411,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-37.79738665911523,174.83933873168317</t>
+          <t>-37.79738706751737,174.83933812596544</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-37.7968246351665,174.83878846546395</t>
+          <t>-37.79682504356683,174.83878785974866</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -48472,7 +48476,7 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>-37.78841369026069,174.8362823385641</t>
+          <t>-37.78841367900146,174.83628256519359</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -48549,12 +48553,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-37.7973710231458,174.83936192201324</t>
+          <t>-37.79736559723003,174.83936996940162</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>-37.796813316641895,174.83880525242773</t>
+          <t>-37.79680789075045,174.83881329978485</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -48602,7 +48606,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>-37.788419635085624,174.83616267817965</t>
+          <t>-37.78841980960044,174.83615916542178</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -48651,12 +48655,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-37.79750276188642,174.83916653452152</t>
+          <t>-37.79754984470062,174.83909670365875</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>-37.79697428451691,174.8385665136284</t>
+          <t>-37.79702136709556,174.83849668298157</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -48716,7 +48720,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>-37.78842621028124,174.83603032651413</t>
+          <t>-37.78842469597278,174.83606080819314</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -48806,7 +48810,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>-37.78842710535208,174.83601230946147</t>
+          <t>-37.78842844513847,174.83598534053888</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -48859,12 +48863,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-37.79754465217411,174.83910440496024</t>
+          <t>-37.797595235529975,174.83902938212296</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>-37.797006431362384,174.8385188349684</t>
+          <t>-37.797057014473985,174.83844381238293</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -48924,7 +48928,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>-37.78842669440793,174.83602058144172</t>
+          <t>-37.78842506751387,174.836053329417</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -49050,7 +49054,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>-37.788428338180964,174.83598749352015</t>
+          <t>-37.78842635101582,174.83602749364425</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -49123,12 +49127,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-37.79740258679603,174.83931510868754</t>
+          <t>-37.79739366029417,174.8393283479501</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-37.79684791398053,174.83875393968202</t>
+          <t>-37.796838987519145,174.83876717889422</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -49176,7 +49180,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>-37.78842150407753,174.836125057675</t>
+          <t>-37.78842179118066,174.83611927862137</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -49245,12 +49249,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-37.79754447714511,174.83910466455467</t>
+          <t>-37.79757907453195,174.8390533513682</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-37.796939862284475,174.83861756695688</t>
+          <t>-37.796974459545154,174.8385662540351</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -49310,7 +49314,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>-37.78843501450634,174.83585310214855</t>
+          <t>-37.788433899919646,174.8358755384842</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -49387,12 +49391,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-37.79749109327704,174.83918384079342</t>
+          <t>-37.79752184005753,174.83913823875514</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-37.79691553333799,174.83865365038238</t>
+          <t>-37.79694627999043,174.83860804854334</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -49440,7 +49444,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>-37.78843106277064,174.83593264915297</t>
+          <t>-37.78843007201371,174.8359525925598</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -49509,12 +49513,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-37.79753129162614,174.83912422066365</t>
+          <t>-37.79758420871234,174.83904573659106</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-37.796953981236605,174.83859662644488</t>
+          <t>-37.79700689810411,174.83851814271895</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -49566,7 +49570,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>-37.78842976803078,174.83595871155947</t>
+          <t>-37.78842806797233,174.83599293263066</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -49660,7 +49664,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>-37.78842323795089,174.83609015672275</t>
+          <t>-37.78842425124872,174.8360697600614</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -49737,12 +49741,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-37.79757983299044,174.839052226458</t>
+          <t>-37.797640101236574,174.83896283928954</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-37.79699219573797,174.8385399485725</t>
+          <t>-37.7970524637461,174.83845056182392</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -49790,7 +49794,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>-37.78843346083886,174.83588437704046</t>
+          <t>-37.788431524372164,174.8359233573382</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -49864,7 +49868,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>-37.78842265811777,174.8361018281453</t>
+          <t>-37.78842308595592,174.8360932162219</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -50040,7 +50044,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>-37.788424634049214,174.83606205465583</t>
+          <t>-37.78842529831947,174.8360486835106</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -50162,7 +50166,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>-37.78841114565847,174.83633355682733</t>
+          <t>-37.78841169736615,174.83632245198302</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -50284,7 +50288,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>-37.788397701683714,174.83660415235684</t>
+          <t>-37.78839752715569,174.83660766511207</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -50394,7 +50398,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>-37.78839622100709,174.8366339541182</t>
+          <t>-37.78839700920091,174.83661809006293</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -50484,7 +50488,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>-37.78840587060485,174.83643973272615</t>
+          <t>-37.788407210488764,174.83641276382303</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -50578,7 +50582,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>-37.78841192255265,174.83631791939345</t>
+          <t>-37.788410222390226,174.83635214044386</t>
         </is>
       </c>
       <c r="R199" t="inlineStr"/>
@@ -50672,7 +50676,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>-37.788415981509644,174.83623621946046</t>
+          <t>-37.78841428137087,174.8362704405156</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -50766,7 +50770,7 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>-37.78840991275693,174.83635837275415</t>
+          <t>-37.78840781287154,174.83640063914768</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -50872,7 +50876,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>-37.78841858236505,174.83618386804116</t>
+          <t>-37.78841656698562,174.83622443472578</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -50974,7 +50978,7 @@
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>-37.78841218714658,174.83631259360067</t>
+          <t>-37.78841094861976,174.8363375228431</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -51288,7 +51292,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>-37.788408905039006,174.83637865609083</t>
+          <t>-37.78840866859074,174.83638341530943</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -51386,7 +51390,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>-37.788406748848786,174.83642205563012</t>
+          <t>-37.78840638854391,174.83642930777214</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -51476,7 +51480,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>-37.788412609370425,174.83630409499503</t>
+          <t>-37.78841063335756,174.83634386846828</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -51590,7 +51594,7 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>-37.78841878502813,174.8361797887096</t>
+          <t>-37.78841935923942,174.83616823060333</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -51680,7 +51684,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>-37.78842145341225,174.836126077508</t>
+          <t>-37.78842015300025,174.83615225322077</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -51832,7 +51836,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-37.796880585983935,174.83870548240748</t>
+          <t>-37.79692066750503,174.83864603565667</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -51953,12 +51957,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-37.79753181671323,174.83912344188067</t>
+          <t>-37.797529891393836,174.83912629741818</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-37.79679814748167,174.83882775041235</t>
+          <t>-37.79679622216487,174.83883060592512</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -52018,7 +52022,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>-37.788421971323636,174.83611565254844</t>
+          <t>-37.78842203324778,174.8361144060859</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -52095,12 +52099,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-37.79744255183604,174.8392558348258</t>
+          <t>-37.79750247017121,174.8391669671784</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-37.79680263988725,174.83882108754864</t>
+          <t>-37.796862558041546,174.83873222044463</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -52144,7 +52148,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>-37.788421701109115,174.83612109165782</t>
+          <t>-37.78841977582339,174.83615984531042</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -52202,7 +52206,7 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-37.79675252329039,174.83889541737184</t>
+          <t>-37.79680462354672,174.83881814550466</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -52327,12 +52331,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-37.797177323462094,174.83964920439126</t>
+          <t>-37.7971567282456,174.8396797496879</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-37.79688052764109,174.83870556893837</t>
+          <t>-37.79685993261256,174.83873611433245</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -52392,7 +52396,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>-37.788426908324126,174.8360162754794</t>
+          <t>-37.78842757258919,174.83600290433316</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -52469,12 +52473,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-37.79736676409368,174.83936823878057</t>
+          <t>-37.79734926113633,174.83939419809062</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-37.796822009735735,174.83879235934776</t>
+          <t>-37.79680450686088,174.8388183185661</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -52522,7 +52526,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>-37.78843497510184,174.83585389535236</t>
+          <t>-37.78843553802287,174.8358425638694</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -52600,7 +52604,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>-37.78842122260362,174.83613072341382</t>
+          <t>-37.78841943242314,174.83616675751134</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -52763,12 +52767,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-37.79733053296593,174.8394219745387</t>
+          <t>-37.79734062634204,174.83940700467903</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>-37.796598555957054,174.83912377110937</t>
+          <t>-37.79660864931922,174.8391088013786</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -52824,7 +52828,7 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>-37.78842622154001,174.83603009988454</t>
+          <t>-37.788425895035516,174.83603667214263</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -52901,12 +52905,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-37.7972602876855,174.8395261577262</t>
+          <t>-37.79722954076187,174.83957175944096</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>-37.79645684029317,174.83933395261917</t>
+          <t>-37.79642609337284,174.83937955385287</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -52967,12 +52971,12 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-37.7972044531267,174.83960896764307</t>
+          <t>-37.79721221279179,174.83959745906233</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>-37.79674266332602,174.8389100410388</t>
+          <t>-37.7967504229431,174.83889853247283</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -53012,7 +53016,7 @@
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>-37.78841870058518,174.8361814884311</t>
+          <t>-37.78841845288578,174.83618647428074</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -53139,12 +53143,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-37.79728298322177,174.839492497233</t>
+          <t>-37.797331233084556,174.8394209361671</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-37.796710574672616,174.8389576328272</t>
+          <t>-37.796758824331796,174.83888607206785</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -53188,7 +53192,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>-37.788422950849196,174.83609593577668</t>
+          <t>-37.78842139711748,174.83612721065575</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -53249,10 +53253,14 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-37.797608129319286,174.83901025863815</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
+          <t>-37.79756728925248,174.839070830739</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-37.797240618534445,174.8381714977044</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
@@ -53278,7 +53286,7 @@
       <c r="P225" t="inlineStr"/>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>-37.7884234800168,174.83608528418705</t>
+          <t>-37.7884247916728,174.83605888184172</t>
         </is>
       </c>
       <c r="R225" t="inlineStr"/>
@@ -53319,10 +53327,14 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-37.79751081322548,174.83915459319073</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>-37.7975543954538,174.8390899542026</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-37.79704802970317,174.83845713820148</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>-37.79643535624048,174.83796502999593</t>
@@ -53444,7 +53456,11 @@
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-37.797142311382565,174.8383173034763</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>-37.7965694750062,174.8377634097259</t>
@@ -53482,7 +53498,7 @@
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>-37.788431192244325,174.83593004291225</t>
+          <t>-37.78843220551453,174.83590964624537</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -53649,12 +53665,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-37.79742458215733,174.83928248643875</t>
+          <t>-37.79745958801964,174.83923056770024</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-37.79688560346848,174.8386980407508</t>
+          <t>-37.79692060916223,174.83864612218764</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -53714,7 +53730,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>-37.7884234068341,174.83608675727925</t>
+          <t>-37.78842228094415,174.83610942023563</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -53898,7 +53914,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>-37.78843523404564,174.83584868287022</t>
+          <t>-37.788433883031935,174.83587587842868</t>
         </is>
       </c>
       <c r="R231" t="inlineStr"/>
@@ -53955,12 +53971,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-37.79778315784066,174.83875066316034</t>
+          <t>-37.797827089913916,174.83868550450194</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-37.79721028044064,174.83821649418587</t>
+          <t>-37.79725421232885,174.83815133580745</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -53996,7 +54012,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>-37.78843493006811,174.83585480187097</t>
+          <t>-37.78843351713132,174.83588324389223</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -54053,7 +54069,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-37.797723939918654,174.8388384931016</t>
+          <t>-37.79768735896419,174.8388927485712</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -54159,12 +54175,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-37.797732166254406,174.83882629210342</t>
+          <t>-37.797701827988895,174.83887128867897</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>-37.7970856023716,174.83840141202958</t>
+          <t>-37.797055264194064,174.8384464083219</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -54314,7 +54330,7 @@
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>-37.788443385029,174.83568460297428</t>
+          <t>-37.78844171882438,174.83571814417218</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -54371,12 +54387,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-37.797684500164515,174.83889698862956</t>
+          <t>-37.797703578273904,174.83886869272368</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-37.79704563765355,174.8384606859838</t>
+          <t>-37.797064715704984,174.83843239025018</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -54424,7 +54440,7 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>-37.7884362585602,174.83582805957087</t>
+          <t>-37.78843564497774,174.83584041088758</t>
         </is>
       </c>
       <c r="R236" t="inlineStr"/>
@@ -54477,12 +54493,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-37.79759290181213,174.83903284338643</t>
+          <t>-37.79758432539824,174.83904556352795</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-37.79699429607623,174.8385368334511</t>
+          <t>-37.79698571969453,174.83854955352905</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -54542,7 +54558,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>-37.7884368946581,174.83581525499454</t>
+          <t>-37.788437170487725,174.83580970256756</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -54619,12 +54635,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-37.797520906569176,174.83913962325784</t>
+          <t>-37.79751466386548,174.83914888211854</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-37.796965474761116,174.8385795798238</t>
+          <t>-37.796959232085655,174.8385888386491</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -54684,7 +54700,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>-37.78844627834814,174.83562635913287</t>
+          <t>-37.78844648099199,174.83562227979746</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -54761,12 +54777,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-37.79734640231945,174.8393984381101</t>
+          <t>-37.797310987983934,174.83945096240566</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>-37.796822009735735,174.83879235934776</t>
+          <t>-37.79678659557995,174.83884488348673</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -54826,7 +54842,7 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>-37.78842644108592,174.83602568060752</t>
+          <t>-37.78842757821855,174.83600279101836</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -54904,7 +54920,7 @@
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>-37.78844154432269,174.83572165693263</t>
+          <t>-37.788440283404015,174.8357470394594</t>
         </is>
       </c>
       <c r="R240" t="inlineStr"/>
@@ -54941,12 +54957,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-37.79774015921778,174.83881443723024</t>
+          <t>-37.79774325138579,174.83880985103775</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-37.79715001260187,174.8383058813171</t>
+          <t>-37.797153104757804,174.83830129514644</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -55006,7 +55022,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>-37.7884254784603,174.83604505743727</t>
+          <t>-37.78842537713109,174.83604709710352</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -55083,12 +55099,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-37.79758234173771,174.83904850560103</t>
+          <t>-37.797626273968014,174.83898334729753</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-37.797004389367295,174.83852186355966</t>
+          <t>-37.79704832141653,174.83845670554507</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -55132,7 +55148,7 @@
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>-37.78842546157209,174.83604539738167</t>
+          <t>-37.78842404858944,174.83607383939372</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -55234,7 +55250,7 @@
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>-37.78841912842913,174.8361728765088</t>
+          <t>-37.78842020366576,174.83615123338782</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -55328,7 +55344,7 @@
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>-37.78842067654344,174.83614171494693</t>
+          <t>-37.78842197695311,174.83611553923367</t>
         </is>
       </c>
       <c r="R244" t="inlineStr"/>
@@ -55373,12 +55389,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-37.797640976380045,174.83896154131406</t>
+          <t>-37.79762773254081,174.83898118400592</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>-37.79702650125295,174.83848906823403</t>
+          <t>-37.79701325745968,174.8385087108193</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -55430,7 +55446,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>-37.788436832737126,174.83581650145774</t>
+          <t>-37.78843726055449,174.83580788953014</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -55641,12 +55657,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-37.79769336827733,174.8388838357944</t>
+          <t>-37.797727207115976,174.83883364731543</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>-37.79710998958702,174.83836524190625</t>
+          <t>-37.79714382828949,174.83831505365723</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -55694,7 +55710,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>-37.78842378400628,174.8360791651887</t>
+          <t>-37.788422697523934,174.83610103494183</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -55763,12 +55779,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-37.79766197981912,174.83893038989405</t>
+          <t>-37.79764955278527,174.83894882115305</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>-37.79707329207462,174.83841967014496</t>
+          <t>-37.79706086508961,174.83843810131685</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -55828,7 +55844,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>-37.78844075624915,174.835737521012</t>
+          <t>-37.78844115591528,174.83572947565753</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -55873,12 +55889,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-37.79774529338344,174.83880682241985</t>
+          <t>-37.79780521139567,174.8387179540427</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>-37.797100129685425,174.83837986571498</t>
+          <t>-37.79716004752239,174.83829099789398</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -55938,7 +55954,7 @@
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>-37.7884333932879,174.8358857368183</t>
+          <t>-37.78843146807933,174.83592449048635</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -56007,12 +56023,12 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-37.797624640366436,174.83898577018402</t>
+          <t>-37.79761688075831,174.83899727889352</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>-37.797016874707495,174.8385033458848</t>
+          <t>-37.79700911512723,174.8385148545339</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -56052,7 +56068,7 @@
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>-37.788439050625584,174.83577185541077</t>
+          <t>-37.78843929830752,174.8357668695576</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -56113,12 +56129,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-37.797466705875635,174.83922001088405</t>
+          <t>-37.79745970470581,174.8392303946377</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>-37.79697626817033,174.83856357157072</t>
+          <t>-37.79696926704027,174.838573955303</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -56174,7 +56190,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>-37.788448169685246,174.83558828533464</t>
+          <t>-37.788448394843606,174.83558375273944</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -56251,12 +56267,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-37.79750643749787,174.83916108304476</t>
+          <t>-37.79750993807999,174.8391558911616</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>-37.796854740097096,174.83874381557644</t>
+          <t>-37.796858240669366,174.83873862372667</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -56296,7 +56312,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>-37.788429841211894,174.835957238467</t>
+          <t>-37.78842972862556,174.83595950476314</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -56353,12 +56369,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-37.797550486473526,174.8390957518124</t>
+          <t>-37.79760066142357,174.83902133468447</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>-37.79702527605633,174.83849088538975</t>
+          <t>-37.79707545075248,174.83841646848535</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -56418,7 +56434,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>-37.78843624167263,174.83582839951538</t>
+          <t>-37.78843462609025,174.83586092087168</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -56544,7 +56560,7 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>-37.788432408168156,174.83590556691192</t>
+          <t>-37.78843319626423,174.83588970283708</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -56621,12 +56637,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-37.797650836328806,174.83894691745522</t>
+          <t>-37.79771693878088,174.8388488769277</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>-37.79704038681257,174.83846847379783</t>
+          <t>-37.79710648903044,174.83837043379145</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -56686,7 +56702,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>-37.788433044274434,174.83589276233727</t>
+          <t>-37.788430916409034,174.8359355953381</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -56755,12 +56771,12 @@
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-37.79759144323844,174.83903500667603</t>
+          <t>-37.79757703252827,174.83905637997245</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>-37.79717474984458,174.83826919194112</t>
+          <t>-37.79716033923518,174.83829056523624</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -56816,7 +56832,7 @@
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>-37.78844485420825,174.83565502779481</t>
+          <t>-37.78844531578795,174.8356457359757</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -56893,12 +56909,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-37.79762265670732,174.8389887122604</t>
+          <t>-37.79767674056467,174.83890849735772</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>-37.7970955206184,174.83838670169524</t>
+          <t>-37.797149604203895,174.8383064870377</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -56958,7 +56974,7 @@
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>-37.78843286976754,174.8358962750967</t>
+          <t>-37.78843113032213,174.8359312893752</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -57031,12 +57047,12 @@
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-37.7973602880001,174.8393778437267</t>
+          <t>-37.797337359122224,174.83941185041442</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>-37.7968496642669,174.8387513437577</t>
+          <t>-37.79682673551101,174.8387853503567</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -57133,12 +57149,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-37.79748998475903,174.839185484889</t>
+          <t>-37.797493485342166,174.83918029300816</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>-37.79698437781157,174.83855154374507</t>
+          <t>-37.796987878375774,174.83854635187706</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -57198,7 +57214,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>-37.788425596677655,174.8360426778266</t>
+          <t>-37.78842548408969,174.83604494412248</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -57275,12 +57291,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-37.79766291330511,174.8389290053861</t>
+          <t>-37.79770258644574,174.83887016376502</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>-37.797136068726765,174.838326562346</t>
+          <t>-37.797175741667765,174.8382677209043</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -57340,7 +57356,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>-37.78843502576478,174.8358528755189</t>
+          <t>-37.78843374793021,174.83587859798445</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -57413,12 +57429,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-37.79750293691554,174.8391662749274</t>
+          <t>-37.797482691876795,174.8391963013058</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>-37.79700018869147,174.838528093804</t>
+          <t>-37.79697994376327,174.8385581201105</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -57478,7 +57494,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>-37.78842484796692,174.83605774869383</t>
+          <t>-37.78842550097788,174.8360446041781</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -57555,12 +57571,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-37.79761373024042,174.83900195160194</t>
+          <t>-37.797617639216284,174.83899615398218</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>-37.79708204347085,174.83840669044272</t>
+          <t>-37.79708595242739,174.83840089284138</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -57620,7 +57636,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>-37.78843948969795,174.83576301685287</t>
+          <t>-37.7884393658571,174.83576550977946</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -57697,14 +57713,10 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-37.797521373313344,174.8391389310065</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>-37.79685806564076,174.83873888331917</t>
-        </is>
-      </c>
+          <t>-37.797510113109084,174.8391556315674</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
           <t>-37.79624861976724,174.83824574823493</t>
@@ -57750,7 +57762,7 @@
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>-37.78842916569333,174.83597083624386</t>
+          <t>-37.78842952597009,174.83596358409622</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -57815,14 +57827,10 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-37.797324348584304,174.83943114682066</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>-37.79663472869171,174.83907012234425</t>
-        </is>
-      </c>
+          <t>-37.79728508357942,174.83948938212205</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
           <t>-37.79611149019007,174.83845189162804</t>
@@ -57880,7 +57888,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>-37.7884286759414,174.83598069463196</t>
+          <t>-37.78842993691023,174.83595531211523</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -57957,12 +57965,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-37.79752534063868,174.83913304686982</t>
+          <t>-37.797575924011944,174.83905802407182</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>-37.79682848579806,174.83878275443385</t>
+          <t>-37.79687906906992,174.83870773221048</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -58022,7 +58030,7 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>-37.788431192244325,174.83593004291225</t>
+          <t>-37.78842956537533,174.83596279089258</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -58091,12 +58099,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-37.79740807105139,174.83930697475995</t>
+          <t>-37.79742831611703,174.83927694844232</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-37.79671104141681,174.8389569405833</t>
+          <t>-37.79673128644191,174.83892691449577</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -58148,7 +58156,7 @@
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>-37.78843890426798,174.83577480159673</t>
+          <t>-37.78843825128702,174.83578794611844</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -58221,12 +58229,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-37.79744033479807,174.8392591230125</t>
+          <t>-37.797499844734304,174.83917086109003</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>-37.79684663043715,174.8387558433598</t>
+          <t>-37.7969061401448,174.8386675818664</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -58286,7 +58294,7 @@
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>-37.78843427707824,174.83586794639092</t>
+          <t>-37.788432363134035,174.83590647343047</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -58363,12 +58371,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-37.797148618512374,174.83969177743455</t>
+          <t>-37.79713187395162,174.83971661169448</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>-37.796537645686705,174.83921410858844</t>
+          <t>-37.796520901185104,174.83923894271604</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -58428,7 +58436,7 @@
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>-37.78842685203041,174.83601740862738</t>
+          <t>-37.78842739244966,174.83600653040676</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -58505,12 +58513,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-37.797188758763184,174.83963224438918</t>
+          <t>-37.79722143103916,174.8395837872114</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>-37.796580761296774,174.83915016282128</t>
+          <t>-37.79661343345557,174.83910170589783</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -58595,12 +58603,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-37.797255328505415,174.83953351284404</t>
+          <t>-37.79726933089514,174.8395127454499</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>-37.79675730741449,174.8388883218634</t>
+          <t>-37.79677130972657,174.83886755451633</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -58660,7 +58668,7 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>-37.78843711982516,174.8358107224011</t>
+          <t>-37.788436669490856,174.83581978758798</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -58737,12 +58745,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-37.79718706680551,174.83963475377757</t>
+          <t>-37.79719564328007,174.83962203377317</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>-37.796623935216864,174.83908613044903</t>
+          <t>-37.796632511653804,174.8390734104959</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -58802,7 +58810,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>-37.78843791353766,174.83579474500888</t>
+          <t>-37.78843763770875,174.835800297436</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -58879,12 +58887,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-37.79698525673069,174.83993406241564</t>
+          <t>-37.79696384463338,174.83996581897466</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>-37.79647574351477,174.8393059169272</t>
+          <t>-37.7964543315318,174.83933767340437</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -58936,7 +58944,7 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>-37.78844020459643,174.83574862586727</t>
+          <t>-37.788440891347626,174.83573480145554</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -59034,7 +59042,7 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>-37.788422849519115,174.83609797544275</t>
+          <t>-37.7884213126753,174.8361289103774</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -59107,12 +59115,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-37.79690363400536,174.84005511797363</t>
+          <t>-37.796880296535285,174.84008972994954</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>-37.796332102208396,174.83951895321377</t>
+          <t>-37.79630876483716,174.8395535650422</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -59168,7 +59176,7 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>-37.78844138670815,174.83572482974856</t>
+          <t>-37.788442135376435,174.8357097588729</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -59233,12 +59241,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-37.79689774129509,174.84006385749964</t>
+          <t>-37.796921837225284,174.84002812061723</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>-37.79646979250126,174.83931474297995</t>
+          <t>-37.79649388826781,174.83927900611062</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -59298,7 +59306,7 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>-37.78843986684933,174.83575542475813</t>
+          <t>-37.78843909002955,174.83577106220687</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -59375,12 +59383,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-37.79699890912636,174.83991381435473</t>
+          <t>-37.79706542075008,174.83981516984835</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>-37.79659207986823,174.83913337596337</t>
+          <t>-37.79665859101521,174.83903473143656</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -59440,7 +59448,7 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>-37.78844485983728,174.83565491447996</t>
+          <t>-37.788442720799914,174.83569797412773</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -59517,14 +59525,10 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-37.79684704062368,174.84013905197733</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>-37.79622644218276,174.83967565809215</t>
-        </is>
-      </c>
+          <t>-37.796885139061125,174.84008254796635</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
           <t>-37.795734541263634,174.8390185427102</t>
@@ -59582,7 +59586,7 @@
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>-37.788443795949604,174.83567633098937</t>
+          <t>-37.78844256881509,174.83570103362888</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -59659,14 +59663,10 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-37.79662463391577,174.84046890271088</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>-37.795987991687255,174.84002930240433</t>
-        </is>
-      </c>
+          <t>-37.79658921912524,174.84052142597824</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
           <t>-37.795515096979635,174.83934841937963</t>
@@ -59716,7 +59716,7 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>-37.78845475549549,174.8354557069109</t>
+          <t>-37.78845589251779,174.83543281729968</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -59826,7 +59826,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>-37.78846246689634,174.835300465471</t>
+          <t>-37.78846320425318,174.83528562121438</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -59899,12 +59899,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-37.79675369059117,174.84027749953697</t>
+          <t>-37.796813201254814,174.84018923925822</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>-37.79613035031378,174.8398181717468</t>
+          <t>-37.796189860780245,174.83972991196805</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -59964,7 +59964,7 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>-37.7884433343675,174.83568562280803</t>
+          <t>-37.78844142048269,174.83572414985943</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -60041,12 +60041,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-37.796446101136446,174.8407336817656</t>
+          <t>-37.79644143360519,174.84074060407667</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>-37.795889157248325,174.84017588197977</t>
+          <t>-37.79588448973805,174.84018280426406</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -60106,7 +60106,7 @@
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>-37.78845446842481,174.835461485971</t>
+          <t>-37.788454620403456,174.8354584264686</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -60183,12 +60183,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-37.79652224018525,174.84062076144318</t>
+          <t>-37.79652807459086,174.8406121085353</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>-37.796037350497805,174.8399560989982</t>
+          <t>-37.7960431848697,174.83994744610683</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -60248,7 +60248,7 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>-37.788452931747536,174.8354924209389</t>
+          <t>-37.78845274599479,174.8354961603305</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -60325,12 +60325,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-37.79658198447006,174.8405321556016</t>
+          <t>-37.79662475060367,174.84046872965226</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>-37.796048552491314,174.83993948544557</t>
+          <t>-37.79609131841478,174.83987605970083</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -60390,7 +60390,7 @@
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>-37.78844622768716,174.83562737896673</t>
+          <t>-37.78844485420825,174.83565502779481</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -60467,12 +60467,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-37.796564247892135,174.84055846047582</t>
+          <t>-37.796615590602336,174.84048231475268</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>-37.796012612754204,174.83999278724235</t>
+          <t>-37.79606395522876,174.83991664180246</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -60532,7 +60532,7 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>-37.788455149513624,174.8354477748675</t>
+          <t>-37.78845350026278,174.8354809761341</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -60609,12 +60609,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-37.79656547311644,174.84055664336321</t>
+          <t>-37.79663157684572,174.84045860572175</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>-37.796023289659026,174.83997695246074</t>
+          <t>-37.79608939307378,174.83987891515886</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -60674,7 +60674,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>-37.788446244574146,174.83562703902209</t>
+          <t>-37.78844411680501,174.83566987204216</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -60747,12 +60747,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-37.7966177493289,174.84047911316878</t>
+          <t>-37.7966710173391,174.8404001118643</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>-37.796359873667505,174.83947776510936</t>
+          <t>-37.79641314115467,174.83939876346932</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -60812,7 +60812,7 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>-37.78846044619131,174.8353411455311</t>
+          <t>-37.78845873505408,174.8353755932678</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -60972,7 +60972,7 @@
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>-37.78845332013927,174.8354846022109</t>
+          <t>-37.78845406877693,174.8354695313291</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -61045,12 +61045,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-37.79661413200327,174.8404844779849</t>
+          <t>-37.79664254550642,174.84044233820555</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>-37.796205438509574,174.83970680864948</t>
+          <t>-37.79623385181003,174.83966466886355</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -61110,7 +61110,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>-37.78845150764013,174.83552108960734</t>
+          <t>-37.78845059575742,174.83553944661958</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -61183,12 +61183,12 @@
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-37.79680917553545,174.840195209811</t>
+          <t>-37.7968741121041,174.8400989021195</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>-37.796400188933525,174.83941797307904</t>
+          <t>-37.79646512503923,174.83932166537323</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -61248,7 +61248,7 @@
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>-37.788456787497545,174.83541480022885</t>
+          <t>-37.78845469920716,174.83545684005992</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
